--- a/my_work/data1/YearMeanER56985_蒙自.xlsx
+++ b/my_work/data1/YearMeanER56985_蒙自.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,6 +465,1026 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1966</v>
+      </c>
+      <c r="B2" t="n">
+        <v>6998.200000000005</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1496.1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2003.399999999999</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1977.700000000001</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1967</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6626.699999999996</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2693.899999999999</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4023.299999999997</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4009.000000000002</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2898.7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1968</v>
+      </c>
+      <c r="B4" t="n">
+        <v>6602.499999999998</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3813.999999999999</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5941.599999999996</v>
+      </c>
+      <c r="E4" t="n">
+        <v>6028.700000000002</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4443.099999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1969</v>
+      </c>
+      <c r="B5" t="n">
+        <v>6962.500000000001</v>
+      </c>
+      <c r="C5" t="n">
+        <v>5252.999999999999</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8045.999999999997</v>
+      </c>
+      <c r="E5" t="n">
+        <v>8041.300000000001</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5849.599999999999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1970</v>
+      </c>
+      <c r="B6" t="n">
+        <v>6748.299999999997</v>
+      </c>
+      <c r="C6" t="n">
+        <v>6645.899999999999</v>
+      </c>
+      <c r="D6" t="n">
+        <v>9987.300000000001</v>
+      </c>
+      <c r="E6" t="n">
+        <v>10041.3</v>
+      </c>
+      <c r="F6" t="n">
+        <v>7263.699999999996</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1971</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6450.3</v>
+      </c>
+      <c r="C7" t="n">
+        <v>7869.999999999998</v>
+      </c>
+      <c r="D7" t="n">
+        <v>11940.2</v>
+      </c>
+      <c r="E7" t="n">
+        <v>11998.90000000001</v>
+      </c>
+      <c r="F7" t="n">
+        <v>8579.4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1972</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6748.999999999997</v>
+      </c>
+      <c r="C8" t="n">
+        <v>9176.500000000004</v>
+      </c>
+      <c r="D8" t="n">
+        <v>13924.60000000001</v>
+      </c>
+      <c r="E8" t="n">
+        <v>13979.3</v>
+      </c>
+      <c r="F8" t="n">
+        <v>10057.1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1973</v>
+      </c>
+      <c r="B9" t="n">
+        <v>6868.600000000003</v>
+      </c>
+      <c r="C9" t="n">
+        <v>10610.60000000001</v>
+      </c>
+      <c r="D9" t="n">
+        <v>16009.60000000002</v>
+      </c>
+      <c r="E9" t="n">
+        <v>15984.20000000001</v>
+      </c>
+      <c r="F9" t="n">
+        <v>11401.7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1974</v>
+      </c>
+      <c r="B10" t="n">
+        <v>6637.7</v>
+      </c>
+      <c r="C10" t="n">
+        <v>11820.70000000001</v>
+      </c>
+      <c r="D10" t="n">
+        <v>17965.60000000002</v>
+      </c>
+      <c r="E10" t="n">
+        <v>17972.40000000001</v>
+      </c>
+      <c r="F10" t="n">
+        <v>12885.1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1975</v>
+      </c>
+      <c r="B11" t="n">
+        <v>6792.699999999997</v>
+      </c>
+      <c r="C11" t="n">
+        <v>13250.90000000001</v>
+      </c>
+      <c r="D11" t="n">
+        <v>20000.40000000003</v>
+      </c>
+      <c r="E11" t="n">
+        <v>19988.80000000001</v>
+      </c>
+      <c r="F11" t="n">
+        <v>14196.40000000001</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1976</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5863.400000000002</v>
+      </c>
+      <c r="C12" t="n">
+        <v>14539.90000000001</v>
+      </c>
+      <c r="D12" t="n">
+        <v>21918.50000000003</v>
+      </c>
+      <c r="E12" t="n">
+        <v>21345.2</v>
+      </c>
+      <c r="F12" t="n">
+        <v>15496.30000000001</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1977</v>
+      </c>
+      <c r="B13" t="n">
+        <v>6502.400000000001</v>
+      </c>
+      <c r="C13" t="n">
+        <v>15573.70000000002</v>
+      </c>
+      <c r="D13" t="n">
+        <v>23977.80000000004</v>
+      </c>
+      <c r="E13" t="n">
+        <v>23350.80000000002</v>
+      </c>
+      <c r="F13" t="n">
+        <v>16899.99999999999</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1978</v>
+      </c>
+      <c r="B14" t="n">
+        <v>6728.700000000001</v>
+      </c>
+      <c r="C14" t="n">
+        <v>16877</v>
+      </c>
+      <c r="D14" t="n">
+        <v>25964.50000000006</v>
+      </c>
+      <c r="E14" t="n">
+        <v>25338.60000000002</v>
+      </c>
+      <c r="F14" t="n">
+        <v>18350.9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1979</v>
+      </c>
+      <c r="B15" t="n">
+        <v>6914.799999999998</v>
+      </c>
+      <c r="C15" t="n">
+        <v>18368.10000000001</v>
+      </c>
+      <c r="D15" t="n">
+        <v>28004.90000000006</v>
+      </c>
+      <c r="E15" t="n">
+        <v>27387.20000000002</v>
+      </c>
+      <c r="F15" t="n">
+        <v>19685.6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1980</v>
+      </c>
+      <c r="B16" t="n">
+        <v>7024.100000000002</v>
+      </c>
+      <c r="C16" t="n">
+        <v>19797.50000000002</v>
+      </c>
+      <c r="D16" t="n">
+        <v>30095.40000000005</v>
+      </c>
+      <c r="E16" t="n">
+        <v>29392.90000000002</v>
+      </c>
+      <c r="F16" t="n">
+        <v>21184.10000000001</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1981</v>
+      </c>
+      <c r="B17" t="n">
+        <v>6820.700000000003</v>
+      </c>
+      <c r="C17" t="n">
+        <v>21229.60000000002</v>
+      </c>
+      <c r="D17" t="n">
+        <v>32047.80000000005</v>
+      </c>
+      <c r="E17" t="n">
+        <v>31434.60000000001</v>
+      </c>
+      <c r="F17" t="n">
+        <v>22578.6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1982</v>
+      </c>
+      <c r="B18" t="n">
+        <v>6780.3</v>
+      </c>
+      <c r="C18" t="n">
+        <v>22635.40000000002</v>
+      </c>
+      <c r="D18" t="n">
+        <v>34006.00000000007</v>
+      </c>
+      <c r="E18" t="n">
+        <v>33464.40000000003</v>
+      </c>
+      <c r="F18" t="n">
+        <v>23965.1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1983</v>
+      </c>
+      <c r="B19" t="n">
+        <v>6771.900000000005</v>
+      </c>
+      <c r="C19" t="n">
+        <v>23827.90000000002</v>
+      </c>
+      <c r="D19" t="n">
+        <v>36138.60000000006</v>
+      </c>
+      <c r="E19" t="n">
+        <v>35565.90000000003</v>
+      </c>
+      <c r="F19" t="n">
+        <v>25310.39999999999</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1984</v>
+      </c>
+      <c r="B20" t="n">
+        <v>6888.199999999993</v>
+      </c>
+      <c r="C20" t="n">
+        <v>25180.90000000001</v>
+      </c>
+      <c r="D20" t="n">
+        <v>38189.50000000007</v>
+      </c>
+      <c r="E20" t="n">
+        <v>37592.10000000003</v>
+      </c>
+      <c r="F20" t="n">
+        <v>26768.50000000001</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1985</v>
+      </c>
+      <c r="B21" t="n">
+        <v>6678.399999999995</v>
+      </c>
+      <c r="C21" t="n">
+        <v>26468.69999999999</v>
+      </c>
+      <c r="D21" t="n">
+        <v>40172.20000000007</v>
+      </c>
+      <c r="E21" t="n">
+        <v>39584.70000000005</v>
+      </c>
+      <c r="F21" t="n">
+        <v>28183.80000000003</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1986</v>
+      </c>
+      <c r="B22" t="n">
+        <v>6682.899999999998</v>
+      </c>
+      <c r="C22" t="n">
+        <v>27780.59999999997</v>
+      </c>
+      <c r="D22" t="n">
+        <v>42159.60000000009</v>
+      </c>
+      <c r="E22" t="n">
+        <v>41561.00000000005</v>
+      </c>
+      <c r="F22" t="n">
+        <v>29591.10000000005</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1987</v>
+      </c>
+      <c r="B23" t="n">
+        <v>6977.300000000003</v>
+      </c>
+      <c r="C23" t="n">
+        <v>29201.39999999998</v>
+      </c>
+      <c r="D23" t="n">
+        <v>44269.30000000009</v>
+      </c>
+      <c r="E23" t="n">
+        <v>43601.10000000002</v>
+      </c>
+      <c r="F23" t="n">
+        <v>30997.80000000004</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1988</v>
+      </c>
+      <c r="B24" t="n">
+        <v>6925.500000000003</v>
+      </c>
+      <c r="C24" t="n">
+        <v>30649.89999999999</v>
+      </c>
+      <c r="D24" t="n">
+        <v>46318.00000000009</v>
+      </c>
+      <c r="E24" t="n">
+        <v>45615.50000000001</v>
+      </c>
+      <c r="F24" t="n">
+        <v>32411.70000000003</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1989</v>
+      </c>
+      <c r="B25" t="n">
+        <v>6696.499999999998</v>
+      </c>
+      <c r="C25" t="n">
+        <v>31864.59999999998</v>
+      </c>
+      <c r="D25" t="n">
+        <v>48316.1000000001</v>
+      </c>
+      <c r="E25" t="n">
+        <v>47633.2</v>
+      </c>
+      <c r="F25" t="n">
+        <v>33877.70000000006</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B26" t="n">
+        <v>6666.899999999997</v>
+      </c>
+      <c r="C26" t="n">
+        <v>33204.39999999999</v>
+      </c>
+      <c r="D26" t="n">
+        <v>50140.00000000009</v>
+      </c>
+      <c r="E26" t="n">
+        <v>49694.59999999999</v>
+      </c>
+      <c r="F26" t="n">
+        <v>35319.50000000002</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1991</v>
+      </c>
+      <c r="B27" t="n">
+        <v>6777.700000000002</v>
+      </c>
+      <c r="C27" t="n">
+        <v>34649.10000000001</v>
+      </c>
+      <c r="D27" t="n">
+        <v>52116.20000000011</v>
+      </c>
+      <c r="E27" t="n">
+        <v>51660.2</v>
+      </c>
+      <c r="F27" t="n">
+        <v>36710.70000000001</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1992</v>
+      </c>
+      <c r="B28" t="n">
+        <v>5759.9</v>
+      </c>
+      <c r="C28" t="n">
+        <v>35881.80000000002</v>
+      </c>
+      <c r="D28" t="n">
+        <v>54091.60000000011</v>
+      </c>
+      <c r="E28" t="n">
+        <v>53085.59999999998</v>
+      </c>
+      <c r="F28" t="n">
+        <v>37837.10000000002</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1993</v>
+      </c>
+      <c r="B29" t="n">
+        <v>6193.2</v>
+      </c>
+      <c r="C29" t="n">
+        <v>37028</v>
+      </c>
+      <c r="D29" t="n">
+        <v>55898.9000000001</v>
+      </c>
+      <c r="E29" t="n">
+        <v>54983.99999999997</v>
+      </c>
+      <c r="F29" t="n">
+        <v>39178.40000000003</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B30" t="n">
+        <v>6400.3</v>
+      </c>
+      <c r="C30" t="n">
+        <v>38168.20000000002</v>
+      </c>
+      <c r="D30" t="n">
+        <v>57920.10000000006</v>
+      </c>
+      <c r="E30" t="n">
+        <v>56822.79999999997</v>
+      </c>
+      <c r="F30" t="n">
+        <v>40578.50000000005</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1995</v>
+      </c>
+      <c r="B31" t="n">
+        <v>6382.999999999998</v>
+      </c>
+      <c r="C31" t="n">
+        <v>39429.10000000005</v>
+      </c>
+      <c r="D31" t="n">
+        <v>59870.70000000004</v>
+      </c>
+      <c r="E31" t="n">
+        <v>58707.79999999998</v>
+      </c>
+      <c r="F31" t="n">
+        <v>41865.00000000003</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1996</v>
+      </c>
+      <c r="B32" t="n">
+        <v>6526.299999999999</v>
+      </c>
+      <c r="C32" t="n">
+        <v>40730.20000000004</v>
+      </c>
+      <c r="D32" t="n">
+        <v>61708.10000000006</v>
+      </c>
+      <c r="E32" t="n">
+        <v>60677.59999999996</v>
+      </c>
+      <c r="F32" t="n">
+        <v>43283.00000000006</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1997</v>
+      </c>
+      <c r="B33" t="n">
+        <v>6566.499999999995</v>
+      </c>
+      <c r="C33" t="n">
+        <v>41957.30000000004</v>
+      </c>
+      <c r="D33" t="n">
+        <v>63558.20000000004</v>
+      </c>
+      <c r="E33" t="n">
+        <v>62607.89999999994</v>
+      </c>
+      <c r="F33" t="n">
+        <v>44842.00000000008</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1998</v>
+      </c>
+      <c r="B34" t="n">
+        <v>7223.499999999998</v>
+      </c>
+      <c r="C34" t="n">
+        <v>43474.90000000004</v>
+      </c>
+      <c r="D34" t="n">
+        <v>65638.10000000006</v>
+      </c>
+      <c r="E34" t="n">
+        <v>64692.79999999994</v>
+      </c>
+      <c r="F34" t="n">
+        <v>46383.10000000009</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>6886.900000000002</v>
+      </c>
+      <c r="C35" t="n">
+        <v>44934.40000000007</v>
+      </c>
+      <c r="D35" t="n">
+        <v>67650.30000000009</v>
+      </c>
+      <c r="E35" t="n">
+        <v>66736.79999999997</v>
+      </c>
+      <c r="F35" t="n">
+        <v>47754.30000000008</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B36" t="n">
+        <v>6830.799999999998</v>
+      </c>
+      <c r="C36" t="n">
+        <v>46292.90000000006</v>
+      </c>
+      <c r="D36" t="n">
+        <v>69611.70000000007</v>
+      </c>
+      <c r="E36" t="n">
+        <v>68751.19999999994</v>
+      </c>
+      <c r="F36" t="n">
+        <v>49250.80000000009</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>2001</v>
+      </c>
+      <c r="B37" t="n">
+        <v>6959.700000000003</v>
+      </c>
+      <c r="C37" t="n">
+        <v>47715.50000000007</v>
+      </c>
+      <c r="D37" t="n">
+        <v>71619.70000000006</v>
+      </c>
+      <c r="E37" t="n">
+        <v>70829.39999999992</v>
+      </c>
+      <c r="F37" t="n">
+        <v>50701.70000000009</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>2002</v>
+      </c>
+      <c r="B38" t="n">
+        <v>7021.500000000004</v>
+      </c>
+      <c r="C38" t="n">
+        <v>49138.70000000008</v>
+      </c>
+      <c r="D38" t="n">
+        <v>73681.20000000008</v>
+      </c>
+      <c r="E38" t="n">
+        <v>72852.39999999989</v>
+      </c>
+      <c r="F38" t="n">
+        <v>52215.50000000009</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>2003</v>
+      </c>
+      <c r="B39" t="n">
+        <v>7117.8</v>
+      </c>
+      <c r="C39" t="n">
+        <v>50514.40000000008</v>
+      </c>
+      <c r="D39" t="n">
+        <v>75786.20000000014</v>
+      </c>
+      <c r="E39" t="n">
+        <v>74968.49999999988</v>
+      </c>
+      <c r="F39" t="n">
+        <v>53736.50000000011</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>2004</v>
+      </c>
+      <c r="B40" t="n">
+        <v>6933.6</v>
+      </c>
+      <c r="C40" t="n">
+        <v>51885.60000000009</v>
+      </c>
+      <c r="D40" t="n">
+        <v>77777.40000000015</v>
+      </c>
+      <c r="E40" t="n">
+        <v>77069.39999999989</v>
+      </c>
+      <c r="F40" t="n">
+        <v>55206.8000000001</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>2005</v>
+      </c>
+      <c r="B41" t="n">
+        <v>7137.299999999999</v>
+      </c>
+      <c r="C41" t="n">
+        <v>53295.40000000009</v>
+      </c>
+      <c r="D41" t="n">
+        <v>79900.90000000018</v>
+      </c>
+      <c r="E41" t="n">
+        <v>79191.1999999999</v>
+      </c>
+      <c r="F41" t="n">
+        <v>56689.0000000001</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>2006</v>
+      </c>
+      <c r="B42" t="n">
+        <v>7237</v>
+      </c>
+      <c r="C42" t="n">
+        <v>54777.80000000006</v>
+      </c>
+      <c r="D42" t="n">
+        <v>81975.40000000013</v>
+      </c>
+      <c r="E42" t="n">
+        <v>81287.69999999988</v>
+      </c>
+      <c r="F42" t="n">
+        <v>58272.60000000009</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>2007</v>
+      </c>
+      <c r="B43" t="n">
+        <v>7017.500000000001</v>
+      </c>
+      <c r="C43" t="n">
+        <v>56190.00000000007</v>
+      </c>
+      <c r="D43" t="n">
+        <v>83970.2000000001</v>
+      </c>
+      <c r="E43" t="n">
+        <v>83364.89999999989</v>
+      </c>
+      <c r="F43" t="n">
+        <v>59805.9000000001</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>2008</v>
+      </c>
+      <c r="B44" t="n">
+        <v>6946.700000000003</v>
+      </c>
+      <c r="C44" t="n">
+        <v>57432.20000000006</v>
+      </c>
+      <c r="D44" t="n">
+        <v>86020.90000000011</v>
+      </c>
+      <c r="E44" t="n">
+        <v>85482.69999999997</v>
+      </c>
+      <c r="F44" t="n">
+        <v>61341.9000000001</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>2009</v>
+      </c>
+      <c r="B45" t="n">
+        <v>7297.899999999998</v>
+      </c>
+      <c r="C45" t="n">
+        <v>58945.80000000005</v>
+      </c>
+      <c r="D45" t="n">
+        <v>88068.00000000016</v>
+      </c>
+      <c r="E45" t="n">
+        <v>87638.99999999996</v>
+      </c>
+      <c r="F45" t="n">
+        <v>62922.80000000011</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B46" t="n">
+        <v>7476.000000000006</v>
+      </c>
+      <c r="C46" t="n">
+        <v>60532.10000000004</v>
+      </c>
+      <c r="D46" t="n">
+        <v>90241.40000000018</v>
+      </c>
+      <c r="E46" t="n">
+        <v>89823.19999999995</v>
+      </c>
+      <c r="F46" t="n">
+        <v>64454.90000000008</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B47" t="n">
+        <v>6826.700000000004</v>
+      </c>
+      <c r="C47" t="n">
+        <v>61745.40000000004</v>
+      </c>
+      <c r="D47" t="n">
+        <v>92257.10000000018</v>
+      </c>
+      <c r="E47" t="n">
+        <v>91971.79999999994</v>
+      </c>
+      <c r="F47" t="n">
+        <v>65904.00000000012</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B48" t="n">
+        <v>7437.299999999999</v>
+      </c>
+      <c r="C48" t="n">
+        <v>63226.70000000006</v>
+      </c>
+      <c r="D48" t="n">
+        <v>94431.80000000021</v>
+      </c>
+      <c r="E48" t="n">
+        <v>94082.49999999997</v>
+      </c>
+      <c r="F48" t="n">
+        <v>67574.60000000012</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B49" t="n">
+        <v>7126.300000000006</v>
+      </c>
+      <c r="C49" t="n">
+        <v>64761.10000000008</v>
+      </c>
+      <c r="D49" t="n">
+        <v>96532.30000000018</v>
+      </c>
+      <c r="E49" t="n">
+        <v>96167.10000000002</v>
+      </c>
+      <c r="F49" t="n">
+        <v>68981.40000000017</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B50" t="n">
+        <v>7300.800000000006</v>
+      </c>
+      <c r="C50" t="n">
+        <v>66191.2000000001</v>
+      </c>
+      <c r="D50" t="n">
+        <v>98736.70000000013</v>
+      </c>
+      <c r="E50" t="n">
+        <v>98329.10000000008</v>
+      </c>
+      <c r="F50" t="n">
+        <v>70485.70000000019</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B51" t="n">
+        <v>7342.3</v>
+      </c>
+      <c r="C51" t="n">
+        <v>67655.20000000007</v>
+      </c>
+      <c r="D51" t="n">
+        <v>100927.7000000001</v>
+      </c>
+      <c r="E51" t="n">
+        <v>100487.5</v>
+      </c>
+      <c r="F51" t="n">
+        <v>72014.60000000019</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B52" t="n">
+        <v>7021.999999999997</v>
+      </c>
+      <c r="C52" t="n">
+        <v>68945.30000000003</v>
+      </c>
+      <c r="D52" t="n">
+        <v>103022.2000000002</v>
+      </c>
+      <c r="E52" t="n">
+        <v>102574.9999999999</v>
+      </c>
+      <c r="F52" t="n">
+        <v>73564.50000000022</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/my_work/data1/YearMeanER56985_蒙自.xlsx
+++ b/my_work/data1/YearMeanER56985_蒙自.xlsx
@@ -470,19 +470,19 @@
         <v>1966</v>
       </c>
       <c r="B2" t="n">
-        <v>6998.200000000005</v>
+        <v>19.17315068493152</v>
       </c>
       <c r="C2" t="n">
-        <v>1496.1</v>
+        <v>16.62333333333333</v>
       </c>
       <c r="D2" t="n">
-        <v>2003.399999999999</v>
+        <v>22.0153846153846</v>
       </c>
       <c r="E2" t="n">
-        <v>1977.700000000001</v>
+        <v>21.49673913043479</v>
       </c>
       <c r="F2" t="n">
-        <v>1521</v>
+        <v>16.53260869565218</v>
       </c>
     </row>
     <row r="3">
@@ -490,19 +490,19 @@
         <v>1967</v>
       </c>
       <c r="B3" t="n">
-        <v>6626.699999999996</v>
+        <v>18.15534246575341</v>
       </c>
       <c r="C3" t="n">
-        <v>2693.899999999999</v>
+        <v>13.49359259259259</v>
       </c>
       <c r="D3" t="n">
-        <v>4023.299999999997</v>
+        <v>22.43863060016906</v>
       </c>
       <c r="E3" t="n">
-        <v>4009.000000000002</v>
+        <v>22.31300803402646</v>
       </c>
       <c r="F3" t="n">
-        <v>2898.7</v>
+        <v>15.15470226843101</v>
       </c>
     </row>
     <row r="4">
@@ -510,19 +510,19 @@
         <v>1968</v>
       </c>
       <c r="B4" t="n">
-        <v>6602.499999999998</v>
+        <v>18.23895027624309</v>
       </c>
       <c r="C4" t="n">
-        <v>3813.999999999999</v>
+        <v>13.02981140911026</v>
       </c>
       <c r="D4" t="n">
-        <v>5941.599999999996</v>
+        <v>21.3267981384634</v>
       </c>
       <c r="E4" t="n">
-        <v>6028.700000000002</v>
+        <v>22.19579356558725</v>
       </c>
       <c r="F4" t="n">
-        <v>4443.099999999999</v>
+        <v>16.95168154639599</v>
       </c>
     </row>
     <row r="5">
@@ -530,19 +530,19 @@
         <v>1969</v>
       </c>
       <c r="B5" t="n">
-        <v>6962.500000000001</v>
+        <v>19.07534246575343</v>
       </c>
       <c r="C5" t="n">
-        <v>5252.999999999999</v>
+        <v>16.13366457121234</v>
       </c>
       <c r="D5" t="n">
-        <v>8045.999999999997</v>
+        <v>23.35963514437871</v>
       </c>
       <c r="E5" t="n">
-        <v>8041.300000000001</v>
+        <v>22.11734558223464</v>
       </c>
       <c r="F5" t="n">
-        <v>5849.599999999999</v>
+        <v>15.47230088637387</v>
       </c>
     </row>
     <row r="6">
@@ -550,19 +550,19 @@
         <v>1970</v>
       </c>
       <c r="B6" t="n">
-        <v>6748.299999999997</v>
+        <v>18.48849315068492</v>
       </c>
       <c r="C6" t="n">
-        <v>6645.899999999999</v>
+        <v>15.65592960634681</v>
       </c>
       <c r="D6" t="n">
-        <v>9987.300000000001</v>
+        <v>21.58966632026791</v>
       </c>
       <c r="E6" t="n">
-        <v>10041.3</v>
+        <v>21.97953636502429</v>
       </c>
       <c r="F6" t="n">
-        <v>7263.699999999996</v>
+        <v>15.53882935746059</v>
       </c>
     </row>
     <row r="7">
@@ -570,19 +570,19 @@
         <v>1971</v>
       </c>
       <c r="B7" t="n">
-        <v>6450.3</v>
+        <v>17.7206043956044</v>
       </c>
       <c r="C7" t="n">
-        <v>7869.999999999998</v>
+        <v>13.77506588451497</v>
       </c>
       <c r="D7" t="n">
-        <v>11940.2</v>
+        <v>21.9387740702252</v>
       </c>
       <c r="E7" t="n">
-        <v>11998.90000000001</v>
+        <v>21.51716887353288</v>
       </c>
       <c r="F7" t="n">
-        <v>8579.4</v>
+        <v>14.46998727562458</v>
       </c>
     </row>
     <row r="8">
@@ -590,19 +590,19 @@
         <v>1972</v>
       </c>
       <c r="B8" t="n">
-        <v>6748.999999999997</v>
+        <v>18.43989071038251</v>
       </c>
       <c r="C8" t="n">
-        <v>9176.500000000004</v>
+        <v>14.50851720752214</v>
       </c>
       <c r="D8" t="n">
-        <v>13924.60000000001</v>
+        <v>22.04767883593654</v>
       </c>
       <c r="E8" t="n">
-        <v>13979.3</v>
+        <v>21.75996922688623</v>
       </c>
       <c r="F8" t="n">
-        <v>10057.1</v>
+        <v>16.21923899212635</v>
       </c>
     </row>
     <row r="9">
@@ -610,19 +610,19 @@
         <v>1973</v>
       </c>
       <c r="B9" t="n">
-        <v>6868.600000000003</v>
+        <v>18.81808219178083</v>
       </c>
       <c r="C9" t="n">
-        <v>10610.60000000001</v>
+        <v>16.09565019119469</v>
       </c>
       <c r="D9" t="n">
-        <v>16009.60000000002</v>
+        <v>23.15437009709821</v>
       </c>
       <c r="E9" t="n">
-        <v>15984.20000000001</v>
+        <v>22.02891270898789</v>
       </c>
       <c r="F9" t="n">
-        <v>11401.7</v>
+        <v>14.79151346730572</v>
       </c>
     </row>
     <row r="10">
@@ -630,19 +630,19 @@
         <v>1974</v>
       </c>
       <c r="B10" t="n">
-        <v>6637.7</v>
+        <v>18.18547945205479</v>
       </c>
       <c r="C10" t="n">
-        <v>11820.70000000001</v>
+        <v>13.62439611323549</v>
       </c>
       <c r="D10" t="n">
-        <v>17965.60000000002</v>
+        <v>21.74894912194614</v>
       </c>
       <c r="E10" t="n">
-        <v>17972.40000000001</v>
+        <v>21.85031426857596</v>
       </c>
       <c r="F10" t="n">
-        <v>12885.1</v>
+        <v>16.28469036377506</v>
       </c>
     </row>
     <row r="11">
@@ -650,19 +650,19 @@
         <v>1975</v>
       </c>
       <c r="B11" t="n">
-        <v>6792.699999999997</v>
+        <v>18.61013698630136</v>
       </c>
       <c r="C11" t="n">
-        <v>13250.90000000001</v>
+        <v>16.04249329014706</v>
       </c>
       <c r="D11" t="n">
-        <v>20000.40000000003</v>
+        <v>22.59943900134007</v>
       </c>
       <c r="E11" t="n">
-        <v>19988.80000000001</v>
+        <v>22.15489472031062</v>
       </c>
       <c r="F11" t="n">
-        <v>14196.40000000001</v>
+        <v>14.43026837351929</v>
       </c>
     </row>
     <row r="12">
@@ -670,19 +670,19 @@
         <v>1976</v>
       </c>
       <c r="B12" t="n">
-        <v>5863.400000000002</v>
+        <v>17.7678787878788</v>
       </c>
       <c r="C12" t="n">
-        <v>14539.90000000001</v>
+        <v>14.34112629989172</v>
       </c>
       <c r="D12" t="n">
-        <v>21918.50000000003</v>
+        <v>21.56332710001489</v>
       </c>
       <c r="E12" t="n">
-        <v>21345.2</v>
+        <v>22.23475636645662</v>
       </c>
       <c r="F12" t="n">
-        <v>15496.30000000001</v>
+        <v>15.10724446406344</v>
       </c>
     </row>
     <row r="13">
@@ -690,19 +690,19 @@
         <v>1977</v>
       </c>
       <c r="B13" t="n">
-        <v>6502.400000000001</v>
+        <v>18.47272727272728</v>
       </c>
       <c r="C13" t="n">
-        <v>15573.70000000002</v>
+        <v>13.61222241947911</v>
       </c>
       <c r="D13" t="n">
-        <v>23977.80000000004</v>
+        <v>22.86662996813203</v>
       </c>
       <c r="E13" t="n">
-        <v>23350.80000000002</v>
+        <v>22.04168213441801</v>
       </c>
       <c r="F13" t="n">
-        <v>16899.99999999999</v>
+        <v>15.42181787460938</v>
       </c>
     </row>
     <row r="14">
@@ -710,19 +710,19 @@
         <v>1978</v>
       </c>
       <c r="B14" t="n">
-        <v>6728.700000000001</v>
+        <v>18.43479452054795</v>
       </c>
       <c r="C14" t="n">
-        <v>16877</v>
+        <v>14.6323580268831</v>
       </c>
       <c r="D14" t="n">
-        <v>25964.50000000006</v>
+        <v>22.08314977986959</v>
       </c>
       <c r="E14" t="n">
-        <v>25338.60000000002</v>
+        <v>21.8461052405915</v>
       </c>
       <c r="F14" t="n">
-        <v>18350.9</v>
+        <v>15.93828062907184</v>
       </c>
     </row>
     <row r="15">
@@ -730,19 +730,19 @@
         <v>1979</v>
       </c>
       <c r="B15" t="n">
-        <v>6914.799999999998</v>
+        <v>18.94465753424657</v>
       </c>
       <c r="C15" t="n">
-        <v>18368.10000000001</v>
+        <v>16.73035953363204</v>
       </c>
       <c r="D15" t="n">
-        <v>28004.90000000006</v>
+        <v>22.66464999758098</v>
       </c>
       <c r="E15" t="n">
-        <v>27387.20000000002</v>
+        <v>22.50484897000644</v>
       </c>
       <c r="F15" t="n">
-        <v>19685.6</v>
+        <v>14.68085087640296</v>
       </c>
     </row>
     <row r="16">
@@ -750,19 +750,19 @@
         <v>1980</v>
       </c>
       <c r="B16" t="n">
-        <v>7024.100000000002</v>
+        <v>19.29697802197803</v>
       </c>
       <c r="C16" t="n">
-        <v>19797.50000000002</v>
+        <v>15.89154241245749</v>
       </c>
       <c r="D16" t="n">
-        <v>30095.40000000005</v>
+        <v>23.22158956041298</v>
       </c>
       <c r="E16" t="n">
-        <v>29392.90000000002</v>
+        <v>22.53560943300007</v>
       </c>
       <c r="F16" t="n">
-        <v>21184.10000000001</v>
+        <v>16.44761794430872</v>
       </c>
     </row>
     <row r="17">
@@ -770,19 +770,19 @@
         <v>1981</v>
       </c>
       <c r="B17" t="n">
-        <v>6820.700000000003</v>
+        <v>18.78980716253444</v>
       </c>
       <c r="C17" t="n">
-        <v>21229.60000000002</v>
+        <v>16.08879491569397</v>
       </c>
       <c r="D17" t="n">
-        <v>32047.80000000005</v>
+        <v>21.9513509951157</v>
       </c>
       <c r="E17" t="n">
-        <v>31434.60000000001</v>
+        <v>22.68390779596703</v>
       </c>
       <c r="F17" t="n">
-        <v>22578.6</v>
+        <v>15.33638715156857</v>
       </c>
     </row>
     <row r="18">
@@ -790,19 +790,19 @@
         <v>1982</v>
       </c>
       <c r="B18" t="n">
-        <v>6780.3</v>
+        <v>18.6271978021978</v>
       </c>
       <c r="C18" t="n">
-        <v>22635.40000000002</v>
+        <v>15.79876438795215</v>
       </c>
       <c r="D18" t="n">
-        <v>34006.00000000007</v>
+        <v>21.75990495599028</v>
       </c>
       <c r="E18" t="n">
-        <v>33464.40000000003</v>
+        <v>22.5547682175381</v>
       </c>
       <c r="F18" t="n">
-        <v>23965.1</v>
+        <v>15.23735203425618</v>
       </c>
     </row>
     <row r="19">
@@ -810,19 +810,19 @@
         <v>1983</v>
       </c>
       <c r="B19" t="n">
-        <v>6771.900000000005</v>
+        <v>18.55315068493152</v>
       </c>
       <c r="C19" t="n">
-        <v>23827.90000000002</v>
+        <v>13.4255418265328</v>
       </c>
       <c r="D19" t="n">
-        <v>36138.60000000006</v>
+        <v>23.67428466984605</v>
       </c>
       <c r="E19" t="n">
-        <v>35565.90000000003</v>
+        <v>23.0875518284515</v>
       </c>
       <c r="F19" t="n">
-        <v>25310.39999999999</v>
+        <v>14.78844947863322</v>
       </c>
     </row>
     <row r="20">
@@ -830,19 +830,19 @@
         <v>1984</v>
       </c>
       <c r="B20" t="n">
-        <v>6888.199999999993</v>
+        <v>18.82021857923495</v>
       </c>
       <c r="C20" t="n">
-        <v>25180.90000000001</v>
+        <v>15.01566529479706</v>
       </c>
       <c r="D20" t="n">
-        <v>38189.50000000007</v>
+        <v>22.79751961175654</v>
       </c>
       <c r="E20" t="n">
-        <v>37592.10000000003</v>
+        <v>22.27486469378752</v>
       </c>
       <c r="F20" t="n">
-        <v>26768.50000000001</v>
+        <v>16.00965705955036</v>
       </c>
     </row>
     <row r="21">
@@ -850,19 +850,19 @@
         <v>1985</v>
       </c>
       <c r="B21" t="n">
-        <v>6678.399999999995</v>
+        <v>18.29698630136985</v>
       </c>
       <c r="C21" t="n">
-        <v>26468.69999999999</v>
+        <v>14.47572961438663</v>
       </c>
       <c r="D21" t="n">
-        <v>40172.20000000007</v>
+        <v>22.03843428144788</v>
       </c>
       <c r="E21" t="n">
-        <v>39584.70000000005</v>
+        <v>21.9008137466716</v>
       </c>
       <c r="F21" t="n">
-        <v>28183.80000000003</v>
+        <v>15.55771366369077</v>
       </c>
     </row>
     <row r="22">
@@ -870,19 +870,19 @@
         <v>1986</v>
       </c>
       <c r="B22" t="n">
-        <v>6682.899999999998</v>
+        <v>18.35961538461538</v>
       </c>
       <c r="C22" t="n">
-        <v>27780.59999999997</v>
+        <v>14.73750810682652</v>
       </c>
       <c r="D22" t="n">
-        <v>42159.60000000009</v>
+        <v>22.08174103605987</v>
       </c>
       <c r="E22" t="n">
-        <v>41561.00000000005</v>
+        <v>21.71957406246382</v>
       </c>
       <c r="F22" t="n">
-        <v>29591.10000000005</v>
+        <v>15.63579905124936</v>
       </c>
     </row>
     <row r="23">
@@ -890,19 +890,19 @@
         <v>1987</v>
       </c>
       <c r="B23" t="n">
-        <v>6977.300000000003</v>
+        <v>19.11589041095891</v>
       </c>
       <c r="C23" t="n">
-        <v>29201.39999999998</v>
+        <v>15.95041675674252</v>
       </c>
       <c r="D23" t="n">
-        <v>44269.30000000009</v>
+        <v>23.42617297841824</v>
       </c>
       <c r="E23" t="n">
-        <v>43601.10000000002</v>
+        <v>22.4110823267659</v>
       </c>
       <c r="F23" t="n">
-        <v>30997.80000000004</v>
+        <v>15.46017172881793</v>
       </c>
     </row>
     <row r="24">
@@ -910,19 +910,19 @@
         <v>1988</v>
       </c>
       <c r="B24" t="n">
-        <v>6925.500000000003</v>
+        <v>18.92213114754099</v>
       </c>
       <c r="C24" t="n">
-        <v>30649.89999999999</v>
+        <v>16.09286172260156</v>
       </c>
       <c r="D24" t="n">
-        <v>46318.00000000009</v>
+        <v>22.77061728547713</v>
       </c>
       <c r="E24" t="n">
-        <v>45615.50000000001</v>
+        <v>22.13925089485615</v>
       </c>
       <c r="F24" t="n">
-        <v>32411.70000000003</v>
+        <v>15.53652360574802</v>
       </c>
     </row>
     <row r="25">
@@ -930,19 +930,19 @@
         <v>1989</v>
       </c>
       <c r="B25" t="n">
-        <v>6696.499999999998</v>
+        <v>18.39697802197802</v>
       </c>
       <c r="C25" t="n">
-        <v>31864.59999999998</v>
+        <v>13.67547624136224</v>
       </c>
       <c r="D25" t="n">
-        <v>48316.1000000001</v>
+        <v>22.20736942071952</v>
       </c>
       <c r="E25" t="n">
-        <v>47633.2</v>
+        <v>22.41581594389952</v>
       </c>
       <c r="F25" t="n">
-        <v>33877.70000000006</v>
+        <v>16.10365786527987</v>
       </c>
     </row>
     <row r="26">
@@ -950,19 +950,19 @@
         <v>1990</v>
       </c>
       <c r="B26" t="n">
-        <v>6666.899999999997</v>
+        <v>18.72724719101123</v>
       </c>
       <c r="C26" t="n">
-        <v>33204.39999999999</v>
+        <v>15.03861640268179</v>
       </c>
       <c r="D26" t="n">
-        <v>50140.00000000009</v>
+        <v>21.71891022847906</v>
       </c>
       <c r="E26" t="n">
-        <v>49694.59999999999</v>
+        <v>22.6501719124337</v>
       </c>
       <c r="F26" t="n">
-        <v>35319.50000000002</v>
+        <v>16.38093997601439</v>
       </c>
     </row>
     <row r="27">
@@ -970,19 +970,19 @@
         <v>1991</v>
       </c>
       <c r="B27" t="n">
-        <v>6777.700000000002</v>
+        <v>19.03848314606742</v>
       </c>
       <c r="C27" t="n">
-        <v>34649.10000000001</v>
+        <v>16.58793882275774</v>
       </c>
       <c r="D27" t="n">
-        <v>52116.20000000011</v>
+        <v>22.44852708121886</v>
       </c>
       <c r="E27" t="n">
-        <v>51660.2</v>
+        <v>22.33988957204982</v>
       </c>
       <c r="F27" t="n">
-        <v>36710.70000000001</v>
+        <v>15.63978822195572</v>
       </c>
     </row>
     <row r="28">
@@ -990,19 +990,19 @@
         <v>1992</v>
       </c>
       <c r="B28" t="n">
-        <v>5759.9</v>
+        <v>18.05611285266458</v>
       </c>
       <c r="C28" t="n">
-        <v>35881.80000000002</v>
+        <v>13.72843888816217</v>
       </c>
       <c r="D28" t="n">
-        <v>54091.60000000011</v>
+        <v>23.2307968265258</v>
       </c>
       <c r="E28" t="n">
-        <v>53085.59999999998</v>
+        <v>22.62093577456328</v>
       </c>
       <c r="F28" t="n">
-        <v>37837.10000000002</v>
+        <v>14.64153574643533</v>
       </c>
     </row>
     <row r="29">
@@ -1010,19 +1010,19 @@
         <v>1993</v>
       </c>
       <c r="B29" t="n">
-        <v>6193.2</v>
+        <v>18.5981981981982</v>
       </c>
       <c r="C29" t="n">
-        <v>37028</v>
+        <v>14.68263846693876</v>
       </c>
       <c r="D29" t="n">
-        <v>55898.9000000001</v>
+        <v>22.59914563983365</v>
       </c>
       <c r="E29" t="n">
-        <v>54983.99999999997</v>
+        <v>22.8692968544591</v>
       </c>
       <c r="F29" t="n">
-        <v>39178.40000000003</v>
+        <v>15.23529815445433</v>
       </c>
     </row>
     <row r="30">
@@ -1030,19 +1030,19 @@
         <v>1994</v>
       </c>
       <c r="B30" t="n">
-        <v>6400.3</v>
+        <v>19.04851190476191</v>
       </c>
       <c r="C30" t="n">
-        <v>38168.20000000002</v>
+        <v>15.60652214144512</v>
       </c>
       <c r="D30" t="n">
-        <v>57920.10000000006</v>
+        <v>22.70887939599816</v>
       </c>
       <c r="E30" t="n">
-        <v>56822.79999999997</v>
+        <v>22.16272972445785</v>
       </c>
       <c r="F30" t="n">
-        <v>40578.50000000005</v>
+        <v>16.08335566084607</v>
       </c>
     </row>
     <row r="31">
@@ -1050,19 +1050,19 @@
         <v>1995</v>
       </c>
       <c r="B31" t="n">
-        <v>6382.999999999998</v>
+        <v>18.71847507331378</v>
       </c>
       <c r="C31" t="n">
-        <v>39429.10000000005</v>
+        <v>14.67248876024649</v>
       </c>
       <c r="D31" t="n">
-        <v>59870.70000000004</v>
+        <v>22.94545208599998</v>
       </c>
       <c r="E31" t="n">
-        <v>58707.79999999998</v>
+        <v>22.17631081074951</v>
       </c>
       <c r="F31" t="n">
-        <v>41865.00000000003</v>
+        <v>15.88516287391275</v>
       </c>
     </row>
     <row r="32">
@@ -1070,19 +1070,19 @@
         <v>1996</v>
       </c>
       <c r="B32" t="n">
-        <v>6526.299999999999</v>
+        <v>18.59344729344729</v>
       </c>
       <c r="C32" t="n">
-        <v>40730.20000000004</v>
+        <v>15.12382170988789</v>
       </c>
       <c r="D32" t="n">
-        <v>61708.10000000006</v>
+        <v>21.8864170833647</v>
       </c>
       <c r="E32" t="n">
-        <v>60677.59999999996</v>
+        <v>22.13307012011944</v>
       </c>
       <c r="F32" t="n">
-        <v>43283.00000000006</v>
+        <v>16.11106924577429</v>
       </c>
     </row>
     <row r="33">
@@ -1090,19 +1090,19 @@
         <v>1997</v>
       </c>
       <c r="B33" t="n">
-        <v>6566.499999999995</v>
+        <v>18.65482954545453</v>
       </c>
       <c r="C33" t="n">
-        <v>41957.30000000004</v>
+        <v>14.44446304313824</v>
       </c>
       <c r="D33" t="n">
-        <v>63558.20000000004</v>
+        <v>22.55405321787187</v>
       </c>
       <c r="E33" t="n">
-        <v>62607.89999999994</v>
+        <v>21.45530846285846</v>
       </c>
       <c r="F33" t="n">
-        <v>44842.00000000008</v>
+        <v>17.1207724918019</v>
       </c>
     </row>
     <row r="34">
@@ -1110,19 +1110,19 @@
         <v>1998</v>
       </c>
       <c r="B34" t="n">
-        <v>7223.499999999998</v>
+        <v>19.7904109589041</v>
       </c>
       <c r="C34" t="n">
-        <v>43474.90000000004</v>
+        <v>17.02271625603487</v>
       </c>
       <c r="D34" t="n">
-        <v>65638.10000000006</v>
+        <v>23.10389069470189</v>
       </c>
       <c r="E34" t="n">
-        <v>64692.79999999994</v>
+        <v>22.89516639633542</v>
       </c>
       <c r="F34" t="n">
-        <v>46383.10000000009</v>
+        <v>16.9371823096935</v>
       </c>
     </row>
     <row r="35">
@@ -1130,19 +1130,19 @@
         <v>1999</v>
       </c>
       <c r="B35" t="n">
-        <v>6886.900000000002</v>
+        <v>19.02458563535912</v>
       </c>
       <c r="C35" t="n">
-        <v>44934.40000000007</v>
+        <v>16.59014287928129</v>
       </c>
       <c r="D35" t="n">
-        <v>67650.30000000009</v>
+        <v>22.3659768208209</v>
       </c>
       <c r="E35" t="n">
-        <v>66736.79999999997</v>
+        <v>22.46625180865582</v>
       </c>
       <c r="F35" t="n">
-        <v>47754.30000000008</v>
+        <v>15.4237464701077</v>
       </c>
     </row>
     <row r="36">
@@ -1150,19 +1150,19 @@
         <v>2000</v>
       </c>
       <c r="B36" t="n">
-        <v>6830.799999999998</v>
+        <v>18.76593406593406</v>
       </c>
       <c r="C36" t="n">
-        <v>46292.90000000006</v>
+        <v>15.11088069098111</v>
       </c>
       <c r="D36" t="n">
-        <v>69611.70000000007</v>
+        <v>21.79962611891012</v>
       </c>
       <c r="E36" t="n">
-        <v>68751.19999999994</v>
+        <v>22.6318472423184</v>
       </c>
       <c r="F36" t="n">
-        <v>49250.80000000009</v>
+        <v>16.43395376597943</v>
       </c>
     </row>
     <row r="37">
@@ -1170,19 +1170,19 @@
         <v>2001</v>
       </c>
       <c r="B37" t="n">
-        <v>6959.700000000003</v>
+        <v>19.12005494505495</v>
       </c>
       <c r="C37" t="n">
-        <v>47715.50000000007</v>
+        <v>15.9745653410109</v>
       </c>
       <c r="D37" t="n">
-        <v>71619.70000000006</v>
+        <v>22.3054903969111</v>
       </c>
       <c r="E37" t="n">
-        <v>70829.39999999992</v>
+        <v>23.08606425541008</v>
       </c>
       <c r="F37" t="n">
-        <v>50701.70000000009</v>
+        <v>15.94928210615195</v>
       </c>
     </row>
     <row r="38">
@@ -1190,19 +1190,19 @@
         <v>2002</v>
       </c>
       <c r="B38" t="n">
-        <v>7021.500000000004</v>
+        <v>19.28983516483517</v>
       </c>
       <c r="C38" t="n">
-        <v>49138.70000000008</v>
+        <v>15.99082850378901</v>
       </c>
       <c r="D38" t="n">
-        <v>73681.20000000008</v>
+        <v>22.89896143293309</v>
       </c>
       <c r="E38" t="n">
-        <v>72852.39999999989</v>
+        <v>22.24006591581967</v>
       </c>
       <c r="F38" t="n">
-        <v>52215.50000000009</v>
+        <v>16.81043167149618</v>
       </c>
     </row>
     <row r="39">
@@ -1210,19 +1210,19 @@
         <v>2003</v>
       </c>
       <c r="B39" t="n">
-        <v>7117.8</v>
+        <v>19.55439560439561</v>
       </c>
       <c r="C39" t="n">
-        <v>50514.40000000008</v>
+        <v>15.63697560116617</v>
       </c>
       <c r="D39" t="n">
-        <v>75786.20000000014</v>
+        <v>23.38350507069158</v>
       </c>
       <c r="E39" t="n">
-        <v>74968.49999999988</v>
+        <v>23.24282680343283</v>
       </c>
       <c r="F39" t="n">
-        <v>53736.50000000011</v>
+        <v>16.715330779038</v>
       </c>
     </row>
     <row r="40">
@@ -1230,19 +1230,19 @@
         <v>2004</v>
       </c>
       <c r="B40" t="n">
-        <v>6933.6</v>
+        <v>19.04835164835165</v>
       </c>
       <c r="C40" t="n">
-        <v>51885.60000000009</v>
+        <v>15.58243792810299</v>
       </c>
       <c r="D40" t="n">
-        <v>77777.40000000015</v>
+        <v>22.1382802755021</v>
       </c>
       <c r="E40" t="n">
-        <v>77069.39999999989</v>
+        <v>23.08850898699383</v>
       </c>
       <c r="F40" t="n">
-        <v>55206.8000000001</v>
+        <v>16.16321011716346</v>
       </c>
     </row>
     <row r="41">
@@ -1250,19 +1250,19 @@
         <v>2005</v>
       </c>
       <c r="B41" t="n">
-        <v>7137.299999999999</v>
+        <v>19.66198347107438</v>
       </c>
       <c r="C41" t="n">
-        <v>53295.40000000009</v>
+        <v>15.83758264364558</v>
       </c>
       <c r="D41" t="n">
-        <v>79900.90000000018</v>
+        <v>23.84042533639448</v>
       </c>
       <c r="E41" t="n">
-        <v>79191.1999999999</v>
+        <v>23.31400553246733</v>
       </c>
       <c r="F41" t="n">
-        <v>56689.0000000001</v>
+        <v>16.46552978150729</v>
       </c>
     </row>
     <row r="42">
@@ -1270,19 +1270,19 @@
         <v>2006</v>
       </c>
       <c r="B42" t="n">
-        <v>7237</v>
+        <v>19.82739726027397</v>
       </c>
       <c r="C42" t="n">
-        <v>54777.80000000006</v>
+        <v>16.64708425159607</v>
       </c>
       <c r="D42" t="n">
-        <v>81975.40000000013</v>
+        <v>23.05868599270763</v>
       </c>
       <c r="E42" t="n">
-        <v>81287.69999999988</v>
+        <v>23.04145658187465</v>
       </c>
       <c r="F42" t="n">
-        <v>58272.60000000009</v>
+        <v>17.39201662805986</v>
       </c>
     </row>
     <row r="43">
@@ -1290,19 +1290,19 @@
         <v>2007</v>
       </c>
       <c r="B43" t="n">
-        <v>7017.500000000001</v>
+        <v>19.22602739726028</v>
       </c>
       <c r="C43" t="n">
-        <v>56190.00000000007</v>
+        <v>15.87607871390662</v>
       </c>
       <c r="D43" t="n">
-        <v>83970.2000000001</v>
+        <v>22.17427127464514</v>
       </c>
       <c r="E43" t="n">
-        <v>83364.89999999989</v>
+        <v>22.8287114845856</v>
       </c>
       <c r="F43" t="n">
-        <v>59805.9000000001</v>
+        <v>16.85534800682674</v>
       </c>
     </row>
     <row r="44">
@@ -1310,19 +1310,19 @@
         <v>2008</v>
       </c>
       <c r="B44" t="n">
-        <v>6946.700000000003</v>
+        <v>18.98005464480875</v>
       </c>
       <c r="C44" t="n">
-        <v>57432.20000000006</v>
+        <v>13.82501185399897</v>
       </c>
       <c r="D44" t="n">
-        <v>86020.90000000011</v>
+        <v>22.77883814587522</v>
       </c>
       <c r="E44" t="n">
-        <v>85482.69999999997</v>
+        <v>23.26770338570201</v>
       </c>
       <c r="F44" t="n">
-        <v>61341.9000000001</v>
+        <v>16.87886247833508</v>
       </c>
     </row>
     <row r="45">
@@ -1330,19 +1330,19 @@
         <v>2009</v>
       </c>
       <c r="B45" t="n">
-        <v>7297.899999999998</v>
+        <v>20.04917582417582</v>
       </c>
       <c r="C45" t="n">
-        <v>58945.80000000005</v>
+        <v>16.97138902059999</v>
       </c>
       <c r="D45" t="n">
-        <v>88068.00000000016</v>
+        <v>22.74592129830633</v>
       </c>
       <c r="E45" t="n">
-        <v>87638.99999999996</v>
+        <v>23.95129344379892</v>
       </c>
       <c r="F45" t="n">
-        <v>62922.80000000011</v>
+        <v>17.36716154867755</v>
       </c>
     </row>
     <row r="46">
@@ -1350,19 +1350,19 @@
         <v>2010</v>
       </c>
       <c r="B46" t="n">
-        <v>7476.000000000006</v>
+        <v>20.48219178082194</v>
       </c>
       <c r="C46" t="n">
-        <v>60532.10000000004</v>
+        <v>17.81412654467333</v>
       </c>
       <c r="D46" t="n">
-        <v>90241.40000000018</v>
+        <v>24.13347166261875</v>
       </c>
       <c r="E46" t="n">
-        <v>89823.19999999995</v>
+        <v>24.00164449395433</v>
       </c>
       <c r="F46" t="n">
-        <v>64454.90000000008</v>
+        <v>16.84203436465953</v>
       </c>
     </row>
     <row r="47">
@@ -1370,19 +1370,19 @@
         <v>2011</v>
       </c>
       <c r="B47" t="n">
-        <v>6826.700000000004</v>
+        <v>18.70328767123289</v>
       </c>
       <c r="C47" t="n">
-        <v>61745.40000000004</v>
+        <v>13.67904585049637</v>
       </c>
       <c r="D47" t="n">
-        <v>92257.10000000018</v>
+        <v>22.41575243585295</v>
       </c>
       <c r="E47" t="n">
-        <v>91971.79999999994</v>
+        <v>23.61523526623864</v>
       </c>
       <c r="F47" t="n">
-        <v>65904.00000000012</v>
+        <v>15.93415254744195</v>
       </c>
     </row>
     <row r="48">
@@ -1390,19 +1390,19 @@
         <v>2012</v>
       </c>
       <c r="B48" t="n">
-        <v>7437.299999999999</v>
+        <v>20.32049180327868</v>
       </c>
       <c r="C48" t="n">
-        <v>63226.70000000006</v>
+        <v>16.42834116319226</v>
       </c>
       <c r="D48" t="n">
-        <v>94431.80000000021</v>
+        <v>24.14412914764672</v>
       </c>
       <c r="E48" t="n">
-        <v>94082.49999999997</v>
+        <v>23.19907864419824</v>
       </c>
       <c r="F48" t="n">
-        <v>67574.60000000012</v>
+        <v>18.3318929624722</v>
       </c>
     </row>
     <row r="49">
@@ -1410,19 +1410,19 @@
         <v>2013</v>
       </c>
       <c r="B49" t="n">
-        <v>7126.300000000006</v>
+        <v>19.57774725274727</v>
       </c>
       <c r="C49" t="n">
-        <v>64761.10000000008</v>
+        <v>17.23142601292435</v>
       </c>
       <c r="D49" t="n">
-        <v>96532.30000000018</v>
+        <v>23.34773768294118</v>
       </c>
       <c r="E49" t="n">
-        <v>96167.10000000002</v>
+        <v>23.16262723784833</v>
       </c>
       <c r="F49" t="n">
-        <v>68981.40000000017</v>
+        <v>15.49056405393991</v>
       </c>
     </row>
     <row r="50">
@@ -1430,19 +1430,19 @@
         <v>2014</v>
       </c>
       <c r="B50" t="n">
-        <v>7300.800000000006</v>
+        <v>20.05714285714287</v>
       </c>
       <c r="C50" t="n">
-        <v>66191.2000000001</v>
+        <v>16.08146028903249</v>
       </c>
       <c r="D50" t="n">
-        <v>98736.70000000013</v>
+        <v>24.48074437014223</v>
       </c>
       <c r="E50" t="n">
-        <v>98329.10000000008</v>
+        <v>23.75176768736792</v>
       </c>
       <c r="F50" t="n">
-        <v>70485.70000000019</v>
+        <v>16.70099520938395</v>
       </c>
     </row>
     <row r="51">
@@ -1450,19 +1450,19 @@
         <v>2015</v>
       </c>
       <c r="B51" t="n">
-        <v>7342.3</v>
+        <v>20.28259668508287</v>
       </c>
       <c r="C51" t="n">
-        <v>67655.20000000007</v>
+        <v>16.44534955876703</v>
       </c>
       <c r="D51" t="n">
-        <v>100927.7000000001</v>
+        <v>24.34594224582574</v>
       </c>
       <c r="E51" t="n">
-        <v>100487.5</v>
+        <v>23.71904095312357</v>
       </c>
       <c r="F51" t="n">
-        <v>72014.60000000019</v>
+        <v>17.36630331695936</v>
       </c>
     </row>
     <row r="52">
@@ -1470,19 +1470,19 @@
         <v>2016</v>
       </c>
       <c r="B52" t="n">
-        <v>7021.999999999997</v>
+        <v>19.39779005524861</v>
       </c>
       <c r="C52" t="n">
-        <v>68945.30000000003</v>
+        <v>14.3576412039425</v>
       </c>
       <c r="D52" t="n">
-        <v>103022.2000000002</v>
+        <v>23.28402134336072</v>
       </c>
       <c r="E52" t="n">
-        <v>102574.9999999999</v>
+        <v>23.20020924124312</v>
       </c>
       <c r="F52" t="n">
-        <v>73564.50000000022</v>
+        <v>17.60973374513436</v>
       </c>
     </row>
   </sheetData>

--- a/my_work/data1/YearMeanER56985_蒙自.xlsx
+++ b/my_work/data1/YearMeanER56985_蒙自.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,31 @@
           <t>S4</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>RHmean</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>s1_RH</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>s2_RH</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>s3_RH</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>s4_RH</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -484,6 +509,21 @@
       <c r="F2" t="n">
         <v>16.53260869565218</v>
       </c>
+      <c r="G2" t="n">
+        <v>71.16712328767123</v>
+      </c>
+      <c r="H2" t="n">
+        <v>62.36666666666667</v>
+      </c>
+      <c r="I2" t="n">
+        <v>68.14285714285714</v>
+      </c>
+      <c r="J2" t="n">
+        <v>78.8804347826087</v>
+      </c>
+      <c r="K2" t="n">
+        <v>75.05434782608695</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -504,6 +544,21 @@
       <c r="F3" t="n">
         <v>15.15470226843101</v>
       </c>
+      <c r="G3" t="n">
+        <v>72.01917808219179</v>
+      </c>
+      <c r="H3" t="n">
+        <v>68.82629629629629</v>
+      </c>
+      <c r="I3" t="n">
+        <v>66.22135007849293</v>
+      </c>
+      <c r="J3" t="n">
+        <v>79.44435255198488</v>
+      </c>
+      <c r="K3" t="n">
+        <v>76.54406899810964</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -524,6 +579,21 @@
       <c r="F4" t="n">
         <v>16.95168154639599</v>
       </c>
+      <c r="G4" t="n">
+        <v>73.71270718232044</v>
+      </c>
+      <c r="H4" t="n">
+        <v>71.07846317581949</v>
+      </c>
+      <c r="I4" t="n">
+        <v>71.6178170338296</v>
+      </c>
+      <c r="J4" t="n">
+        <v>81.38526470165201</v>
+      </c>
+      <c r="K4" t="n">
+        <v>73.7667833586751</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -544,6 +614,21 @@
       <c r="F5" t="n">
         <v>15.47230088637387</v>
       </c>
+      <c r="G5" t="n">
+        <v>67.76164383561644</v>
+      </c>
+      <c r="H5" t="n">
+        <v>57.834205146398</v>
+      </c>
+      <c r="I5" t="n">
+        <v>63.18261337399813</v>
+      </c>
+      <c r="J5" t="n">
+        <v>80.16723113806144</v>
+      </c>
+      <c r="K5" t="n">
+        <v>72.83442155824646</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -564,6 +649,21 @@
       <c r="F6" t="n">
         <v>15.53882935746059</v>
       </c>
+      <c r="G6" t="n">
+        <v>72.72876712328767</v>
+      </c>
+      <c r="H6" t="n">
+        <v>63.70926894607108</v>
+      </c>
+      <c r="I6" t="n">
+        <v>73.13387487224173</v>
+      </c>
+      <c r="J6" t="n">
+        <v>81.24094816454415</v>
+      </c>
+      <c r="K6" t="n">
+        <v>75.61776545172008</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -584,6 +684,21 @@
       <c r="F7" t="n">
         <v>14.46998727562458</v>
       </c>
+      <c r="G7" t="n">
+        <v>72.68681318681318</v>
+      </c>
+      <c r="H7" t="n">
+        <v>67.85232521051191</v>
+      </c>
+      <c r="I7" t="n">
+        <v>71.34593194302491</v>
+      </c>
+      <c r="J7" t="n">
+        <v>81.70914074091897</v>
+      </c>
+      <c r="K7" t="n">
+        <v>72.8980191896926</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -604,6 +719,21 @@
       <c r="F8" t="n">
         <v>16.21923899212635</v>
       </c>
+      <c r="G8" t="n">
+        <v>73.46448087431693</v>
+      </c>
+      <c r="H8" t="n">
+        <v>67.96541016714848</v>
+      </c>
+      <c r="I8" t="n">
+        <v>67.46533991146181</v>
+      </c>
+      <c r="J8" t="n">
+        <v>83.18162109500999</v>
+      </c>
+      <c r="K8" t="n">
+        <v>78.31410890423579</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -624,6 +754,21 @@
       <c r="F9" t="n">
         <v>14.79151346730572</v>
       </c>
+      <c r="G9" t="n">
+        <v>72.66575342465754</v>
+      </c>
+      <c r="H9" t="n">
+        <v>66.63294900185721</v>
+      </c>
+      <c r="I9" t="n">
+        <v>69.59852021880727</v>
+      </c>
+      <c r="J9" t="n">
+        <v>82.18675675103272</v>
+      </c>
+      <c r="K9" t="n">
+        <v>75.3077620533069</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -644,6 +789,21 @@
       <c r="F10" t="n">
         <v>16.28469036377506</v>
       </c>
+      <c r="G10" t="n">
+        <v>72.38356164383562</v>
+      </c>
+      <c r="H10" t="n">
+        <v>64.16258832224285</v>
+      </c>
+      <c r="I10" t="n">
+        <v>70.92965406833855</v>
+      </c>
+      <c r="J10" t="n">
+        <v>82.50202996468514</v>
+      </c>
+      <c r="K10" t="n">
+        <v>74.93812784840551</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -664,6 +824,21 @@
       <c r="F11" t="n">
         <v>14.43026837351929</v>
       </c>
+      <c r="G11" t="n">
+        <v>72.01917808219179</v>
+      </c>
+      <c r="H11" t="n">
+        <v>66.09069542580269</v>
+      </c>
+      <c r="I11" t="n">
+        <v>71.02120498976197</v>
+      </c>
+      <c r="J11" t="n">
+        <v>80.44023945613787</v>
+      </c>
+      <c r="K11" t="n">
+        <v>73.56454486791745</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -684,6 +859,21 @@
       <c r="F12" t="n">
         <v>15.10724446406344</v>
       </c>
+      <c r="G12" t="n">
+        <v>71.87575757575758</v>
+      </c>
+      <c r="H12" t="n">
+        <v>67.18780983984398</v>
+      </c>
+      <c r="I12" t="n">
+        <v>71.48912449988624</v>
+      </c>
+      <c r="J12" t="n">
+        <v>80.36193934606675</v>
+      </c>
+      <c r="K12" t="n">
+        <v>74.47775338928641</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -704,6 +894,21 @@
       <c r="F13" t="n">
         <v>15.42181787460938</v>
       </c>
+      <c r="G13" t="n">
+        <v>72.48863636363636</v>
+      </c>
+      <c r="H13" t="n">
+        <v>68.49594558233564</v>
+      </c>
+      <c r="I13" t="n">
+        <v>66.52185851098776</v>
+      </c>
+      <c r="J13" t="n">
+        <v>80.62349934071811</v>
+      </c>
+      <c r="K13" t="n">
+        <v>76.78780166727485</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -724,6 +929,21 @@
       <c r="F14" t="n">
         <v>15.93828062907184</v>
       </c>
+      <c r="G14" t="n">
+        <v>72.05205479452054</v>
+      </c>
+      <c r="H14" t="n">
+        <v>64.99439939535928</v>
+      </c>
+      <c r="I14" t="n">
+        <v>72.58815229132954</v>
+      </c>
+      <c r="J14" t="n">
+        <v>80.57199455805129</v>
+      </c>
+      <c r="K14" t="n">
+        <v>73.08465001812256</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -744,6 +964,21 @@
       <c r="F15" t="n">
         <v>14.68085087640296</v>
       </c>
+      <c r="G15" t="n">
+        <v>69.11232876712329</v>
+      </c>
+      <c r="H15" t="n">
+        <v>59.1554933266151</v>
+      </c>
+      <c r="I15" t="n">
+        <v>69.16030936583878</v>
+      </c>
+      <c r="J15" t="n">
+        <v>81.18013037563099</v>
+      </c>
+      <c r="K15" t="n">
+        <v>69.90309402193611</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -764,6 +999,21 @@
       <c r="F16" t="n">
         <v>16.44761794430872</v>
       </c>
+      <c r="G16" t="n">
+        <v>68.0934065934066</v>
+      </c>
+      <c r="H16" t="n">
+        <v>61.48522520139137</v>
+      </c>
+      <c r="I16" t="n">
+        <v>62.97978361940482</v>
+      </c>
+      <c r="J16" t="n">
+        <v>77.42422367084035</v>
+      </c>
+      <c r="K16" t="n">
+        <v>73.596772761108</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -784,6 +1034,21 @@
       <c r="F17" t="n">
         <v>15.33638715156857</v>
       </c>
+      <c r="G17" t="n">
+        <v>72.56473829201101</v>
+      </c>
+      <c r="H17" t="n">
+        <v>64.46094694668213</v>
+      </c>
+      <c r="I17" t="n">
+        <v>70.74421981799338</v>
+      </c>
+      <c r="J17" t="n">
+        <v>79.05960685352572</v>
+      </c>
+      <c r="K17" t="n">
+        <v>78.84344318218595</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -804,6 +1069,21 @@
       <c r="F18" t="n">
         <v>15.23735203425618</v>
       </c>
+      <c r="G18" t="n">
+        <v>72.49175824175825</v>
+      </c>
+      <c r="H18" t="n">
+        <v>65.38289941051869</v>
+      </c>
+      <c r="I18" t="n">
+        <v>68.51367274525268</v>
+      </c>
+      <c r="J18" t="n">
+        <v>80.79186381157722</v>
+      </c>
+      <c r="K18" t="n">
+        <v>78.35699394763246</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -824,6 +1104,21 @@
       <c r="F19" t="n">
         <v>14.78844947863322</v>
       </c>
+      <c r="G19" t="n">
+        <v>70.73972602739725</v>
+      </c>
+      <c r="H19" t="n">
+        <v>69.93758777122798</v>
+      </c>
+      <c r="I19" t="n">
+        <v>60.53311728291487</v>
+      </c>
+      <c r="J19" t="n">
+        <v>77.2912159109954</v>
+      </c>
+      <c r="K19" t="n">
+        <v>78.25388036899601</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -844,6 +1139,21 @@
       <c r="F20" t="n">
         <v>16.00965705955036</v>
       </c>
+      <c r="G20" t="n">
+        <v>70.48907103825137</v>
+      </c>
+      <c r="H20" t="n">
+        <v>63.75755590957394</v>
+      </c>
+      <c r="I20" t="n">
+        <v>68.4234408492628</v>
+      </c>
+      <c r="J20" t="n">
+        <v>79.78577408598908</v>
+      </c>
+      <c r="K20" t="n">
+        <v>73.00275956922822</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -864,6 +1174,21 @@
       <c r="F21" t="n">
         <v>15.55771366369077</v>
       </c>
+      <c r="G21" t="n">
+        <v>73.75342465753425</v>
+      </c>
+      <c r="H21" t="n">
+        <v>67.88619506566194</v>
+      </c>
+      <c r="I21" t="n">
+        <v>72.18047737196993</v>
+      </c>
+      <c r="J21" t="n">
+        <v>81.85636710963031</v>
+      </c>
+      <c r="K21" t="n">
+        <v>76.04350825618727</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -884,6 +1209,21 @@
       <c r="F22" t="n">
         <v>15.63579905124936</v>
       </c>
+      <c r="G22" t="n">
+        <v>73.22252747252747</v>
+      </c>
+      <c r="H22" t="n">
+        <v>60.83206883406291</v>
+      </c>
+      <c r="I22" t="n">
+        <v>74.22176348760406</v>
+      </c>
+      <c r="J22" t="n">
+        <v>82.25930833814816</v>
+      </c>
+      <c r="K22" t="n">
+        <v>78.61586272808997</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -904,6 +1244,21 @@
       <c r="F23" t="n">
         <v>15.46017172881793</v>
       </c>
+      <c r="G23" t="n">
+        <v>71.0958904109589</v>
+      </c>
+      <c r="H23" t="n">
+        <v>64.38702298704514</v>
+      </c>
+      <c r="I23" t="n">
+        <v>64.65078860975389</v>
+      </c>
+      <c r="J23" t="n">
+        <v>80.06803596019726</v>
+      </c>
+      <c r="K23" t="n">
+        <v>78.27843329052271</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -924,6 +1279,21 @@
       <c r="F24" t="n">
         <v>15.53652360574802</v>
       </c>
+      <c r="G24" t="n">
+        <v>71.2568306010929</v>
+      </c>
+      <c r="H24" t="n">
+        <v>64.5646925602972</v>
+      </c>
+      <c r="I24" t="n">
+        <v>67.39176690779949</v>
+      </c>
+      <c r="J24" t="n">
+        <v>80.16378299956736</v>
+      </c>
+      <c r="K24" t="n">
+        <v>75.91606992707091</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -944,6 +1314,21 @@
       <c r="F25" t="n">
         <v>16.10365786527987</v>
       </c>
+      <c r="G25" t="n">
+        <v>72.32692307692308</v>
+      </c>
+      <c r="H25" t="n">
+        <v>71.40627436178109</v>
+      </c>
+      <c r="I25" t="n">
+        <v>69.77353590008572</v>
+      </c>
+      <c r="J25" t="n">
+        <v>78.38641519779743</v>
+      </c>
+      <c r="K25" t="n">
+        <v>72.89039206442467</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -964,6 +1349,21 @@
       <c r="F26" t="n">
         <v>16.38093997601439</v>
       </c>
+      <c r="G26" t="n">
+        <v>72.46348314606742</v>
+      </c>
+      <c r="H26" t="n">
+        <v>68.09340304846424</v>
+      </c>
+      <c r="I26" t="n">
+        <v>71.35027689294218</v>
+      </c>
+      <c r="J26" t="n">
+        <v>78.10202625214997</v>
+      </c>
+      <c r="K26" t="n">
+        <v>75.40326283218454</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -984,6 +1384,21 @@
       <c r="F27" t="n">
         <v>15.63978822195572</v>
       </c>
+      <c r="G27" t="n">
+        <v>72.89044943820225</v>
+      </c>
+      <c r="H27" t="n">
+        <v>63.94424321645982</v>
+      </c>
+      <c r="I27" t="n">
+        <v>69.74550872913419</v>
+      </c>
+      <c r="J27" t="n">
+        <v>82.75395535114775</v>
+      </c>
+      <c r="K27" t="n">
+        <v>78.24892514257984</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1004,6 +1419,21 @@
       <c r="F28" t="n">
         <v>14.64153574643533</v>
       </c>
+      <c r="G28" t="n">
+        <v>70.05329153605015</v>
+      </c>
+      <c r="H28" t="n">
+        <v>70.12026640897209</v>
+      </c>
+      <c r="I28" t="n">
+        <v>65.14820358987366</v>
+      </c>
+      <c r="J28" t="n">
+        <v>77.68365555236169</v>
+      </c>
+      <c r="K28" t="n">
+        <v>72.90062724541768</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1024,6 +1454,21 @@
       <c r="F29" t="n">
         <v>15.23529815445433</v>
       </c>
+      <c r="G29" t="n">
+        <v>71.41741741741741</v>
+      </c>
+      <c r="H29" t="n">
+        <v>68.17873754948066</v>
+      </c>
+      <c r="I29" t="n">
+        <v>67.42158276036881</v>
+      </c>
+      <c r="J29" t="n">
+        <v>78.27004351848049</v>
+      </c>
+      <c r="K29" t="n">
+        <v>74.67304075556649</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1044,6 +1489,21 @@
       <c r="F30" t="n">
         <v>16.08335566084607</v>
       </c>
+      <c r="G30" t="n">
+        <v>73.58035714285714</v>
+      </c>
+      <c r="H30" t="n">
+        <v>64.84025321012811</v>
+      </c>
+      <c r="I30" t="n">
+        <v>71.86023980844855</v>
+      </c>
+      <c r="J30" t="n">
+        <v>83.02702432760096</v>
+      </c>
+      <c r="K30" t="n">
+        <v>76.95083000858598</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1064,6 +1524,21 @@
       <c r="F31" t="n">
         <v>15.88516287391275</v>
       </c>
+      <c r="G31" t="n">
+        <v>73.10850439882698</v>
+      </c>
+      <c r="H31" t="n">
+        <v>70.10161210586354</v>
+      </c>
+      <c r="I31" t="n">
+        <v>69.19604930009824</v>
+      </c>
+      <c r="J31" t="n">
+        <v>81.37240725962327</v>
+      </c>
+      <c r="K31" t="n">
+        <v>75.35305890254372</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1084,6 +1559,21 @@
       <c r="F32" t="n">
         <v>16.11106924577429</v>
       </c>
+      <c r="G32" t="n">
+        <v>72.76068376068376</v>
+      </c>
+      <c r="H32" t="n">
+        <v>64.30001852995245</v>
+      </c>
+      <c r="I32" t="n">
+        <v>71.70818881529529</v>
+      </c>
+      <c r="J32" t="n">
+        <v>80.19302674732914</v>
+      </c>
+      <c r="K32" t="n">
+        <v>77.84666358317465</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1104,6 +1594,21 @@
       <c r="F33" t="n">
         <v>17.1207724918019</v>
       </c>
+      <c r="G33" t="n">
+        <v>73.38068181818181</v>
+      </c>
+      <c r="H33" t="n">
+        <v>71.50348858755758</v>
+      </c>
+      <c r="I33" t="n">
+        <v>66.88805046765415</v>
+      </c>
+      <c r="J33" t="n">
+        <v>82.93618710711351</v>
+      </c>
+      <c r="K33" t="n">
+        <v>74.73746373459973</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1124,6 +1629,21 @@
       <c r="F34" t="n">
         <v>16.9371823096935</v>
       </c>
+      <c r="G34" t="n">
+        <v>68.67397260273972</v>
+      </c>
+      <c r="H34" t="n">
+        <v>60.1833720954173</v>
+      </c>
+      <c r="I34" t="n">
+        <v>69.02074780733686</v>
+      </c>
+      <c r="J34" t="n">
+        <v>76.79278464246862</v>
+      </c>
+      <c r="K34" t="n">
+        <v>71.73627677972391</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1144,6 +1664,21 @@
       <c r="F35" t="n">
         <v>15.4237464701077</v>
       </c>
+      <c r="G35" t="n">
+        <v>72.51381215469613</v>
+      </c>
+      <c r="H35" t="n">
+        <v>64.99082440556649</v>
+      </c>
+      <c r="I35" t="n">
+        <v>71.47275547041029</v>
+      </c>
+      <c r="J35" t="n">
+        <v>81.18253026785291</v>
+      </c>
+      <c r="K35" t="n">
+        <v>75.23040307533027</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1164,6 +1699,21 @@
       <c r="F36" t="n">
         <v>16.43395376597943</v>
       </c>
+      <c r="G36" t="n">
+        <v>72.35164835164835</v>
+      </c>
+      <c r="H36" t="n">
+        <v>66.40649257588534</v>
+      </c>
+      <c r="I36" t="n">
+        <v>72.78541489527923</v>
+      </c>
+      <c r="J36" t="n">
+        <v>78.60202811408726</v>
+      </c>
+      <c r="K36" t="n">
+        <v>74.8720695986449</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1184,6 +1734,21 @@
       <c r="F37" t="n">
         <v>15.94928210615195</v>
       </c>
+      <c r="G37" t="n">
+        <v>71.73901098901099</v>
+      </c>
+      <c r="H37" t="n">
+        <v>68.10451658417649</v>
+      </c>
+      <c r="I37" t="n">
+        <v>70.28335620764044</v>
+      </c>
+      <c r="J37" t="n">
+        <v>76.28134096828667</v>
+      </c>
+      <c r="K37" t="n">
+        <v>75.42252249563744</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1204,6 +1769,21 @@
       <c r="F38" t="n">
         <v>16.81043167149618</v>
       </c>
+      <c r="G38" t="n">
+        <v>70.53021978021978</v>
+      </c>
+      <c r="H38" t="n">
+        <v>66.59005018426863</v>
+      </c>
+      <c r="I38" t="n">
+        <v>67.82728962865539</v>
+      </c>
+      <c r="J38" t="n">
+        <v>78.93784066269878</v>
+      </c>
+      <c r="K38" t="n">
+        <v>71.81782991753447</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1224,6 +1804,21 @@
       <c r="F39" t="n">
         <v>16.715330779038</v>
       </c>
+      <c r="G39" t="n">
+        <v>69.74450549450549</v>
+      </c>
+      <c r="H39" t="n">
+        <v>66.25382078858729</v>
+      </c>
+      <c r="I39" t="n">
+        <v>66.09700318273248</v>
+      </c>
+      <c r="J39" t="n">
+        <v>76.29280261589889</v>
+      </c>
+      <c r="K39" t="n">
+        <v>73.28062858606016</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1244,6 +1839,21 @@
       <c r="F40" t="n">
         <v>16.16321011716346</v>
       </c>
+      <c r="G40" t="n">
+        <v>68.65384615384616</v>
+      </c>
+      <c r="H40" t="n">
+        <v>66.76689686279312</v>
+      </c>
+      <c r="I40" t="n">
+        <v>68.62743959541464</v>
+      </c>
+      <c r="J40" t="n">
+        <v>73.5575304632163</v>
+      </c>
+      <c r="K40" t="n">
+        <v>68.66609378897893</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1264,6 +1874,21 @@
       <c r="F41" t="n">
         <v>16.46552978150729</v>
       </c>
+      <c r="G41" t="n">
+        <v>64.4573002754821</v>
+      </c>
+      <c r="H41" t="n">
+        <v>60.9529655206977</v>
+      </c>
+      <c r="I41" t="n">
+        <v>58.9403048843935</v>
+      </c>
+      <c r="J41" t="n">
+        <v>69.516929678948</v>
+      </c>
+      <c r="K41" t="n">
+        <v>71.31501201965911</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1284,6 +1909,21 @@
       <c r="F42" t="n">
         <v>17.39201662805986</v>
       </c>
+      <c r="G42" t="n">
+        <v>68.13698630136986</v>
+      </c>
+      <c r="H42" t="n">
+        <v>65.66614406134109</v>
+      </c>
+      <c r="I42" t="n">
+        <v>64.32901433938893</v>
+      </c>
+      <c r="J42" t="n">
+        <v>73.25561880085813</v>
+      </c>
+      <c r="K42" t="n">
+        <v>72.03603273934412</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1304,6 +1944,21 @@
       <c r="F43" t="n">
         <v>16.85534800682674</v>
       </c>
+      <c r="G43" t="n">
+        <v>70.8</v>
+      </c>
+      <c r="H43" t="n">
+        <v>65.49629048957046</v>
+      </c>
+      <c r="I43" t="n">
+        <v>68.35526389383944</v>
+      </c>
+      <c r="J43" t="n">
+        <v>78.66582194348759</v>
+      </c>
+      <c r="K43" t="n">
+        <v>73.53300035586244</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1324,6 +1979,21 @@
       <c r="F44" t="n">
         <v>16.87886247833508</v>
       </c>
+      <c r="G44" t="n">
+        <v>70.10109289617486</v>
+      </c>
+      <c r="H44" t="n">
+        <v>70.02743176362166</v>
+      </c>
+      <c r="I44" t="n">
+        <v>68.19071718564659</v>
+      </c>
+      <c r="J44" t="n">
+        <v>74.78984589069009</v>
+      </c>
+      <c r="K44" t="n">
+        <v>70.48405435169416</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1344,6 +2014,21 @@
       <c r="F45" t="n">
         <v>17.36716154867755</v>
       </c>
+      <c r="G45" t="n">
+        <v>64.67307692307692</v>
+      </c>
+      <c r="H45" t="n">
+        <v>59.45586035292912</v>
+      </c>
+      <c r="I45" t="n">
+        <v>66.82627161742468</v>
+      </c>
+      <c r="J45" t="n">
+        <v>70.58010819660099</v>
+      </c>
+      <c r="K45" t="n">
+        <v>64.88569624295319</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1364,6 +2049,21 @@
       <c r="F46" t="n">
         <v>16.84203436465953</v>
       </c>
+      <c r="G46" t="n">
+        <v>61.06027397260274</v>
+      </c>
+      <c r="H46" t="n">
+        <v>51.32728733725477</v>
+      </c>
+      <c r="I46" t="n">
+        <v>59.61347551227939</v>
+      </c>
+      <c r="J46" t="n">
+        <v>68.06065334996306</v>
+      </c>
+      <c r="K46" t="n">
+        <v>67.8574532200321</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1384,6 +2084,21 @@
       <c r="F47" t="n">
         <v>15.93415254744195</v>
       </c>
+      <c r="G47" t="n">
+        <v>67.93698630136986</v>
+      </c>
+      <c r="H47" t="n">
+        <v>65.9036365259695</v>
+      </c>
+      <c r="I47" t="n">
+        <v>65.33641181881626</v>
+      </c>
+      <c r="J47" t="n">
+        <v>70.50065927554307</v>
+      </c>
+      <c r="K47" t="n">
+        <v>72.61801579586991</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1404,6 +2119,21 @@
       <c r="F48" t="n">
         <v>18.3318929624722</v>
       </c>
+      <c r="G48" t="n">
+        <v>64.40983606557377</v>
+      </c>
+      <c r="H48" t="n">
+        <v>60.40553446731834</v>
+      </c>
+      <c r="I48" t="n">
+        <v>60.90479573427271</v>
+      </c>
+      <c r="J48" t="n">
+        <v>72.24457238342983</v>
+      </c>
+      <c r="K48" t="n">
+        <v>66.98497843256381</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1424,6 +2154,21 @@
       <c r="F49" t="n">
         <v>15.49056405393991</v>
       </c>
+      <c r="G49" t="n">
+        <v>65.80769230769231</v>
+      </c>
+      <c r="H49" t="n">
+        <v>62.81561704963686</v>
+      </c>
+      <c r="I49" t="n">
+        <v>61.0758768762008</v>
+      </c>
+      <c r="J49" t="n">
+        <v>71.09059969652121</v>
+      </c>
+      <c r="K49" t="n">
+        <v>71.02157585252786</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1444,6 +2189,21 @@
       <c r="F50" t="n">
         <v>16.70099520938395</v>
       </c>
+      <c r="G50" t="n">
+        <v>64.47527472527473</v>
+      </c>
+      <c r="H50" t="n">
+        <v>60.06461796721818</v>
+      </c>
+      <c r="I50" t="n">
+        <v>60.78105359204616</v>
+      </c>
+      <c r="J50" t="n">
+        <v>70.6422891271361</v>
+      </c>
+      <c r="K50" t="n">
+        <v>69.22001731706075</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1464,6 +2224,21 @@
       <c r="F51" t="n">
         <v>17.36630331695936</v>
       </c>
+      <c r="G51" t="n">
+        <v>65.7707182320442</v>
+      </c>
+      <c r="H51" t="n">
+        <v>60.02294019963576</v>
+      </c>
+      <c r="I51" t="n">
+        <v>57.71187970980271</v>
+      </c>
+      <c r="J51" t="n">
+        <v>72.76785096877322</v>
+      </c>
+      <c r="K51" t="n">
+        <v>75.51932603727035</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1483,6 +2258,21 @@
       </c>
       <c r="F52" t="n">
         <v>17.60973374513436</v>
+      </c>
+      <c r="G52" t="n">
+        <v>71.5939226519337</v>
+      </c>
+      <c r="H52" t="n">
+        <v>66.78047187032567</v>
+      </c>
+      <c r="I52" t="n">
+        <v>67.44738329351432</v>
+      </c>
+      <c r="J52" t="n">
+        <v>78.14030605460191</v>
+      </c>
+      <c r="K52" t="n">
+        <v>77.050778944239</v>
       </c>
     </row>
   </sheetData>

--- a/my_work/data1/YearMeanER56985_蒙自.xlsx
+++ b/my_work/data1/YearMeanER56985_蒙自.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,1786 +492,1751 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="B2" t="n">
-        <v>19.17315068493152</v>
+        <v>18.15534246575341</v>
       </c>
       <c r="C2" t="n">
-        <v>16.62333333333333</v>
+        <v>13.30888888888889</v>
       </c>
       <c r="D2" t="n">
-        <v>22.0153846153846</v>
+        <v>22.1967032967033</v>
       </c>
       <c r="E2" t="n">
-        <v>21.49673913043479</v>
+        <v>22.07934782608695</v>
       </c>
       <c r="F2" t="n">
-        <v>16.53260869565218</v>
+        <v>14.97500000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>71.16712328767123</v>
+        <v>72.01917808219179</v>
       </c>
       <c r="H2" t="n">
-        <v>62.36666666666667</v>
+        <v>68.13333333333334</v>
       </c>
       <c r="I2" t="n">
-        <v>68.14285714285714</v>
+        <v>65.47252747252747</v>
       </c>
       <c r="J2" t="n">
-        <v>78.8804347826087</v>
+        <v>78.58695652173913</v>
       </c>
       <c r="K2" t="n">
-        <v>75.05434782608695</v>
+        <v>75.72826086956522</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="B3" t="n">
-        <v>18.15534246575341</v>
+        <v>18.23895027624309</v>
       </c>
       <c r="C3" t="n">
-        <v>13.49359259259259</v>
+        <v>13.02768837803321</v>
       </c>
       <c r="D3" t="n">
-        <v>22.43863060016906</v>
+        <v>21.32413959666708</v>
       </c>
       <c r="E3" t="n">
-        <v>22.31300803402646</v>
+        <v>22.19325378071834</v>
       </c>
       <c r="F3" t="n">
-        <v>15.15470226843101</v>
+        <v>16.94972826086957</v>
       </c>
       <c r="G3" t="n">
-        <v>72.01917808219179</v>
+        <v>73.71270718232044</v>
       </c>
       <c r="H3" t="n">
-        <v>68.82629629629629</v>
+        <v>71.07049808429119</v>
       </c>
       <c r="I3" t="n">
-        <v>66.22135007849293</v>
+        <v>71.60958821398383</v>
       </c>
       <c r="J3" t="n">
-        <v>79.44435255198488</v>
+        <v>81.37594517958412</v>
       </c>
       <c r="K3" t="n">
-        <v>76.54406899810964</v>
+        <v>73.75791587901701</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="B4" t="n">
-        <v>18.23895027624309</v>
+        <v>19.07534246575343</v>
       </c>
       <c r="C4" t="n">
-        <v>13.02981140911026</v>
+        <v>16.13364098197815</v>
       </c>
       <c r="D4" t="n">
-        <v>21.3267981384634</v>
+        <v>23.35960592963369</v>
       </c>
       <c r="E4" t="n">
-        <v>22.19579356558725</v>
+        <v>22.11731797587737</v>
       </c>
       <c r="F4" t="n">
-        <v>16.95168154639599</v>
+        <v>15.47227965500945</v>
       </c>
       <c r="G4" t="n">
-        <v>73.71270718232044</v>
+        <v>67.76164383561644</v>
       </c>
       <c r="H4" t="n">
-        <v>71.07846317581949</v>
+        <v>57.83411664538101</v>
       </c>
       <c r="I4" t="n">
-        <v>71.6178170338296</v>
+        <v>63.18252294740641</v>
       </c>
       <c r="J4" t="n">
-        <v>81.38526470165201</v>
+        <v>80.16712983890852</v>
       </c>
       <c r="K4" t="n">
-        <v>73.7667833586751</v>
+        <v>72.83432517259801</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="B5" t="n">
-        <v>19.07534246575343</v>
+        <v>18.48849315068492</v>
       </c>
       <c r="C5" t="n">
-        <v>16.13366457121234</v>
+        <v>15.6559293442442</v>
       </c>
       <c r="D5" t="n">
-        <v>23.35963514437871</v>
+        <v>21.58966599922675</v>
       </c>
       <c r="E5" t="n">
-        <v>22.11734558223464</v>
+        <v>21.97953606495519</v>
       </c>
       <c r="F5" t="n">
-        <v>15.47230088637387</v>
+        <v>15.53882912668489</v>
       </c>
       <c r="G5" t="n">
-        <v>67.76164383561644</v>
+        <v>72.72876712328767</v>
       </c>
       <c r="H5" t="n">
-        <v>57.834205146398</v>
+        <v>63.70926796272646</v>
       </c>
       <c r="I5" t="n">
-        <v>63.18261337399813</v>
+        <v>73.13387387854293</v>
       </c>
       <c r="J5" t="n">
-        <v>80.16723113806144</v>
+        <v>81.24094706346639</v>
       </c>
       <c r="K5" t="n">
-        <v>72.83442155824646</v>
+        <v>75.61776440404998</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="B6" t="n">
-        <v>18.48849315068492</v>
+        <v>17.7206043956044</v>
       </c>
       <c r="C6" t="n">
-        <v>15.65592960634681</v>
+        <v>13.77506588160271</v>
       </c>
       <c r="D6" t="n">
-        <v>21.58966632026791</v>
+        <v>21.93877406665808</v>
       </c>
       <c r="E6" t="n">
-        <v>21.97953636502429</v>
+        <v>21.51716887027126</v>
       </c>
       <c r="F6" t="n">
-        <v>15.53882935746059</v>
+        <v>14.46998727311614</v>
       </c>
       <c r="G6" t="n">
-        <v>72.72876712328767</v>
+        <v>72.68681318681318</v>
       </c>
       <c r="H6" t="n">
-        <v>63.70926894607108</v>
+        <v>67.85232519958585</v>
       </c>
       <c r="I6" t="n">
-        <v>73.13387487224173</v>
+        <v>71.34593193198381</v>
       </c>
       <c r="J6" t="n">
-        <v>81.24094816454415</v>
+        <v>81.70914072895073</v>
       </c>
       <c r="K6" t="n">
-        <v>75.61776545172008</v>
+        <v>72.89801917830489</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="B7" t="n">
-        <v>17.7206043956044</v>
+        <v>18.43989071038251</v>
       </c>
       <c r="C7" t="n">
-        <v>13.77506588451497</v>
+        <v>14.50851720749014</v>
       </c>
       <c r="D7" t="n">
-        <v>21.9387740702252</v>
+        <v>22.04767883589734</v>
       </c>
       <c r="E7" t="n">
-        <v>21.51716887353288</v>
+        <v>21.75996922685078</v>
       </c>
       <c r="F7" t="n">
-        <v>14.46998727562458</v>
+        <v>16.21923899209909</v>
       </c>
       <c r="G7" t="n">
-        <v>72.68681318681318</v>
+        <v>73.46448087431693</v>
       </c>
       <c r="H7" t="n">
-        <v>67.85232521051191</v>
+        <v>67.96541016702841</v>
       </c>
       <c r="I7" t="n">
-        <v>71.34593194302491</v>
+        <v>67.46533991134048</v>
       </c>
       <c r="J7" t="n">
-        <v>81.70914074091897</v>
+        <v>83.1816210948799</v>
       </c>
       <c r="K7" t="n">
-        <v>72.8980191896926</v>
+        <v>78.314108904112</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="B8" t="n">
-        <v>18.43989071038251</v>
+        <v>18.81808219178083</v>
       </c>
       <c r="C8" t="n">
-        <v>14.50851720752214</v>
+        <v>16.09565019119434</v>
       </c>
       <c r="D8" t="n">
-        <v>22.04767883593654</v>
+        <v>23.15437009709778</v>
       </c>
       <c r="E8" t="n">
-        <v>21.75996922688623</v>
+        <v>22.02891270898751</v>
       </c>
       <c r="F8" t="n">
-        <v>16.21923899212635</v>
+        <v>14.79151346730542</v>
       </c>
       <c r="G8" t="n">
-        <v>73.46448087431693</v>
+        <v>72.66575342465754</v>
       </c>
       <c r="H8" t="n">
-        <v>67.96541016714848</v>
+        <v>66.63294900185588</v>
       </c>
       <c r="I8" t="n">
-        <v>67.46533991146181</v>
+        <v>69.59852021880594</v>
       </c>
       <c r="J8" t="n">
-        <v>83.18162109500999</v>
+        <v>82.18675675103131</v>
       </c>
       <c r="K8" t="n">
-        <v>78.31410890423579</v>
+        <v>75.30776205330557</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="B9" t="n">
-        <v>18.81808219178083</v>
+        <v>18.18547945205479</v>
       </c>
       <c r="C9" t="n">
-        <v>16.09565019119469</v>
+        <v>13.62439611323549</v>
       </c>
       <c r="D9" t="n">
-        <v>23.15437009709821</v>
+        <v>21.74894912194613</v>
       </c>
       <c r="E9" t="n">
-        <v>22.02891270898789</v>
+        <v>21.85031426857595</v>
       </c>
       <c r="F9" t="n">
-        <v>14.79151346730572</v>
+        <v>16.28469036377506</v>
       </c>
       <c r="G9" t="n">
-        <v>72.66575342465754</v>
+        <v>72.38356164383562</v>
       </c>
       <c r="H9" t="n">
-        <v>66.63294900185721</v>
+        <v>64.16258832224284</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59852021880727</v>
+        <v>70.92965406833852</v>
       </c>
       <c r="J9" t="n">
-        <v>82.18675675103272</v>
+        <v>82.50202996468512</v>
       </c>
       <c r="K9" t="n">
-        <v>75.3077620533069</v>
+        <v>74.9381278484055</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="B10" t="n">
-        <v>18.18547945205479</v>
+        <v>18.61013698630136</v>
       </c>
       <c r="C10" t="n">
-        <v>13.62439611323549</v>
+        <v>16.04249329014706</v>
       </c>
       <c r="D10" t="n">
-        <v>21.74894912194614</v>
+        <v>22.59943900134007</v>
       </c>
       <c r="E10" t="n">
-        <v>21.85031426857596</v>
+        <v>22.15489472031062</v>
       </c>
       <c r="F10" t="n">
-        <v>16.28469036377506</v>
+        <v>14.43026837351929</v>
       </c>
       <c r="G10" t="n">
-        <v>72.38356164383562</v>
+        <v>72.01917808219179</v>
       </c>
       <c r="H10" t="n">
-        <v>64.16258832224285</v>
+        <v>66.09069542580269</v>
       </c>
       <c r="I10" t="n">
-        <v>70.92965406833855</v>
+        <v>71.02120498976197</v>
       </c>
       <c r="J10" t="n">
-        <v>82.50202996468514</v>
+        <v>80.44023945613787</v>
       </c>
       <c r="K10" t="n">
-        <v>74.93812784840551</v>
+        <v>73.56454486791745</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="B11" t="n">
-        <v>18.61013698630136</v>
+        <v>17.7678787878788</v>
       </c>
       <c r="C11" t="n">
-        <v>16.04249329014706</v>
+        <v>14.34112629989172</v>
       </c>
       <c r="D11" t="n">
-        <v>22.59943900134007</v>
+        <v>21.56332710001489</v>
       </c>
       <c r="E11" t="n">
-        <v>22.15489472031062</v>
+        <v>22.23475636645662</v>
       </c>
       <c r="F11" t="n">
-        <v>14.43026837351929</v>
+        <v>15.10724446406344</v>
       </c>
       <c r="G11" t="n">
-        <v>72.01917808219179</v>
+        <v>71.87575757575758</v>
       </c>
       <c r="H11" t="n">
-        <v>66.09069542580269</v>
+        <v>67.18780983984398</v>
       </c>
       <c r="I11" t="n">
-        <v>71.02120498976197</v>
+        <v>71.48912449988624</v>
       </c>
       <c r="J11" t="n">
-        <v>80.44023945613787</v>
+        <v>80.36193934606675</v>
       </c>
       <c r="K11" t="n">
-        <v>73.56454486791745</v>
+        <v>74.47775338928641</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="B12" t="n">
-        <v>17.7678787878788</v>
+        <v>18.47272727272728</v>
       </c>
       <c r="C12" t="n">
-        <v>14.34112629989172</v>
+        <v>13.61222241947911</v>
       </c>
       <c r="D12" t="n">
-        <v>21.56332710001489</v>
+        <v>22.86662996813203</v>
       </c>
       <c r="E12" t="n">
-        <v>22.23475636645662</v>
+        <v>22.04168213441801</v>
       </c>
       <c r="F12" t="n">
-        <v>15.10724446406344</v>
+        <v>15.42181787460938</v>
       </c>
       <c r="G12" t="n">
-        <v>71.87575757575758</v>
+        <v>72.48863636363636</v>
       </c>
       <c r="H12" t="n">
-        <v>67.18780983984398</v>
+        <v>68.49594558233564</v>
       </c>
       <c r="I12" t="n">
-        <v>71.48912449988624</v>
+        <v>66.52185851098776</v>
       </c>
       <c r="J12" t="n">
-        <v>80.36193934606675</v>
+        <v>80.62349934071811</v>
       </c>
       <c r="K12" t="n">
-        <v>74.47775338928641</v>
+        <v>76.78780166727485</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="B13" t="n">
-        <v>18.47272727272728</v>
+        <v>18.43479452054795</v>
       </c>
       <c r="C13" t="n">
-        <v>13.61222241947911</v>
+        <v>14.6323580268831</v>
       </c>
       <c r="D13" t="n">
-        <v>22.86662996813203</v>
+        <v>22.08314977986959</v>
       </c>
       <c r="E13" t="n">
-        <v>22.04168213441801</v>
+        <v>21.8461052405915</v>
       </c>
       <c r="F13" t="n">
-        <v>15.42181787460938</v>
+        <v>15.93828062907184</v>
       </c>
       <c r="G13" t="n">
-        <v>72.48863636363636</v>
+        <v>72.05205479452054</v>
       </c>
       <c r="H13" t="n">
-        <v>68.49594558233564</v>
+        <v>64.99439939535928</v>
       </c>
       <c r="I13" t="n">
-        <v>66.52185851098776</v>
+        <v>72.58815229132954</v>
       </c>
       <c r="J13" t="n">
-        <v>80.62349934071811</v>
+        <v>80.57199455805129</v>
       </c>
       <c r="K13" t="n">
-        <v>76.78780166727485</v>
+        <v>73.08465001812256</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="B14" t="n">
-        <v>18.43479452054795</v>
+        <v>18.94465753424657</v>
       </c>
       <c r="C14" t="n">
-        <v>14.6323580268831</v>
+        <v>16.73035953363204</v>
       </c>
       <c r="D14" t="n">
-        <v>22.08314977986959</v>
+        <v>22.66464999758098</v>
       </c>
       <c r="E14" t="n">
-        <v>21.8461052405915</v>
+        <v>22.50484897000644</v>
       </c>
       <c r="F14" t="n">
-        <v>15.93828062907184</v>
+        <v>14.68085087640296</v>
       </c>
       <c r="G14" t="n">
-        <v>72.05205479452054</v>
+        <v>69.11232876712329</v>
       </c>
       <c r="H14" t="n">
-        <v>64.99439939535928</v>
+        <v>59.1554933266151</v>
       </c>
       <c r="I14" t="n">
-        <v>72.58815229132954</v>
+        <v>69.16030936583878</v>
       </c>
       <c r="J14" t="n">
-        <v>80.57199455805129</v>
+        <v>81.18013037563099</v>
       </c>
       <c r="K14" t="n">
-        <v>73.08465001812256</v>
+        <v>69.90309402193611</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="B15" t="n">
-        <v>18.94465753424657</v>
+        <v>19.29697802197803</v>
       </c>
       <c r="C15" t="n">
-        <v>16.73035953363204</v>
+        <v>15.89154241245749</v>
       </c>
       <c r="D15" t="n">
-        <v>22.66464999758098</v>
+        <v>23.22158956041298</v>
       </c>
       <c r="E15" t="n">
-        <v>22.50484897000644</v>
+        <v>22.53560943300007</v>
       </c>
       <c r="F15" t="n">
-        <v>14.68085087640296</v>
+        <v>16.44761794430872</v>
       </c>
       <c r="G15" t="n">
-        <v>69.11232876712329</v>
+        <v>68.0934065934066</v>
       </c>
       <c r="H15" t="n">
-        <v>59.1554933266151</v>
+        <v>61.48522520139137</v>
       </c>
       <c r="I15" t="n">
-        <v>69.16030936583878</v>
+        <v>62.97978361940482</v>
       </c>
       <c r="J15" t="n">
-        <v>81.18013037563099</v>
+        <v>77.42422367084035</v>
       </c>
       <c r="K15" t="n">
-        <v>69.90309402193611</v>
+        <v>73.596772761108</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="B16" t="n">
-        <v>19.29697802197803</v>
+        <v>18.78980716253444</v>
       </c>
       <c r="C16" t="n">
-        <v>15.89154241245749</v>
+        <v>16.08879491569397</v>
       </c>
       <c r="D16" t="n">
-        <v>23.22158956041298</v>
+        <v>21.9513509951157</v>
       </c>
       <c r="E16" t="n">
-        <v>22.53560943300007</v>
+        <v>22.68390779596703</v>
       </c>
       <c r="F16" t="n">
-        <v>16.44761794430872</v>
+        <v>15.33638715156857</v>
       </c>
       <c r="G16" t="n">
-        <v>68.0934065934066</v>
+        <v>72.56473829201101</v>
       </c>
       <c r="H16" t="n">
-        <v>61.48522520139137</v>
+        <v>64.46094694668213</v>
       </c>
       <c r="I16" t="n">
-        <v>62.97978361940482</v>
+        <v>70.74421981799338</v>
       </c>
       <c r="J16" t="n">
-        <v>77.42422367084035</v>
+        <v>79.05960685352572</v>
       </c>
       <c r="K16" t="n">
-        <v>73.596772761108</v>
+        <v>78.84344318218595</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="B17" t="n">
-        <v>18.78980716253444</v>
+        <v>18.6271978021978</v>
       </c>
       <c r="C17" t="n">
-        <v>16.08879491569397</v>
+        <v>15.79876438795215</v>
       </c>
       <c r="D17" t="n">
-        <v>21.9513509951157</v>
+        <v>21.75990495599028</v>
       </c>
       <c r="E17" t="n">
-        <v>22.68390779596703</v>
+        <v>22.5547682175381</v>
       </c>
       <c r="F17" t="n">
-        <v>15.33638715156857</v>
+        <v>15.23735203425618</v>
       </c>
       <c r="G17" t="n">
-        <v>72.56473829201101</v>
+        <v>72.49175824175825</v>
       </c>
       <c r="H17" t="n">
-        <v>64.46094694668213</v>
+        <v>65.38289941051869</v>
       </c>
       <c r="I17" t="n">
-        <v>70.74421981799338</v>
+        <v>68.51367274525268</v>
       </c>
       <c r="J17" t="n">
-        <v>79.05960685352572</v>
+        <v>80.79186381157722</v>
       </c>
       <c r="K17" t="n">
-        <v>78.84344318218595</v>
+        <v>78.35699394763246</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="B18" t="n">
-        <v>18.6271978021978</v>
+        <v>18.55315068493152</v>
       </c>
       <c r="C18" t="n">
-        <v>15.79876438795215</v>
+        <v>13.4255418265328</v>
       </c>
       <c r="D18" t="n">
-        <v>21.75990495599028</v>
+        <v>23.67428466984605</v>
       </c>
       <c r="E18" t="n">
-        <v>22.5547682175381</v>
+        <v>23.0875518284515</v>
       </c>
       <c r="F18" t="n">
-        <v>15.23735203425618</v>
+        <v>14.78844947863322</v>
       </c>
       <c r="G18" t="n">
-        <v>72.49175824175825</v>
+        <v>70.73972602739725</v>
       </c>
       <c r="H18" t="n">
-        <v>65.38289941051869</v>
+        <v>69.93758777122798</v>
       </c>
       <c r="I18" t="n">
-        <v>68.51367274525268</v>
+        <v>60.53311728291487</v>
       </c>
       <c r="J18" t="n">
-        <v>80.79186381157722</v>
+        <v>77.2912159109954</v>
       </c>
       <c r="K18" t="n">
-        <v>78.35699394763246</v>
+        <v>78.25388036899601</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="B19" t="n">
-        <v>18.55315068493152</v>
+        <v>18.82021857923495</v>
       </c>
       <c r="C19" t="n">
-        <v>13.4255418265328</v>
+        <v>15.01566529479706</v>
       </c>
       <c r="D19" t="n">
-        <v>23.67428466984605</v>
+        <v>22.79751961175654</v>
       </c>
       <c r="E19" t="n">
-        <v>23.0875518284515</v>
+        <v>22.27486469378752</v>
       </c>
       <c r="F19" t="n">
-        <v>14.78844947863322</v>
+        <v>16.00965705955036</v>
       </c>
       <c r="G19" t="n">
-        <v>70.73972602739725</v>
+        <v>70.48907103825137</v>
       </c>
       <c r="H19" t="n">
-        <v>69.93758777122798</v>
+        <v>63.75755590957394</v>
       </c>
       <c r="I19" t="n">
-        <v>60.53311728291487</v>
+        <v>68.4234408492628</v>
       </c>
       <c r="J19" t="n">
-        <v>77.2912159109954</v>
+        <v>79.78577408598908</v>
       </c>
       <c r="K19" t="n">
-        <v>78.25388036899601</v>
+        <v>73.00275956922822</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="B20" t="n">
-        <v>18.82021857923495</v>
+        <v>18.29698630136985</v>
       </c>
       <c r="C20" t="n">
-        <v>15.01566529479706</v>
+        <v>14.47572961438663</v>
       </c>
       <c r="D20" t="n">
-        <v>22.79751961175654</v>
+        <v>22.03843428144788</v>
       </c>
       <c r="E20" t="n">
-        <v>22.27486469378752</v>
+        <v>21.9008137466716</v>
       </c>
       <c r="F20" t="n">
-        <v>16.00965705955036</v>
+        <v>15.55771366369077</v>
       </c>
       <c r="G20" t="n">
-        <v>70.48907103825137</v>
+        <v>73.75342465753425</v>
       </c>
       <c r="H20" t="n">
-        <v>63.75755590957394</v>
+        <v>67.88619506566194</v>
       </c>
       <c r="I20" t="n">
-        <v>68.4234408492628</v>
+        <v>72.18047737196993</v>
       </c>
       <c r="J20" t="n">
-        <v>79.78577408598908</v>
+        <v>81.85636710963031</v>
       </c>
       <c r="K20" t="n">
-        <v>73.00275956922822</v>
+        <v>76.04350825618727</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="B21" t="n">
-        <v>18.29698630136985</v>
+        <v>18.35961538461538</v>
       </c>
       <c r="C21" t="n">
-        <v>14.47572961438663</v>
+        <v>14.73750810682652</v>
       </c>
       <c r="D21" t="n">
-        <v>22.03843428144788</v>
+        <v>22.08174103605987</v>
       </c>
       <c r="E21" t="n">
-        <v>21.9008137466716</v>
+        <v>21.71957406246382</v>
       </c>
       <c r="F21" t="n">
-        <v>15.55771366369077</v>
+        <v>15.63579905124936</v>
       </c>
       <c r="G21" t="n">
-        <v>73.75342465753425</v>
+        <v>73.22252747252747</v>
       </c>
       <c r="H21" t="n">
-        <v>67.88619506566194</v>
+        <v>60.83206883406291</v>
       </c>
       <c r="I21" t="n">
-        <v>72.18047737196993</v>
+        <v>74.22176348760406</v>
       </c>
       <c r="J21" t="n">
-        <v>81.85636710963031</v>
+        <v>82.25930833814816</v>
       </c>
       <c r="K21" t="n">
-        <v>76.04350825618727</v>
+        <v>78.61586272808997</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="B22" t="n">
-        <v>18.35961538461538</v>
+        <v>19.11589041095891</v>
       </c>
       <c r="C22" t="n">
-        <v>14.73750810682652</v>
+        <v>15.95041675674252</v>
       </c>
       <c r="D22" t="n">
-        <v>22.08174103605987</v>
+        <v>23.42617297841824</v>
       </c>
       <c r="E22" t="n">
-        <v>21.71957406246382</v>
+        <v>22.4110823267659</v>
       </c>
       <c r="F22" t="n">
-        <v>15.63579905124936</v>
+        <v>15.46017172881793</v>
       </c>
       <c r="G22" t="n">
-        <v>73.22252747252747</v>
+        <v>71.0958904109589</v>
       </c>
       <c r="H22" t="n">
-        <v>60.83206883406291</v>
+        <v>64.38702298704514</v>
       </c>
       <c r="I22" t="n">
-        <v>74.22176348760406</v>
+        <v>64.65078860975389</v>
       </c>
       <c r="J22" t="n">
-        <v>82.25930833814816</v>
+        <v>80.06803596019726</v>
       </c>
       <c r="K22" t="n">
-        <v>78.61586272808997</v>
+        <v>78.27843329052271</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="B23" t="n">
-        <v>19.11589041095891</v>
+        <v>18.92213114754099</v>
       </c>
       <c r="C23" t="n">
-        <v>15.95041675674252</v>
+        <v>16.09286172260156</v>
       </c>
       <c r="D23" t="n">
-        <v>23.42617297841824</v>
+        <v>22.77061728547713</v>
       </c>
       <c r="E23" t="n">
-        <v>22.4110823267659</v>
+        <v>22.13925089485615</v>
       </c>
       <c r="F23" t="n">
-        <v>15.46017172881793</v>
+        <v>15.53652360574802</v>
       </c>
       <c r="G23" t="n">
-        <v>71.0958904109589</v>
+        <v>71.2568306010929</v>
       </c>
       <c r="H23" t="n">
-        <v>64.38702298704514</v>
+        <v>64.5646925602972</v>
       </c>
       <c r="I23" t="n">
-        <v>64.65078860975389</v>
+        <v>67.39176690779949</v>
       </c>
       <c r="J23" t="n">
-        <v>80.06803596019726</v>
+        <v>80.16378299956736</v>
       </c>
       <c r="K23" t="n">
-        <v>78.27843329052271</v>
+        <v>75.91606992707091</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="B24" t="n">
-        <v>18.92213114754099</v>
+        <v>18.39697802197802</v>
       </c>
       <c r="C24" t="n">
-        <v>16.09286172260156</v>
+        <v>13.67547624136224</v>
       </c>
       <c r="D24" t="n">
-        <v>22.77061728547713</v>
+        <v>22.20736942071952</v>
       </c>
       <c r="E24" t="n">
-        <v>22.13925089485615</v>
+        <v>22.41581594389952</v>
       </c>
       <c r="F24" t="n">
-        <v>15.53652360574802</v>
+        <v>16.10365786527987</v>
       </c>
       <c r="G24" t="n">
-        <v>71.2568306010929</v>
+        <v>72.32692307692308</v>
       </c>
       <c r="H24" t="n">
-        <v>64.5646925602972</v>
+        <v>71.40627436178109</v>
       </c>
       <c r="I24" t="n">
-        <v>67.39176690779949</v>
+        <v>69.77353590008572</v>
       </c>
       <c r="J24" t="n">
-        <v>80.16378299956736</v>
+        <v>78.38641519779743</v>
       </c>
       <c r="K24" t="n">
-        <v>75.91606992707091</v>
+        <v>72.89039206442467</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="B25" t="n">
-        <v>18.39697802197802</v>
+        <v>18.72724719101123</v>
       </c>
       <c r="C25" t="n">
-        <v>13.67547624136224</v>
+        <v>15.03861640268179</v>
       </c>
       <c r="D25" t="n">
-        <v>22.20736942071952</v>
+        <v>21.71891022847906</v>
       </c>
       <c r="E25" t="n">
-        <v>22.41581594389952</v>
+        <v>22.6501719124337</v>
       </c>
       <c r="F25" t="n">
-        <v>16.10365786527987</v>
+        <v>16.38093997601439</v>
       </c>
       <c r="G25" t="n">
-        <v>72.32692307692308</v>
+        <v>72.46348314606742</v>
       </c>
       <c r="H25" t="n">
-        <v>71.40627436178109</v>
+        <v>68.09340304846424</v>
       </c>
       <c r="I25" t="n">
-        <v>69.77353590008572</v>
+        <v>71.35027689294218</v>
       </c>
       <c r="J25" t="n">
-        <v>78.38641519779743</v>
+        <v>78.10202625214997</v>
       </c>
       <c r="K25" t="n">
-        <v>72.89039206442467</v>
+        <v>75.40326283218454</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="B26" t="n">
-        <v>18.72724719101123</v>
+        <v>19.03848314606742</v>
       </c>
       <c r="C26" t="n">
-        <v>15.03861640268179</v>
+        <v>16.58793882275774</v>
       </c>
       <c r="D26" t="n">
-        <v>21.71891022847906</v>
+        <v>22.44852708121886</v>
       </c>
       <c r="E26" t="n">
-        <v>22.6501719124337</v>
+        <v>22.33988957204982</v>
       </c>
       <c r="F26" t="n">
-        <v>16.38093997601439</v>
+        <v>15.63978822195572</v>
       </c>
       <c r="G26" t="n">
-        <v>72.46348314606742</v>
+        <v>72.89044943820225</v>
       </c>
       <c r="H26" t="n">
-        <v>68.09340304846424</v>
+        <v>63.94424321645982</v>
       </c>
       <c r="I26" t="n">
-        <v>71.35027689294218</v>
+        <v>69.74550872913419</v>
       </c>
       <c r="J26" t="n">
-        <v>78.10202625214997</v>
+        <v>82.75395535114775</v>
       </c>
       <c r="K26" t="n">
-        <v>75.40326283218454</v>
+        <v>78.24892514257984</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="B27" t="n">
-        <v>19.03848314606742</v>
+        <v>18.05611285266458</v>
       </c>
       <c r="C27" t="n">
-        <v>16.58793882275774</v>
+        <v>13.72843888816217</v>
       </c>
       <c r="D27" t="n">
-        <v>22.44852708121886</v>
+        <v>23.2307968265258</v>
       </c>
       <c r="E27" t="n">
-        <v>22.33988957204982</v>
+        <v>22.62093577456328</v>
       </c>
       <c r="F27" t="n">
-        <v>15.63978822195572</v>
+        <v>14.64153574643533</v>
       </c>
       <c r="G27" t="n">
-        <v>72.89044943820225</v>
+        <v>70.05329153605015</v>
       </c>
       <c r="H27" t="n">
-        <v>63.94424321645982</v>
+        <v>70.12026640897209</v>
       </c>
       <c r="I27" t="n">
-        <v>69.74550872913419</v>
+        <v>65.14820358987366</v>
       </c>
       <c r="J27" t="n">
-        <v>82.75395535114775</v>
+        <v>77.68365555236169</v>
       </c>
       <c r="K27" t="n">
-        <v>78.24892514257984</v>
+        <v>72.90062724541768</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="B28" t="n">
-        <v>18.05611285266458</v>
+        <v>18.5981981981982</v>
       </c>
       <c r="C28" t="n">
-        <v>13.72843888816217</v>
+        <v>14.68263846693876</v>
       </c>
       <c r="D28" t="n">
-        <v>23.2307968265258</v>
+        <v>22.59914563983365</v>
       </c>
       <c r="E28" t="n">
-        <v>22.62093577456328</v>
+        <v>22.8692968544591</v>
       </c>
       <c r="F28" t="n">
-        <v>14.64153574643533</v>
+        <v>15.23529815445433</v>
       </c>
       <c r="G28" t="n">
-        <v>70.05329153605015</v>
+        <v>71.41741741741741</v>
       </c>
       <c r="H28" t="n">
-        <v>70.12026640897209</v>
+        <v>68.17873754948066</v>
       </c>
       <c r="I28" t="n">
-        <v>65.14820358987366</v>
+        <v>67.42158276036881</v>
       </c>
       <c r="J28" t="n">
-        <v>77.68365555236169</v>
+        <v>78.27004351848049</v>
       </c>
       <c r="K28" t="n">
-        <v>72.90062724541768</v>
+        <v>74.67304075556649</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="B29" t="n">
-        <v>18.5981981981982</v>
+        <v>19.04851190476191</v>
       </c>
       <c r="C29" t="n">
-        <v>14.68263846693876</v>
+        <v>15.60652214144512</v>
       </c>
       <c r="D29" t="n">
-        <v>22.59914563983365</v>
+        <v>22.70887939599816</v>
       </c>
       <c r="E29" t="n">
-        <v>22.8692968544591</v>
+        <v>22.16272972445785</v>
       </c>
       <c r="F29" t="n">
-        <v>15.23529815445433</v>
+        <v>16.08335566084607</v>
       </c>
       <c r="G29" t="n">
-        <v>71.41741741741741</v>
+        <v>73.58035714285714</v>
       </c>
       <c r="H29" t="n">
-        <v>68.17873754948066</v>
+        <v>64.84025321012811</v>
       </c>
       <c r="I29" t="n">
-        <v>67.42158276036881</v>
+        <v>71.86023980844855</v>
       </c>
       <c r="J29" t="n">
-        <v>78.27004351848049</v>
+        <v>83.02702432760096</v>
       </c>
       <c r="K29" t="n">
-        <v>74.67304075556649</v>
+        <v>76.95083000858598</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="B30" t="n">
-        <v>19.04851190476191</v>
+        <v>18.71847507331378</v>
       </c>
       <c r="C30" t="n">
-        <v>15.60652214144512</v>
+        <v>14.67248876024649</v>
       </c>
       <c r="D30" t="n">
-        <v>22.70887939599816</v>
+        <v>22.94545208599998</v>
       </c>
       <c r="E30" t="n">
-        <v>22.16272972445785</v>
+        <v>22.17631081074951</v>
       </c>
       <c r="F30" t="n">
-        <v>16.08335566084607</v>
+        <v>15.88516287391275</v>
       </c>
       <c r="G30" t="n">
-        <v>73.58035714285714</v>
+        <v>73.10850439882698</v>
       </c>
       <c r="H30" t="n">
-        <v>64.84025321012811</v>
+        <v>70.10161210586354</v>
       </c>
       <c r="I30" t="n">
-        <v>71.86023980844855</v>
+        <v>69.19604930009824</v>
       </c>
       <c r="J30" t="n">
-        <v>83.02702432760096</v>
+        <v>81.37240725962327</v>
       </c>
       <c r="K30" t="n">
-        <v>76.95083000858598</v>
+        <v>75.35305890254372</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="B31" t="n">
-        <v>18.71847507331378</v>
+        <v>18.59344729344729</v>
       </c>
       <c r="C31" t="n">
-        <v>14.67248876024649</v>
+        <v>15.12382170988789</v>
       </c>
       <c r="D31" t="n">
-        <v>22.94545208599998</v>
+        <v>21.8864170833647</v>
       </c>
       <c r="E31" t="n">
-        <v>22.17631081074951</v>
+        <v>22.13307012011944</v>
       </c>
       <c r="F31" t="n">
-        <v>15.88516287391275</v>
+        <v>16.11106924577429</v>
       </c>
       <c r="G31" t="n">
-        <v>73.10850439882698</v>
+        <v>72.76068376068376</v>
       </c>
       <c r="H31" t="n">
-        <v>70.10161210586354</v>
+        <v>64.30001852995245</v>
       </c>
       <c r="I31" t="n">
-        <v>69.19604930009824</v>
+        <v>71.70818881529529</v>
       </c>
       <c r="J31" t="n">
-        <v>81.37240725962327</v>
+        <v>80.19302674732914</v>
       </c>
       <c r="K31" t="n">
-        <v>75.35305890254372</v>
+        <v>77.84666358317465</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="B32" t="n">
-        <v>18.59344729344729</v>
+        <v>18.65482954545453</v>
       </c>
       <c r="C32" t="n">
-        <v>15.12382170988789</v>
+        <v>14.44446304313824</v>
       </c>
       <c r="D32" t="n">
-        <v>21.8864170833647</v>
+        <v>22.55405321787187</v>
       </c>
       <c r="E32" t="n">
-        <v>22.13307012011944</v>
+        <v>21.45530846285846</v>
       </c>
       <c r="F32" t="n">
-        <v>16.11106924577429</v>
+        <v>17.1207724918019</v>
       </c>
       <c r="G32" t="n">
-        <v>72.76068376068376</v>
+        <v>73.38068181818181</v>
       </c>
       <c r="H32" t="n">
-        <v>64.30001852995245</v>
+        <v>71.50348858755758</v>
       </c>
       <c r="I32" t="n">
-        <v>71.70818881529529</v>
+        <v>66.88805046765415</v>
       </c>
       <c r="J32" t="n">
-        <v>80.19302674732914</v>
+        <v>82.93618710711351</v>
       </c>
       <c r="K32" t="n">
-        <v>77.84666358317465</v>
+        <v>74.73746373459973</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="B33" t="n">
-        <v>18.65482954545453</v>
+        <v>19.7904109589041</v>
       </c>
       <c r="C33" t="n">
-        <v>14.44446304313824</v>
+        <v>17.02271625603487</v>
       </c>
       <c r="D33" t="n">
-        <v>22.55405321787187</v>
+        <v>23.10389069470189</v>
       </c>
       <c r="E33" t="n">
-        <v>21.45530846285846</v>
+        <v>22.89516639633542</v>
       </c>
       <c r="F33" t="n">
-        <v>17.1207724918019</v>
+        <v>16.9371823096935</v>
       </c>
       <c r="G33" t="n">
-        <v>73.38068181818181</v>
+        <v>68.67397260273972</v>
       </c>
       <c r="H33" t="n">
-        <v>71.50348858755758</v>
+        <v>60.1833720954173</v>
       </c>
       <c r="I33" t="n">
-        <v>66.88805046765415</v>
+        <v>69.02074780733686</v>
       </c>
       <c r="J33" t="n">
-        <v>82.93618710711351</v>
+        <v>76.79278464246862</v>
       </c>
       <c r="K33" t="n">
-        <v>74.73746373459973</v>
+        <v>71.73627677972391</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="B34" t="n">
-        <v>19.7904109589041</v>
+        <v>19.02458563535912</v>
       </c>
       <c r="C34" t="n">
-        <v>17.02271625603487</v>
+        <v>16.59014287928129</v>
       </c>
       <c r="D34" t="n">
-        <v>23.10389069470189</v>
+        <v>22.3659768208209</v>
       </c>
       <c r="E34" t="n">
-        <v>22.89516639633542</v>
+        <v>22.46625180865582</v>
       </c>
       <c r="F34" t="n">
-        <v>16.9371823096935</v>
+        <v>15.4237464701077</v>
       </c>
       <c r="G34" t="n">
-        <v>68.67397260273972</v>
+        <v>72.51381215469613</v>
       </c>
       <c r="H34" t="n">
-        <v>60.1833720954173</v>
+        <v>64.99082440556649</v>
       </c>
       <c r="I34" t="n">
-        <v>69.02074780733686</v>
+        <v>71.47275547041029</v>
       </c>
       <c r="J34" t="n">
-        <v>76.79278464246862</v>
+        <v>81.18253026785291</v>
       </c>
       <c r="K34" t="n">
-        <v>71.73627677972391</v>
+        <v>75.23040307533027</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="B35" t="n">
-        <v>19.02458563535912</v>
+        <v>18.76593406593406</v>
       </c>
       <c r="C35" t="n">
-        <v>16.59014287928129</v>
+        <v>15.11088069098111</v>
       </c>
       <c r="D35" t="n">
-        <v>22.3659768208209</v>
+        <v>21.79962611891012</v>
       </c>
       <c r="E35" t="n">
-        <v>22.46625180865582</v>
+        <v>22.6318472423184</v>
       </c>
       <c r="F35" t="n">
-        <v>15.4237464701077</v>
+        <v>16.43395376597943</v>
       </c>
       <c r="G35" t="n">
-        <v>72.51381215469613</v>
+        <v>72.35164835164835</v>
       </c>
       <c r="H35" t="n">
-        <v>64.99082440556649</v>
+        <v>66.40649257588534</v>
       </c>
       <c r="I35" t="n">
-        <v>71.47275547041029</v>
+        <v>72.78541489527923</v>
       </c>
       <c r="J35" t="n">
-        <v>81.18253026785291</v>
+        <v>78.60202811408726</v>
       </c>
       <c r="K35" t="n">
-        <v>75.23040307533027</v>
+        <v>74.8720695986449</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="B36" t="n">
-        <v>18.76593406593406</v>
+        <v>19.12005494505495</v>
       </c>
       <c r="C36" t="n">
-        <v>15.11088069098111</v>
+        <v>15.9745653410109</v>
       </c>
       <c r="D36" t="n">
-        <v>21.79962611891012</v>
+        <v>22.3054903969111</v>
       </c>
       <c r="E36" t="n">
-        <v>22.6318472423184</v>
+        <v>23.08606425541008</v>
       </c>
       <c r="F36" t="n">
-        <v>16.43395376597943</v>
+        <v>15.94928210615195</v>
       </c>
       <c r="G36" t="n">
-        <v>72.35164835164835</v>
+        <v>71.73901098901099</v>
       </c>
       <c r="H36" t="n">
-        <v>66.40649257588534</v>
+        <v>68.10451658417649</v>
       </c>
       <c r="I36" t="n">
-        <v>72.78541489527923</v>
+        <v>70.28335620764044</v>
       </c>
       <c r="J36" t="n">
-        <v>78.60202811408726</v>
+        <v>76.28134096828667</v>
       </c>
       <c r="K36" t="n">
-        <v>74.8720695986449</v>
+        <v>75.42252249563744</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B37" t="n">
-        <v>19.12005494505495</v>
+        <v>19.28983516483517</v>
       </c>
       <c r="C37" t="n">
-        <v>15.9745653410109</v>
+        <v>15.99082850378901</v>
       </c>
       <c r="D37" t="n">
-        <v>22.3054903969111</v>
+        <v>22.89896143293309</v>
       </c>
       <c r="E37" t="n">
-        <v>23.08606425541008</v>
+        <v>22.24006591581967</v>
       </c>
       <c r="F37" t="n">
-        <v>15.94928210615195</v>
+        <v>16.81043167149618</v>
       </c>
       <c r="G37" t="n">
-        <v>71.73901098901099</v>
+        <v>70.53021978021978</v>
       </c>
       <c r="H37" t="n">
-        <v>68.10451658417649</v>
+        <v>66.59005018426863</v>
       </c>
       <c r="I37" t="n">
-        <v>70.28335620764044</v>
+        <v>67.82728962865539</v>
       </c>
       <c r="J37" t="n">
-        <v>76.28134096828667</v>
+        <v>78.93784066269878</v>
       </c>
       <c r="K37" t="n">
-        <v>75.42252249563744</v>
+        <v>71.81782991753447</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B38" t="n">
-        <v>19.28983516483517</v>
+        <v>19.55439560439561</v>
       </c>
       <c r="C38" t="n">
-        <v>15.99082850378901</v>
+        <v>15.63697560116617</v>
       </c>
       <c r="D38" t="n">
-        <v>22.89896143293309</v>
+        <v>23.38350507069158</v>
       </c>
       <c r="E38" t="n">
-        <v>22.24006591581967</v>
+        <v>23.24282680343283</v>
       </c>
       <c r="F38" t="n">
-        <v>16.81043167149618</v>
+        <v>16.715330779038</v>
       </c>
       <c r="G38" t="n">
-        <v>70.53021978021978</v>
+        <v>69.74450549450549</v>
       </c>
       <c r="H38" t="n">
-        <v>66.59005018426863</v>
+        <v>66.25382078858729</v>
       </c>
       <c r="I38" t="n">
-        <v>67.82728962865539</v>
+        <v>66.09700318273248</v>
       </c>
       <c r="J38" t="n">
-        <v>78.93784066269878</v>
+        <v>76.29280261589889</v>
       </c>
       <c r="K38" t="n">
-        <v>71.81782991753447</v>
+        <v>73.28062858606016</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B39" t="n">
-        <v>19.55439560439561</v>
+        <v>19.04835164835165</v>
       </c>
       <c r="C39" t="n">
-        <v>15.63697560116617</v>
+        <v>15.58243792810299</v>
       </c>
       <c r="D39" t="n">
-        <v>23.38350507069158</v>
+        <v>22.1382802755021</v>
       </c>
       <c r="E39" t="n">
-        <v>23.24282680343283</v>
+        <v>23.08850898699383</v>
       </c>
       <c r="F39" t="n">
-        <v>16.715330779038</v>
+        <v>16.16321011716346</v>
       </c>
       <c r="G39" t="n">
-        <v>69.74450549450549</v>
+        <v>68.65384615384616</v>
       </c>
       <c r="H39" t="n">
-        <v>66.25382078858729</v>
+        <v>66.76689686279312</v>
       </c>
       <c r="I39" t="n">
-        <v>66.09700318273248</v>
+        <v>68.62743959541464</v>
       </c>
       <c r="J39" t="n">
-        <v>76.29280261589889</v>
+        <v>73.5575304632163</v>
       </c>
       <c r="K39" t="n">
-        <v>73.28062858606016</v>
+        <v>68.66609378897893</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B40" t="n">
-        <v>19.04835164835165</v>
+        <v>19.66198347107438</v>
       </c>
       <c r="C40" t="n">
-        <v>15.58243792810299</v>
+        <v>15.83758264364558</v>
       </c>
       <c r="D40" t="n">
-        <v>22.1382802755021</v>
+        <v>23.84042533639448</v>
       </c>
       <c r="E40" t="n">
-        <v>23.08850898699383</v>
+        <v>23.31400553246733</v>
       </c>
       <c r="F40" t="n">
-        <v>16.16321011716346</v>
+        <v>16.46552978150729</v>
       </c>
       <c r="G40" t="n">
-        <v>68.65384615384616</v>
+        <v>64.4573002754821</v>
       </c>
       <c r="H40" t="n">
-        <v>66.76689686279312</v>
+        <v>60.9529655206977</v>
       </c>
       <c r="I40" t="n">
-        <v>68.62743959541464</v>
+        <v>58.9403048843935</v>
       </c>
       <c r="J40" t="n">
-        <v>73.5575304632163</v>
+        <v>69.516929678948</v>
       </c>
       <c r="K40" t="n">
-        <v>68.66609378897893</v>
+        <v>71.31501201965911</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B41" t="n">
-        <v>19.66198347107438</v>
+        <v>19.82739726027397</v>
       </c>
       <c r="C41" t="n">
-        <v>15.83758264364558</v>
+        <v>16.64708425159607</v>
       </c>
       <c r="D41" t="n">
-        <v>23.84042533639448</v>
+        <v>23.05868599270763</v>
       </c>
       <c r="E41" t="n">
-        <v>23.31400553246733</v>
+        <v>23.04145658187465</v>
       </c>
       <c r="F41" t="n">
-        <v>16.46552978150729</v>
+        <v>17.39201662805986</v>
       </c>
       <c r="G41" t="n">
-        <v>64.4573002754821</v>
+        <v>68.13698630136986</v>
       </c>
       <c r="H41" t="n">
-        <v>60.9529655206977</v>
+        <v>65.66614406134109</v>
       </c>
       <c r="I41" t="n">
-        <v>58.9403048843935</v>
+        <v>64.32901433938893</v>
       </c>
       <c r="J41" t="n">
-        <v>69.516929678948</v>
+        <v>73.25561880085813</v>
       </c>
       <c r="K41" t="n">
-        <v>71.31501201965911</v>
+        <v>72.03603273934412</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B42" t="n">
-        <v>19.82739726027397</v>
+        <v>19.22602739726028</v>
       </c>
       <c r="C42" t="n">
-        <v>16.64708425159607</v>
+        <v>15.87607871390662</v>
       </c>
       <c r="D42" t="n">
-        <v>23.05868599270763</v>
+        <v>22.17427127464514</v>
       </c>
       <c r="E42" t="n">
-        <v>23.04145658187465</v>
+        <v>22.8287114845856</v>
       </c>
       <c r="F42" t="n">
-        <v>17.39201662805986</v>
+        <v>16.85534800682674</v>
       </c>
       <c r="G42" t="n">
-        <v>68.13698630136986</v>
+        <v>70.8</v>
       </c>
       <c r="H42" t="n">
-        <v>65.66614406134109</v>
+        <v>65.49629048957046</v>
       </c>
       <c r="I42" t="n">
-        <v>64.32901433938893</v>
+        <v>68.35526389383944</v>
       </c>
       <c r="J42" t="n">
-        <v>73.25561880085813</v>
+        <v>78.66582194348759</v>
       </c>
       <c r="K42" t="n">
-        <v>72.03603273934412</v>
+        <v>73.53300035586244</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B43" t="n">
-        <v>19.22602739726028</v>
+        <v>18.98005464480875</v>
       </c>
       <c r="C43" t="n">
-        <v>15.87607871390662</v>
+        <v>13.82501185399897</v>
       </c>
       <c r="D43" t="n">
-        <v>22.17427127464514</v>
+        <v>22.77883814587522</v>
       </c>
       <c r="E43" t="n">
-        <v>22.8287114845856</v>
+        <v>23.26770338570201</v>
       </c>
       <c r="F43" t="n">
-        <v>16.85534800682674</v>
+        <v>16.87886247833508</v>
       </c>
       <c r="G43" t="n">
-        <v>70.8</v>
+        <v>70.10109289617486</v>
       </c>
       <c r="H43" t="n">
-        <v>65.49629048957046</v>
+        <v>70.02743176362166</v>
       </c>
       <c r="I43" t="n">
-        <v>68.35526389383944</v>
+        <v>68.19071718564659</v>
       </c>
       <c r="J43" t="n">
-        <v>78.66582194348759</v>
+        <v>74.78984589069009</v>
       </c>
       <c r="K43" t="n">
-        <v>73.53300035586244</v>
+        <v>70.48405435169416</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B44" t="n">
-        <v>18.98005464480875</v>
+        <v>20.04917582417582</v>
       </c>
       <c r="C44" t="n">
-        <v>13.82501185399897</v>
+        <v>16.97138902059999</v>
       </c>
       <c r="D44" t="n">
-        <v>22.77883814587522</v>
+        <v>22.74592129830633</v>
       </c>
       <c r="E44" t="n">
-        <v>23.26770338570201</v>
+        <v>23.95129344379892</v>
       </c>
       <c r="F44" t="n">
-        <v>16.87886247833508</v>
+        <v>17.36716154867755</v>
       </c>
       <c r="G44" t="n">
-        <v>70.10109289617486</v>
+        <v>64.67307692307692</v>
       </c>
       <c r="H44" t="n">
-        <v>70.02743176362166</v>
+        <v>59.45586035292912</v>
       </c>
       <c r="I44" t="n">
-        <v>68.19071718564659</v>
+        <v>66.82627161742468</v>
       </c>
       <c r="J44" t="n">
-        <v>74.78984589069009</v>
+        <v>70.58010819660099</v>
       </c>
       <c r="K44" t="n">
-        <v>70.48405435169416</v>
+        <v>64.88569624295319</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B45" t="n">
-        <v>20.04917582417582</v>
+        <v>20.48219178082194</v>
       </c>
       <c r="C45" t="n">
-        <v>16.97138902059999</v>
+        <v>17.81412654467333</v>
       </c>
       <c r="D45" t="n">
-        <v>22.74592129830633</v>
+        <v>24.13347166261875</v>
       </c>
       <c r="E45" t="n">
-        <v>23.95129344379892</v>
+        <v>24.00164449395433</v>
       </c>
       <c r="F45" t="n">
-        <v>17.36716154867755</v>
+        <v>16.84203436465953</v>
       </c>
       <c r="G45" t="n">
-        <v>64.67307692307692</v>
+        <v>61.06027397260274</v>
       </c>
       <c r="H45" t="n">
-        <v>59.45586035292912</v>
+        <v>51.32728733725477</v>
       </c>
       <c r="I45" t="n">
-        <v>66.82627161742468</v>
+        <v>59.61347551227939</v>
       </c>
       <c r="J45" t="n">
-        <v>70.58010819660099</v>
+        <v>68.06065334996306</v>
       </c>
       <c r="K45" t="n">
-        <v>64.88569624295319</v>
+        <v>67.8574532200321</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B46" t="n">
-        <v>20.48219178082194</v>
+        <v>18.70328767123289</v>
       </c>
       <c r="C46" t="n">
-        <v>17.81412654467333</v>
+        <v>13.67904585049637</v>
       </c>
       <c r="D46" t="n">
-        <v>24.13347166261875</v>
+        <v>22.41575243585295</v>
       </c>
       <c r="E46" t="n">
-        <v>24.00164449395433</v>
+        <v>23.61523526623864</v>
       </c>
       <c r="F46" t="n">
-        <v>16.84203436465953</v>
+        <v>15.93415254744195</v>
       </c>
       <c r="G46" t="n">
-        <v>61.06027397260274</v>
+        <v>67.93698630136986</v>
       </c>
       <c r="H46" t="n">
-        <v>51.32728733725477</v>
+        <v>65.9036365259695</v>
       </c>
       <c r="I46" t="n">
-        <v>59.61347551227939</v>
+        <v>65.33641181881626</v>
       </c>
       <c r="J46" t="n">
-        <v>68.06065334996306</v>
+        <v>70.50065927554307</v>
       </c>
       <c r="K46" t="n">
-        <v>67.8574532200321</v>
+        <v>72.61801579586991</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B47" t="n">
-        <v>18.70328767123289</v>
+        <v>20.32049180327868</v>
       </c>
       <c r="C47" t="n">
-        <v>13.67904585049637</v>
+        <v>16.42834116319226</v>
       </c>
       <c r="D47" t="n">
-        <v>22.41575243585295</v>
+        <v>24.14412914764672</v>
       </c>
       <c r="E47" t="n">
-        <v>23.61523526623864</v>
+        <v>23.19907864419824</v>
       </c>
       <c r="F47" t="n">
-        <v>15.93415254744195</v>
+        <v>18.3318929624722</v>
       </c>
       <c r="G47" t="n">
-        <v>67.93698630136986</v>
+        <v>64.40983606557377</v>
       </c>
       <c r="H47" t="n">
-        <v>65.9036365259695</v>
+        <v>60.40553446731834</v>
       </c>
       <c r="I47" t="n">
-        <v>65.33641181881626</v>
+        <v>60.90479573427271</v>
       </c>
       <c r="J47" t="n">
-        <v>70.50065927554307</v>
+        <v>72.24457238342983</v>
       </c>
       <c r="K47" t="n">
-        <v>72.61801579586991</v>
+        <v>66.98497843256381</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B48" t="n">
-        <v>20.32049180327868</v>
+        <v>19.57774725274727</v>
       </c>
       <c r="C48" t="n">
-        <v>16.42834116319226</v>
+        <v>17.23142601292435</v>
       </c>
       <c r="D48" t="n">
-        <v>24.14412914764672</v>
+        <v>23.34773768294118</v>
       </c>
       <c r="E48" t="n">
-        <v>23.19907864419824</v>
+        <v>23.16262723784833</v>
       </c>
       <c r="F48" t="n">
-        <v>18.3318929624722</v>
+        <v>15.49056405393991</v>
       </c>
       <c r="G48" t="n">
-        <v>64.40983606557377</v>
+        <v>65.80769230769231</v>
       </c>
       <c r="H48" t="n">
-        <v>60.40553446731834</v>
+        <v>62.81561704963686</v>
       </c>
       <c r="I48" t="n">
-        <v>60.90479573427271</v>
+        <v>61.0758768762008</v>
       </c>
       <c r="J48" t="n">
-        <v>72.24457238342983</v>
+        <v>71.09059969652121</v>
       </c>
       <c r="K48" t="n">
-        <v>66.98497843256381</v>
+        <v>71.02157585252786</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B49" t="n">
-        <v>19.57774725274727</v>
+        <v>20.05714285714287</v>
       </c>
       <c r="C49" t="n">
-        <v>17.23142601292435</v>
+        <v>16.08146028903249</v>
       </c>
       <c r="D49" t="n">
-        <v>23.34773768294118</v>
+        <v>24.48074437014223</v>
       </c>
       <c r="E49" t="n">
-        <v>23.16262723784833</v>
+        <v>23.75176768736792</v>
       </c>
       <c r="F49" t="n">
-        <v>15.49056405393991</v>
+        <v>16.70099520938395</v>
       </c>
       <c r="G49" t="n">
-        <v>65.80769230769231</v>
+        <v>64.47527472527473</v>
       </c>
       <c r="H49" t="n">
-        <v>62.81561704963686</v>
+        <v>60.06461796721818</v>
       </c>
       <c r="I49" t="n">
-        <v>61.0758768762008</v>
+        <v>60.78105359204616</v>
       </c>
       <c r="J49" t="n">
-        <v>71.09059969652121</v>
+        <v>70.6422891271361</v>
       </c>
       <c r="K49" t="n">
-        <v>71.02157585252786</v>
+        <v>69.22001731706075</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B50" t="n">
-        <v>20.05714285714287</v>
+        <v>20.28259668508287</v>
       </c>
       <c r="C50" t="n">
-        <v>16.08146028903249</v>
+        <v>16.44534955876703</v>
       </c>
       <c r="D50" t="n">
-        <v>24.48074437014223</v>
+        <v>24.34594224582574</v>
       </c>
       <c r="E50" t="n">
-        <v>23.75176768736792</v>
+        <v>23.71904095312357</v>
       </c>
       <c r="F50" t="n">
-        <v>16.70099520938395</v>
+        <v>17.36630331695936</v>
       </c>
       <c r="G50" t="n">
-        <v>64.47527472527473</v>
+        <v>65.7707182320442</v>
       </c>
       <c r="H50" t="n">
-        <v>60.06461796721818</v>
+        <v>60.02294019963576</v>
       </c>
       <c r="I50" t="n">
-        <v>60.78105359204616</v>
+        <v>57.71187970980271</v>
       </c>
       <c r="J50" t="n">
-        <v>70.6422891271361</v>
+        <v>72.76785096877322</v>
       </c>
       <c r="K50" t="n">
-        <v>69.22001731706075</v>
+        <v>75.51932603727035</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B51" t="n">
-        <v>20.28259668508287</v>
+        <v>19.39779005524861</v>
       </c>
       <c r="C51" t="n">
-        <v>16.44534955876703</v>
+        <v>14.3576412039425</v>
       </c>
       <c r="D51" t="n">
-        <v>24.34594224582574</v>
+        <v>23.28402134336072</v>
       </c>
       <c r="E51" t="n">
-        <v>23.71904095312357</v>
+        <v>23.20020924124312</v>
       </c>
       <c r="F51" t="n">
-        <v>17.36630331695936</v>
+        <v>17.60973374513436</v>
       </c>
       <c r="G51" t="n">
-        <v>65.7707182320442</v>
+        <v>71.5939226519337</v>
       </c>
       <c r="H51" t="n">
-        <v>60.02294019963576</v>
+        <v>66.78047187032567</v>
       </c>
       <c r="I51" t="n">
-        <v>57.71187970980271</v>
+        <v>67.44738329351432</v>
       </c>
       <c r="J51" t="n">
-        <v>72.76785096877322</v>
+        <v>78.14030605460191</v>
       </c>
       <c r="K51" t="n">
-        <v>75.51932603727035</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>2016</v>
-      </c>
-      <c r="B52" t="n">
-        <v>19.39779005524861</v>
-      </c>
-      <c r="C52" t="n">
-        <v>14.3576412039425</v>
-      </c>
-      <c r="D52" t="n">
-        <v>23.28402134336072</v>
-      </c>
-      <c r="E52" t="n">
-        <v>23.20020924124312</v>
-      </c>
-      <c r="F52" t="n">
-        <v>17.60973374513436</v>
-      </c>
-      <c r="G52" t="n">
-        <v>71.5939226519337</v>
-      </c>
-      <c r="H52" t="n">
-        <v>66.78047187032567</v>
-      </c>
-      <c r="I52" t="n">
-        <v>67.44738329351432</v>
-      </c>
-      <c r="J52" t="n">
-        <v>78.14030605460191</v>
-      </c>
-      <c r="K52" t="n">
         <v>77.050778944239</v>
       </c>
     </row>

--- a/my_work/data1/YearMeanER56985_蒙自.xlsx
+++ b/my_work/data1/YearMeanER56985_蒙自.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:R51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,41 @@
           <t>s4_RH</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ETOmean</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>s1_ET0</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>s2_ET0</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>s3_ET0</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>s4_ET0</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>ET0_PMT_G</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>ET0_ET0_PMT_CF</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -510,19 +545,40 @@
         <v>14.97500000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>72.01917808219179</v>
+        <v>0.1973128166635391</v>
       </c>
       <c r="H2" t="n">
-        <v>68.13333333333334</v>
+        <v>0.7570370370370371</v>
       </c>
       <c r="I2" t="n">
-        <v>65.47252747252747</v>
+        <v>0.7194783238739283</v>
       </c>
       <c r="J2" t="n">
-        <v>78.58695652173913</v>
+        <v>0.8542060491493383</v>
       </c>
       <c r="K2" t="n">
-        <v>75.72826086956522</v>
+        <v>0.8231332703213611</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3.654694580962424</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.7570370370370371</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.7194783238739283</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.8542060491493383</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.8231332703213611</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1027.48241574349</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1025.37992282246</v>
       </c>
     </row>
     <row r="3">
@@ -545,19 +601,40 @@
         <v>16.94972826086957</v>
       </c>
       <c r="G3" t="n">
-        <v>73.71270718232044</v>
+        <v>0.2036262629345869</v>
       </c>
       <c r="H3" t="n">
-        <v>71.07049808429119</v>
+        <v>0.8080006654824992</v>
       </c>
       <c r="I3" t="n">
-        <v>71.60958821398383</v>
+        <v>0.7790990796188714</v>
       </c>
       <c r="J3" t="n">
-        <v>81.37594517958412</v>
+        <v>0.8753372171608164</v>
       </c>
       <c r="K3" t="n">
-        <v>73.75791587901701</v>
+        <v>0.7928666272767393</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3.548990492330122</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.8080006654824992</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.7790990796188714</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.8753372171608164</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.7928666272767393</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1004.255765179181</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1000.317423853321</v>
       </c>
     </row>
     <row r="4">
@@ -580,19 +657,40 @@
         <v>15.47227965500945</v>
       </c>
       <c r="G4" t="n">
-        <v>67.76164383561644</v>
+        <v>0.1856483392756615</v>
       </c>
       <c r="H4" t="n">
-        <v>57.83411664538101</v>
+        <v>0.6339269136624053</v>
       </c>
       <c r="I4" t="n">
-        <v>63.18252294740641</v>
+        <v>0.685760065098372</v>
       </c>
       <c r="J4" t="n">
-        <v>80.16712983890852</v>
+        <v>0.8618709046806664</v>
       </c>
       <c r="K4" t="n">
-        <v>72.83432517259801</v>
+        <v>0.7830568131648484</v>
+      </c>
+      <c r="L4" t="n">
+        <v>4.127377252933094</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.6339269136624053</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.685760065098372</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.8618709046806664</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.7830568131648484</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1114.223495189454</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1115.324103709487</v>
       </c>
     </row>
     <row r="5">
@@ -615,19 +713,40 @@
         <v>15.53882912668489</v>
       </c>
       <c r="G5" t="n">
-        <v>72.72876712328767</v>
+        <v>0.1992568962281854</v>
       </c>
       <c r="H5" t="n">
-        <v>63.70926796272646</v>
+        <v>0.7008190033226743</v>
       </c>
       <c r="I5" t="n">
-        <v>73.13387387854293</v>
+        <v>0.796121936971996</v>
       </c>
       <c r="J5" t="n">
-        <v>81.24094706346639</v>
+        <v>0.873684058471725</v>
       </c>
       <c r="K5" t="n">
-        <v>75.61776440404998</v>
+        <v>0.8134195483002322</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3.597478249036677</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.7008190033226743</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.796121936971996</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.873684058471725</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.8134195483002322</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1000.34661550578</v>
+      </c>
+      <c r="R5" t="n">
+        <v>997.2747817232952</v>
       </c>
     </row>
     <row r="6">
@@ -650,19 +769,40 @@
         <v>14.46998727311614</v>
       </c>
       <c r="G6" t="n">
-        <v>72.68681318681318</v>
+        <v>0.1996890472165197</v>
       </c>
       <c r="H6" t="n">
-        <v>67.85232519958585</v>
+        <v>0.7461359035806571</v>
       </c>
       <c r="I6" t="n">
-        <v>71.34593193198381</v>
+        <v>0.7838019903625891</v>
       </c>
       <c r="J6" t="n">
-        <v>81.70914072895073</v>
+        <v>0.8786476469823336</v>
       </c>
       <c r="K6" t="n">
-        <v>72.89801917830489</v>
+        <v>0.783531831232077</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3.604763316907973</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.7461359035806571</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.7838019903625891</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.8786476469823336</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.783531831232077</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>991.1136210434356</v>
+      </c>
+      <c r="R6" t="n">
+        <v>988.0656974928227</v>
       </c>
     </row>
     <row r="7">
@@ -685,19 +825,40 @@
         <v>16.21923899209909</v>
       </c>
       <c r="G7" t="n">
-        <v>73.46448087431693</v>
+        <v>0.2007226253396638</v>
       </c>
       <c r="H7" t="n">
-        <v>67.96541016702841</v>
+        <v>0.7387690056639996</v>
       </c>
       <c r="I7" t="n">
-        <v>67.46533991134048</v>
+        <v>0.7328563943956482</v>
       </c>
       <c r="J7" t="n">
-        <v>83.1816210948799</v>
+        <v>0.8945981388996908</v>
       </c>
       <c r="K7" t="n">
-        <v>78.314108904112</v>
+        <v>0.842720171530155</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3.862197039182041</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.7387690056639996</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.7328563943956482</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.8945981388996908</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.842720171530155</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1021.243012087782</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1018.02183067478</v>
       </c>
     </row>
     <row r="8">
@@ -720,19 +881,40 @@
         <v>14.79151346730542</v>
       </c>
       <c r="G8" t="n">
-        <v>72.66575342465754</v>
+        <v>0.1990842559579659</v>
       </c>
       <c r="H8" t="n">
-        <v>66.63294900185588</v>
+        <v>0.7320665146920572</v>
       </c>
       <c r="I8" t="n">
-        <v>69.59852021880594</v>
+        <v>0.7567603980671895</v>
       </c>
       <c r="J8" t="n">
-        <v>82.18675675103131</v>
+        <v>0.8836123107441989</v>
       </c>
       <c r="K8" t="n">
-        <v>75.30776205330557</v>
+        <v>0.8094095841412489</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3.756031259971361</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.7320665146920572</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.7567603980671895</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.8836123107441989</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.8094095841412489</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1029.435241943278</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1026.312011713595</v>
       </c>
     </row>
     <row r="9">
@@ -755,19 +937,40 @@
         <v>16.28469036377506</v>
       </c>
       <c r="G9" t="n">
-        <v>72.38356164383562</v>
+        <v>0.1983111277913305</v>
       </c>
       <c r="H9" t="n">
-        <v>64.16258832224284</v>
+        <v>0.7047817366067523</v>
       </c>
       <c r="I9" t="n">
-        <v>70.92965406833852</v>
+        <v>0.7711335298150063</v>
       </c>
       <c r="J9" t="n">
-        <v>82.50202996468512</v>
+        <v>0.8871554362370917</v>
       </c>
       <c r="K9" t="n">
-        <v>74.9381278484055</v>
+        <v>0.805743077691888</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3.748373302594482</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.7047817366067523</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.7711335298150063</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.8871554362370917</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.805743077691888</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1001.142946015995</v>
+      </c>
+      <c r="R9" t="n">
+        <v>997.7467790166232</v>
       </c>
     </row>
     <row r="10">
@@ -790,19 +993,40 @@
         <v>14.43026837351929</v>
       </c>
       <c r="G10" t="n">
-        <v>72.01917808219179</v>
+        <v>0.1973128166635391</v>
       </c>
       <c r="H10" t="n">
-        <v>66.09069542580269</v>
+        <v>0.7265067631773588</v>
       </c>
       <c r="I10" t="n">
-        <v>71.02120498976197</v>
+        <v>0.7719805740284766</v>
       </c>
       <c r="J10" t="n">
-        <v>80.44023945613787</v>
+        <v>0.8647078397254534</v>
       </c>
       <c r="K10" t="n">
-        <v>73.56454486791745</v>
+        <v>0.7908560660536025</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3.808517346374455</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.7265067631773588</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.7719805740284766</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.8647078397254534</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.7908560660536025</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1037.263881601827</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1034.396238334376</v>
       </c>
     </row>
     <row r="11">
@@ -825,19 +1049,40 @@
         <v>15.10724446406344</v>
       </c>
       <c r="G11" t="n">
-        <v>71.87575757575758</v>
+        <v>0.2178053259871442</v>
       </c>
       <c r="H11" t="n">
-        <v>67.18780983984398</v>
+        <v>0.7304343082675012</v>
       </c>
       <c r="I11" t="n">
-        <v>71.48912449988624</v>
+        <v>0.7856508617992628</v>
       </c>
       <c r="J11" t="n">
-        <v>80.36193934606675</v>
+        <v>1.275459081123758</v>
       </c>
       <c r="K11" t="n">
-        <v>74.47775338928641</v>
+        <v>0.8464514276742044</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3.559699764529989</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.7304343082675012</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.7856508617992628</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.275459081123758</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.8464514276742044</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>896.0407765891166</v>
+      </c>
+      <c r="R11" t="n">
+        <v>893.8928241836178</v>
       </c>
     </row>
     <row r="12">
@@ -860,19 +1105,40 @@
         <v>15.42181787460938</v>
       </c>
       <c r="G12" t="n">
-        <v>72.48863636363636</v>
+        <v>0.2059336260330578</v>
       </c>
       <c r="H12" t="n">
-        <v>68.49594558233564</v>
+        <v>0.8783488673146005</v>
       </c>
       <c r="I12" t="n">
-        <v>66.52185851098776</v>
+        <v>0.7224713984859072</v>
       </c>
       <c r="J12" t="n">
-        <v>80.62349934071811</v>
+        <v>0.866998518322439</v>
       </c>
       <c r="K12" t="n">
-        <v>76.78780166727485</v>
+        <v>0.8259506677017575</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3.469276112570418</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.8783488673146005</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.7224713984859072</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.866998518322439</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.8259506677017575</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>993.2435542353322</v>
+      </c>
+      <c r="R12" t="n">
+        <v>990.7467731828557</v>
       </c>
     </row>
     <row r="13">
@@ -895,19 +1161,40 @@
         <v>15.93828062907184</v>
       </c>
       <c r="G13" t="n">
-        <v>72.05205479452054</v>
+        <v>0.1974028898480015</v>
       </c>
       <c r="H13" t="n">
-        <v>64.99439939535928</v>
+        <v>0.7138121418354709</v>
       </c>
       <c r="I13" t="n">
-        <v>72.58815229132954</v>
+        <v>0.7897261769591217</v>
       </c>
       <c r="J13" t="n">
-        <v>80.57199455805129</v>
+        <v>0.8663595225092536</v>
       </c>
       <c r="K13" t="n">
-        <v>73.08465001812256</v>
+        <v>0.7854236709200972</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3.522525527715015</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.7138121418354709</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.7897261769591217</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.8663595225092536</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.7854236709200972</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1048.209401293832</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1045.584998883396</v>
       </c>
     </row>
     <row r="14">
@@ -930,19 +1217,40 @@
         <v>14.68085087640296</v>
       </c>
       <c r="G14" t="n">
-        <v>69.11232876712329</v>
+        <v>0.1893488459373241</v>
       </c>
       <c r="H14" t="n">
-        <v>59.1554933266151</v>
+        <v>0.6493473842150415</v>
       </c>
       <c r="I14" t="n">
-        <v>69.16030936583878</v>
+        <v>0.7513331392557613</v>
       </c>
       <c r="J14" t="n">
-        <v>81.18013037563099</v>
+        <v>0.8729757041023759</v>
       </c>
       <c r="K14" t="n">
-        <v>69.90309402193611</v>
+        <v>0.7512742702824811</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3.887584891908133</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.6493473842150415</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.7513331392557613</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.8729757041023759</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.7512742702824811</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1080.541362248624</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1080.130696723059</v>
       </c>
     </row>
     <row r="15">
@@ -965,19 +1273,40 @@
         <v>16.44761794430872</v>
       </c>
       <c r="G15" t="n">
-        <v>68.0934065934066</v>
+        <v>0.1870697983335346</v>
       </c>
       <c r="H15" t="n">
-        <v>61.48522520139137</v>
+        <v>0.6685967090187435</v>
       </c>
       <c r="I15" t="n">
-        <v>62.97978361940482</v>
+        <v>0.6838245783286144</v>
       </c>
       <c r="J15" t="n">
-        <v>77.42422367084035</v>
+        <v>0.850354688358531</v>
       </c>
       <c r="K15" t="n">
-        <v>73.596772761108</v>
+        <v>0.7917948102871316</v>
+      </c>
+      <c r="L15" t="n">
+        <v>4.014663706649062</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.6685967090187435</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.6838245783286144</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.850354688358531</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.7917948102871316</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1107.505329880418</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1108.658163647647</v>
       </c>
     </row>
     <row r="16">
@@ -1000,19 +1329,40 @@
         <v>15.33638715156857</v>
       </c>
       <c r="G16" t="n">
-        <v>72.56473829201101</v>
+        <v>0.1999028603085703</v>
       </c>
       <c r="H16" t="n">
-        <v>64.46094694668213</v>
+        <v>0.7087245181122246</v>
       </c>
       <c r="I16" t="n">
-        <v>70.74421981799338</v>
+        <v>0.7783560277257197</v>
       </c>
       <c r="J16" t="n">
-        <v>79.05960685352572</v>
+        <v>0.8595399534703971</v>
       </c>
       <c r="K16" t="n">
-        <v>78.84344318218595</v>
+        <v>0.8483922252847694</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3.608324825758146</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.7087245181122246</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.7783560277257197</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.8595399534703971</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.8483922252847694</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1039.972770510666</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1037.126039076534</v>
       </c>
     </row>
     <row r="17">
@@ -1035,19 +1385,40 @@
         <v>15.23735203425618</v>
       </c>
       <c r="G17" t="n">
-        <v>72.49175824175825</v>
+        <v>0.1991531819828523</v>
       </c>
       <c r="H17" t="n">
-        <v>65.38289941051869</v>
+        <v>0.7186060153726064</v>
       </c>
       <c r="I17" t="n">
-        <v>68.51367274525268</v>
+        <v>0.7444485395517119</v>
       </c>
       <c r="J17" t="n">
-        <v>80.79186381157722</v>
+        <v>0.8783793672205616</v>
       </c>
       <c r="K17" t="n">
-        <v>78.35699394763246</v>
+        <v>0.8424915397241594</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3.780050598081172</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.7186060153726064</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.7444485395517119</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.8783793672205616</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.8424915397241594</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1029.008648915895</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1026.491494897484</v>
       </c>
     </row>
     <row r="18">
@@ -1070,19 +1441,40 @@
         <v>14.78844947863322</v>
       </c>
       <c r="G18" t="n">
-        <v>70.73972602739725</v>
+        <v>0.1938074685682117</v>
       </c>
       <c r="H18" t="n">
-        <v>69.93758777122798</v>
+        <v>0.7691010624710336</v>
       </c>
       <c r="I18" t="n">
-        <v>60.53311728291487</v>
+        <v>0.6570153904769415</v>
       </c>
       <c r="J18" t="n">
-        <v>77.2912159109954</v>
+        <v>0.8306803378269401</v>
       </c>
       <c r="K18" t="n">
-        <v>78.25388036899601</v>
+        <v>0.8414275155410827</v>
+      </c>
+      <c r="L18" t="n">
+        <v>3.797049270387936</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.7691010624710336</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.6570153904769415</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.8306803378269401</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.8414275155410827</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1042.743781937959</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1042.484750524811</v>
       </c>
     </row>
     <row r="19">
@@ -1105,19 +1497,40 @@
         <v>16.00965705955036</v>
       </c>
       <c r="G19" t="n">
-        <v>70.48907103825137</v>
+        <v>0.1925930902684464</v>
       </c>
       <c r="H19" t="n">
-        <v>63.75755590957394</v>
+        <v>0.6922798093300896</v>
       </c>
       <c r="I19" t="n">
-        <v>68.4234408492628</v>
+        <v>0.7446754033800842</v>
       </c>
       <c r="J19" t="n">
-        <v>79.78577408598908</v>
+        <v>0.858203057695868</v>
       </c>
       <c r="K19" t="n">
-        <v>73.00275956922822</v>
+        <v>0.7843621724380365</v>
+      </c>
+      <c r="L19" t="n">
+        <v>3.843917139882114</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.6922798093300896</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.7446754033800842</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.858203057695868</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.7843621724380365</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1056.422504003991</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1055.14411941422</v>
       </c>
     </row>
     <row r="20">
@@ -1140,19 +1553,40 @@
         <v>15.55771366369077</v>
       </c>
       <c r="G20" t="n">
-        <v>73.75342465753425</v>
+        <v>0.2020641771439295</v>
       </c>
       <c r="H20" t="n">
-        <v>67.88619506566194</v>
+        <v>0.746505219729547</v>
       </c>
       <c r="I20" t="n">
-        <v>72.18047737196993</v>
+        <v>0.7850192821402463</v>
       </c>
       <c r="J20" t="n">
-        <v>81.85636710963031</v>
+        <v>0.880418029661826</v>
       </c>
       <c r="K20" t="n">
-        <v>76.04350825618727</v>
+        <v>0.8180274529976888</v>
+      </c>
+      <c r="L20" t="n">
+        <v>3.5710708509371</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.746505219729547</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.7850192821402463</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.880418029661826</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.8180274529976888</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1014.454844748297</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1010.312229004871</v>
       </c>
     </row>
     <row r="21">
@@ -1175,19 +1609,40 @@
         <v>15.63579905124936</v>
       </c>
       <c r="G21" t="n">
-        <v>73.22252747252747</v>
+        <v>0.2011607897596909</v>
       </c>
       <c r="H21" t="n">
-        <v>60.83206883406291</v>
+        <v>0.667623025335769</v>
       </c>
       <c r="I21" t="n">
-        <v>74.22176348760406</v>
+        <v>0.807002175979005</v>
       </c>
       <c r="J21" t="n">
-        <v>82.25930833814816</v>
+        <v>0.8845558149846009</v>
       </c>
       <c r="K21" t="n">
-        <v>78.61586272808997</v>
+        <v>0.8548264735482427</v>
+      </c>
+      <c r="L21" t="n">
+        <v>3.500429938412323</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.667623025335769</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.807002175979005</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.8845558149846009</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.8548264735482427</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1007.344732699929</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1003.754916013865</v>
       </c>
     </row>
     <row r="22">
@@ -1210,19 +1665,40 @@
         <v>15.46017172881793</v>
       </c>
       <c r="G22" t="n">
-        <v>71.0958904109589</v>
+        <v>0.1947832613998874</v>
       </c>
       <c r="H22" t="n">
-        <v>64.38702298704514</v>
+        <v>0.7079836571636218</v>
       </c>
       <c r="I22" t="n">
-        <v>64.65078860975389</v>
+        <v>0.7015827801202729</v>
       </c>
       <c r="J22" t="n">
-        <v>80.06803596019726</v>
+        <v>0.8606905193543224</v>
       </c>
       <c r="K22" t="n">
-        <v>78.27843329052271</v>
+        <v>0.8416652677780657</v>
+      </c>
+      <c r="L22" t="n">
+        <v>3.608963895489522</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.7079836571636218</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.7015827801202729</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.8606905193543224</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.8416652677780657</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1076.926661408982</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1075.879477996992</v>
       </c>
     </row>
     <row r="23">
@@ -1245,19 +1721,40 @@
         <v>15.53652360574802</v>
       </c>
       <c r="G23" t="n">
-        <v>71.2568306010929</v>
+        <v>0.1946907939920571</v>
       </c>
       <c r="H23" t="n">
-        <v>64.5646925602972</v>
+        <v>0.701812339531115</v>
       </c>
       <c r="I23" t="n">
-        <v>67.39176690779949</v>
+        <v>0.7328464657384519</v>
       </c>
       <c r="J23" t="n">
-        <v>80.16378299956736</v>
+        <v>0.8619873216587138</v>
       </c>
       <c r="K23" t="n">
-        <v>75.91606992707091</v>
+        <v>0.8160257165959095</v>
+      </c>
+      <c r="L23" t="n">
+        <v>3.574969134672207</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.701812339531115</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.7328464657384519</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.8619873216587138</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.8160257165959095</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1034.338573341858</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1032.817315269519</v>
       </c>
     </row>
     <row r="24">
@@ -1280,19 +1777,40 @@
         <v>16.10365786527987</v>
       </c>
       <c r="G24" t="n">
-        <v>72.32692307692308</v>
+        <v>0.1987003381234151</v>
       </c>
       <c r="H24" t="n">
-        <v>71.40627436178109</v>
+        <v>0.7855187422641396</v>
       </c>
       <c r="I24" t="n">
-        <v>69.77353590008572</v>
+        <v>0.7586925306684867</v>
       </c>
       <c r="J24" t="n">
-        <v>78.38641519779743</v>
+        <v>0.8518128230070835</v>
       </c>
       <c r="K24" t="n">
-        <v>72.89039206442467</v>
+        <v>0.7834139916961952</v>
+      </c>
+      <c r="L24" t="n">
+        <v>3.480837931293005</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.7855187422641396</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.7586925306684867</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.8518128230070835</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.7834139916961952</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>987.8237048951941</v>
+      </c>
+      <c r="R24" t="n">
+        <v>984.7253850375336</v>
       </c>
     </row>
     <row r="25">
@@ -1315,19 +1833,40 @@
         <v>16.38093997601439</v>
       </c>
       <c r="G25" t="n">
-        <v>72.46348314606742</v>
+        <v>0.2035491099608635</v>
       </c>
       <c r="H25" t="n">
-        <v>68.09340304846424</v>
+        <v>0.7478747554002796</v>
       </c>
       <c r="I25" t="n">
-        <v>71.35027689294218</v>
+        <v>0.8298627948139334</v>
       </c>
       <c r="J25" t="n">
-        <v>78.10202625214997</v>
+        <v>0.839774552554703</v>
       </c>
       <c r="K25" t="n">
-        <v>75.40326283218454</v>
+        <v>0.8381244052508138</v>
+      </c>
+      <c r="L25" t="n">
+        <v>3.575319603770162</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.7478747554002796</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.8298627948139334</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.839774552554703</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.8381244052508138</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>994.971522622199</v>
+      </c>
+      <c r="R25" t="n">
+        <v>991.9614607095764</v>
       </c>
     </row>
     <row r="26">
@@ -1350,19 +1889,40 @@
         <v>15.63978822195572</v>
       </c>
       <c r="G26" t="n">
-        <v>72.89044943820225</v>
+        <v>0.2047484534780962</v>
       </c>
       <c r="H26" t="n">
-        <v>63.94424321645982</v>
+        <v>0.7179426491161416</v>
       </c>
       <c r="I26" t="n">
-        <v>69.74550872913419</v>
+        <v>0.7747544328739823</v>
       </c>
       <c r="J26" t="n">
-        <v>82.75395535114775</v>
+        <v>0.9200656198147398</v>
       </c>
       <c r="K26" t="n">
-        <v>78.24892514257984</v>
+        <v>0.8602269289389198</v>
+      </c>
+      <c r="L26" t="n">
+        <v>3.687412237153536</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.7179426491161416</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.7747544328739823</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.9200656198147398</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.8602269289389198</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>994.3917310283607</v>
+      </c>
+      <c r="R26" t="n">
+        <v>991.3834513198676</v>
       </c>
     </row>
     <row r="27">
@@ -1385,19 +1945,40 @@
         <v>14.64153574643533</v>
       </c>
       <c r="G27" t="n">
-        <v>70.05329153605015</v>
+        <v>0.2196027947838563</v>
       </c>
       <c r="H27" t="n">
-        <v>70.12026640897209</v>
+        <v>0.7629172735960774</v>
       </c>
       <c r="I27" t="n">
-        <v>65.14820358987366</v>
+        <v>0.7482118380790798</v>
       </c>
       <c r="J27" t="n">
-        <v>77.68365555236169</v>
+        <v>1.193828141020463</v>
       </c>
       <c r="K27" t="n">
-        <v>72.90062724541768</v>
+        <v>0.9219033903564988</v>
+      </c>
+      <c r="L27" t="n">
+        <v>3.835215274407409</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.7629172735960774</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.7482118380790798</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.193828141020463</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.9219033903564988</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>918.3082890149374</v>
+      </c>
+      <c r="R27" t="n">
+        <v>918.4928573739336</v>
       </c>
     </row>
     <row r="28">
@@ -1420,19 +2001,40 @@
         <v>15.23529815445433</v>
       </c>
       <c r="G28" t="n">
-        <v>71.41741741741741</v>
+        <v>0.2144667189712235</v>
       </c>
       <c r="H28" t="n">
-        <v>68.17873754948066</v>
+        <v>0.8519088154580349</v>
       </c>
       <c r="I28" t="n">
-        <v>67.42158276036881</v>
+        <v>0.8225496436272031</v>
       </c>
       <c r="J28" t="n">
-        <v>78.27004351848049</v>
+        <v>0.9209458373215731</v>
       </c>
       <c r="K28" t="n">
-        <v>74.67304075556649</v>
+        <v>0.8299358544868523</v>
+      </c>
+      <c r="L28" t="n">
+        <v>3.829185459299989</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.8519088154580349</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.8225496436272031</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.9209458373215731</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.8299358544868523</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>924.617876402936</v>
+      </c>
+      <c r="R28" t="n">
+        <v>922.6659390842547</v>
       </c>
     </row>
     <row r="29">
@@ -1455,19 +2057,40 @@
         <v>16.08335566084607</v>
       </c>
       <c r="G29" t="n">
-        <v>73.58035714285714</v>
+        <v>0.2189891581632653</v>
       </c>
       <c r="H29" t="n">
-        <v>64.84025321012811</v>
+        <v>0.8639247459487688</v>
       </c>
       <c r="I29" t="n">
-        <v>71.86023980844855</v>
+        <v>0.7902250061288428</v>
       </c>
       <c r="J29" t="n">
-        <v>83.02702432760096</v>
+        <v>0.9774547825733166</v>
       </c>
       <c r="K29" t="n">
-        <v>76.95083000858598</v>
+        <v>0.8649057251878211</v>
+      </c>
+      <c r="L29" t="n">
+        <v>3.705657336868283</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.8639247459487688</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.7902250061288428</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.9774547825733166</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.8649057251878211</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>923.2110809529785</v>
+      </c>
+      <c r="R29" t="n">
+        <v>919.6872299156089</v>
       </c>
     </row>
     <row r="30">
@@ -1490,19 +2113,40 @@
         <v>15.88516287391275</v>
       </c>
       <c r="G30" t="n">
-        <v>73.10850439882698</v>
+        <v>0.2143944410522785</v>
       </c>
       <c r="H30" t="n">
-        <v>70.10161210586354</v>
+        <v>0.7973132414778634</v>
       </c>
       <c r="I30" t="n">
-        <v>69.19604930009824</v>
+        <v>0.7949959741760585</v>
       </c>
       <c r="J30" t="n">
-        <v>81.37240725962327</v>
+        <v>0.9350970057845555</v>
       </c>
       <c r="K30" t="n">
-        <v>75.35305890254372</v>
+        <v>0.9076241680138589</v>
+      </c>
+      <c r="L30" t="n">
+        <v>3.518231450251413</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.7973132414778634</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.7949959741760585</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.9350970057845555</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.9076241680138589</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>941.838897486633</v>
+      </c>
+      <c r="R30" t="n">
+        <v>938.9044924848332</v>
       </c>
     </row>
     <row r="31">
@@ -1525,19 +2169,40 @@
         <v>16.11106924577429</v>
       </c>
       <c r="G31" t="n">
-        <v>72.76068376068376</v>
+        <v>0.2072953953295834</v>
       </c>
       <c r="H31" t="n">
-        <v>64.30001852995245</v>
+        <v>0.7299243378572438</v>
       </c>
       <c r="I31" t="n">
-        <v>71.70818881529529</v>
+        <v>0.8341584769514431</v>
       </c>
       <c r="J31" t="n">
-        <v>80.19302674732914</v>
+        <v>0.8811030983957757</v>
       </c>
       <c r="K31" t="n">
-        <v>77.84666358317465</v>
+        <v>0.8652831238692102</v>
+      </c>
+      <c r="L31" t="n">
+        <v>3.359071962278881</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.7299243378572438</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.8341584769514431</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.8811030983957757</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.8652831238692102</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>946.8859352411947</v>
+      </c>
+      <c r="R31" t="n">
+        <v>943.7201131157912</v>
       </c>
     </row>
     <row r="32">
@@ -1560,19 +2225,40 @@
         <v>17.1207724918019</v>
       </c>
       <c r="G32" t="n">
-        <v>73.38068181818181</v>
+        <v>0.2084678460743802</v>
       </c>
       <c r="H32" t="n">
-        <v>71.50348858755758</v>
+        <v>0.8228407144859191</v>
       </c>
       <c r="I32" t="n">
-        <v>66.88805046765415</v>
+        <v>0.7955921263575194</v>
       </c>
       <c r="J32" t="n">
-        <v>82.93618710711351</v>
+        <v>0.9018090934788546</v>
       </c>
       <c r="K32" t="n">
-        <v>74.73746373459973</v>
+        <v>0.8032685825997009</v>
+      </c>
+      <c r="L32" t="n">
+        <v>3.317042159190091</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.8228407144859191</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.7955921263575194</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.9018090934788546</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.8032685825997009</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>943.5154232385436</v>
+      </c>
+      <c r="R32" t="n">
+        <v>939.8911631535648</v>
       </c>
     </row>
     <row r="33">
@@ -1595,19 +2281,40 @@
         <v>16.9371823096935</v>
       </c>
       <c r="G33" t="n">
-        <v>68.67397260273972</v>
+        <v>0.1881478701444924</v>
       </c>
       <c r="H33" t="n">
-        <v>60.1833720954173</v>
+        <v>0.6599781284832699</v>
       </c>
       <c r="I33" t="n">
-        <v>69.02074780733686</v>
+        <v>0.750488539080589</v>
       </c>
       <c r="J33" t="n">
-        <v>76.79278464246862</v>
+        <v>0.8250120284845792</v>
       </c>
       <c r="K33" t="n">
-        <v>71.73627677972391</v>
+        <v>0.7710070024317817</v>
+      </c>
+      <c r="L33" t="n">
+        <v>3.581814844280192</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.6599781284832699</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.750488539080589</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.8250120284845792</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.7710070024317817</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1031.586859860266</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1030.864520885269</v>
       </c>
     </row>
     <row r="34">
@@ -1630,19 +2337,40 @@
         <v>15.4237464701077</v>
       </c>
       <c r="G34" t="n">
-        <v>72.51381215469613</v>
+        <v>0.2003143982173926</v>
       </c>
       <c r="H34" t="n">
-        <v>64.99082440556649</v>
+        <v>0.722719350855761</v>
       </c>
       <c r="I34" t="n">
-        <v>71.47275547041029</v>
+        <v>0.7771706905614154</v>
       </c>
       <c r="J34" t="n">
-        <v>81.18253026785291</v>
+        <v>0.8734434087935355</v>
       </c>
       <c r="K34" t="n">
-        <v>75.23040307533027</v>
+        <v>0.8271322230867199</v>
+      </c>
+      <c r="L34" t="n">
+        <v>3.480801830619317</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.722719350855761</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.7771706905614154</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.8734434087935355</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.8271322230867199</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>955.7811598785268</v>
+      </c>
+      <c r="R34" t="n">
+        <v>952.3288497852698</v>
       </c>
     </row>
     <row r="35">
@@ -1665,19 +2393,40 @@
         <v>16.43395376597943</v>
       </c>
       <c r="G35" t="n">
-        <v>72.35164835164835</v>
+        <v>0.1987682647023306</v>
       </c>
       <c r="H35" t="n">
-        <v>66.40649257588534</v>
+        <v>0.7219807655296288</v>
       </c>
       <c r="I35" t="n">
-        <v>72.78541489527923</v>
+        <v>0.7913026410687793</v>
       </c>
       <c r="J35" t="n">
-        <v>78.60202811408726</v>
+        <v>0.8634411658529375</v>
       </c>
       <c r="K35" t="n">
-        <v>74.8720695986449</v>
+        <v>0.8050362868883608</v>
+      </c>
+      <c r="L35" t="n">
+        <v>3.27724475135219</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.7219807655296288</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.7913026410687793</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.8634411658529375</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.8050362868883608</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>947.7711716837679</v>
+      </c>
+      <c r="R35" t="n">
+        <v>944.2042050929118</v>
       </c>
     </row>
     <row r="36">
@@ -1700,19 +2449,40 @@
         <v>15.94928210615195</v>
       </c>
       <c r="G36" t="n">
-        <v>71.73901098901099</v>
+        <v>0.1970851950247555</v>
       </c>
       <c r="H36" t="n">
-        <v>68.10451658417649</v>
+        <v>0.7486076519463617</v>
       </c>
       <c r="I36" t="n">
-        <v>70.28335620764044</v>
+        <v>0.7636506826036794</v>
       </c>
       <c r="J36" t="n">
-        <v>76.28134096828667</v>
+        <v>0.8288689096927729</v>
       </c>
       <c r="K36" t="n">
-        <v>75.42252249563744</v>
+        <v>0.8110591961586588</v>
+      </c>
+      <c r="L36" t="n">
+        <v>3.368235318180503</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.7486076519463617</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.7636506826036794</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.8288689096927729</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.8110591961586588</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>965.5471705207368</v>
+      </c>
+      <c r="R36" t="n">
+        <v>962.6077360672043</v>
       </c>
     </row>
     <row r="37">
@@ -1735,19 +2505,40 @@
         <v>16.81043167149618</v>
       </c>
       <c r="G37" t="n">
-        <v>70.53021978021978</v>
+        <v>0.1937643400555489</v>
       </c>
       <c r="H37" t="n">
-        <v>66.59005018426863</v>
+        <v>0.7315739021792526</v>
       </c>
       <c r="I37" t="n">
-        <v>67.82728962865539</v>
+        <v>0.7369597452822851</v>
       </c>
       <c r="J37" t="n">
-        <v>78.93784066269878</v>
+        <v>0.8491054901830922</v>
       </c>
       <c r="K37" t="n">
-        <v>71.81782991753447</v>
+        <v>0.7801969640376958</v>
+      </c>
+      <c r="L37" t="n">
+        <v>3.362819458551086</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.7315739021792526</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.7369597452822851</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.8491054901830922</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.7801969640376958</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>992.0869270163427</v>
+      </c>
+      <c r="R37" t="n">
+        <v>989.9983099037579</v>
       </c>
     </row>
     <row r="38">
@@ -1770,19 +2561,40 @@
         <v>16.715330779038</v>
       </c>
       <c r="G38" t="n">
-        <v>69.74450549450549</v>
+        <v>0.1916057843255645</v>
       </c>
       <c r="H38" t="n">
-        <v>66.25382078858729</v>
+        <v>0.7361105383035198</v>
       </c>
       <c r="I38" t="n">
-        <v>66.09700318273248</v>
+        <v>0.7182389759383265</v>
       </c>
       <c r="J38" t="n">
-        <v>76.29280261589889</v>
+        <v>0.8200436088717136</v>
       </c>
       <c r="K38" t="n">
-        <v>73.28062858606016</v>
+        <v>0.7881356565411197</v>
+      </c>
+      <c r="L38" t="n">
+        <v>3.686371053907839</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.7361105383035198</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.7182389759383265</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.8200436088717136</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.7881356565411197</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>962.8096282710786</v>
+      </c>
+      <c r="R38" t="n">
+        <v>961.0675469724915</v>
       </c>
     </row>
     <row r="39">
@@ -1805,19 +2617,40 @@
         <v>16.16321011716346</v>
       </c>
       <c r="G39" t="n">
-        <v>68.65384615384616</v>
+        <v>0.1886094674556213</v>
       </c>
       <c r="H39" t="n">
-        <v>66.76689686279312</v>
+        <v>0.7419184585959226</v>
       </c>
       <c r="I39" t="n">
-        <v>68.62743959541464</v>
+        <v>0.7462526553527278</v>
       </c>
       <c r="J39" t="n">
-        <v>73.5575304632163</v>
+        <v>0.7906214607288365</v>
       </c>
       <c r="K39" t="n">
-        <v>68.66609378897893</v>
+        <v>0.7378057816229372</v>
+      </c>
+      <c r="L39" t="n">
+        <v>3.545944282961679</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.7419184585959226</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.7462526553527278</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.7906214607288365</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.7378057816229372</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>973.39589723571</v>
+      </c>
+      <c r="R39" t="n">
+        <v>972.2612564157899</v>
       </c>
     </row>
     <row r="40">
@@ -1840,19 +2673,40 @@
         <v>16.46552978150729</v>
       </c>
       <c r="G40" t="n">
-        <v>64.4573002754821</v>
+        <v>0.1775683203181325</v>
       </c>
       <c r="H40" t="n">
-        <v>60.9529655206977</v>
+        <v>0.669103940550444</v>
       </c>
       <c r="I40" t="n">
-        <v>58.9403048843935</v>
+        <v>0.6465118830438707</v>
       </c>
       <c r="J40" t="n">
-        <v>69.516929678948</v>
+        <v>0.7470215762595379</v>
       </c>
       <c r="K40" t="n">
-        <v>71.31501201965911</v>
+        <v>0.77547854193716</v>
+      </c>
+      <c r="L40" t="n">
+        <v>3.923008357658576</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.669103940550444</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.6465118830438707</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.7470215762595379</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.77547854193716</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1008.831947621507</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1011.752420621771</v>
       </c>
     </row>
     <row r="41">
@@ -1875,19 +2729,40 @@
         <v>17.39201662805986</v>
       </c>
       <c r="G41" t="n">
-        <v>68.13698630136986</v>
+        <v>0.1866766747982736</v>
       </c>
       <c r="H41" t="n">
-        <v>65.66614406134109</v>
+        <v>0.722181370856858</v>
       </c>
       <c r="I41" t="n">
-        <v>64.32901433938893</v>
+        <v>0.6998727825000657</v>
       </c>
       <c r="J41" t="n">
-        <v>73.25561880085813</v>
+        <v>0.7881317369537169</v>
       </c>
       <c r="K41" t="n">
-        <v>72.03603273934412</v>
+        <v>0.7746662899978659</v>
+      </c>
+      <c r="L41" t="n">
+        <v>3.976880274417868</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.722181370856858</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.6998727825000657</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.7881317369537169</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.7746662899978659</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1015.65015018161</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1015.334960656824</v>
       </c>
     </row>
     <row r="42">
@@ -1910,19 +2785,40 @@
         <v>16.85534800682674</v>
       </c>
       <c r="G42" t="n">
-        <v>70.8</v>
+        <v>0.193972602739726</v>
       </c>
       <c r="H42" t="n">
-        <v>65.49629048957046</v>
+        <v>0.7197187878235626</v>
       </c>
       <c r="I42" t="n">
-        <v>68.35526389383944</v>
+        <v>0.7434729951434006</v>
       </c>
       <c r="J42" t="n">
-        <v>78.66582194348759</v>
+        <v>0.846501433333761</v>
       </c>
       <c r="K42" t="n">
-        <v>73.53300035586244</v>
+        <v>0.790852394410444</v>
+      </c>
+      <c r="L42" t="n">
+        <v>3.154546908184024</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.7197187878235626</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.7434729951434006</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.846501433333761</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.790852394410444</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>964.08214471977</v>
+      </c>
+      <c r="R42" t="n">
+        <v>962.1070167726755</v>
       </c>
     </row>
     <row r="43">
@@ -1945,19 +2841,40 @@
         <v>16.87886247833508</v>
       </c>
       <c r="G43" t="n">
-        <v>70.10109289617486</v>
+        <v>0.1915330406999313</v>
       </c>
       <c r="H43" t="n">
-        <v>70.02743176362166</v>
+        <v>0.7617099044545133</v>
       </c>
       <c r="I43" t="n">
-        <v>68.19071718564659</v>
+        <v>0.7411838513458693</v>
       </c>
       <c r="J43" t="n">
-        <v>74.78984589069009</v>
+        <v>0.8037389533829554</v>
       </c>
       <c r="K43" t="n">
-        <v>70.48405435169416</v>
+        <v>0.757536726417109</v>
+      </c>
+      <c r="L43" t="n">
+        <v>3.13120604796392</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.7617099044545133</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.7411838513458693</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.8037389533829554</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.757536726417109</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>946.5598291855348</v>
+      </c>
+      <c r="R43" t="n">
+        <v>944.4074470114924</v>
       </c>
     </row>
     <row r="44">
@@ -1980,19 +2897,40 @@
         <v>17.36716154867755</v>
       </c>
       <c r="G44" t="n">
-        <v>64.67307692307692</v>
+        <v>0.1776732882502113</v>
       </c>
       <c r="H44" t="n">
-        <v>59.45586035292912</v>
+        <v>0.6520693469017845</v>
       </c>
       <c r="I44" t="n">
-        <v>66.82627161742468</v>
+        <v>0.7262095379605538</v>
       </c>
       <c r="J44" t="n">
-        <v>70.58010819660099</v>
+        <v>0.7666711434553053</v>
       </c>
       <c r="K44" t="n">
-        <v>64.88569624295319</v>
+        <v>0.6970412968722137</v>
+      </c>
+      <c r="L44" t="n">
+        <v>3.634692646842723</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.6520693469017845</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.7262095379605538</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.7666711434553053</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.6970412968722137</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1026.733397553435</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1028.203480048992</v>
       </c>
     </row>
     <row r="45">
@@ -2015,19 +2953,40 @@
         <v>16.84203436465953</v>
       </c>
       <c r="G45" t="n">
-        <v>61.06027397260274</v>
+        <v>0.1672884218427472</v>
       </c>
       <c r="H45" t="n">
-        <v>51.32728733725477</v>
+        <v>0.5630434653514693</v>
       </c>
       <c r="I45" t="n">
-        <v>59.61347551227939</v>
+        <v>0.6471110022386137</v>
       </c>
       <c r="J45" t="n">
-        <v>68.06065334996306</v>
+        <v>0.7315414309006919</v>
       </c>
       <c r="K45" t="n">
-        <v>67.8574532200321</v>
+        <v>0.7299972874878158</v>
+      </c>
+      <c r="L45" t="n">
+        <v>3.679928395420688</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.5630434653514693</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.6471110022386137</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.7315414309006919</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.7299972874878158</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1067.151327254302</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1072.117199042211</v>
       </c>
     </row>
     <row r="46">
@@ -2050,19 +3009,40 @@
         <v>15.93415254744195</v>
       </c>
       <c r="G46" t="n">
-        <v>67.93698630136986</v>
+        <v>0.1861287295927941</v>
       </c>
       <c r="H46" t="n">
-        <v>65.9036365259695</v>
+        <v>0.7259954374648582</v>
       </c>
       <c r="I46" t="n">
-        <v>65.33641181881626</v>
+        <v>0.7108618658377296</v>
       </c>
       <c r="J46" t="n">
-        <v>70.50065927554307</v>
+        <v>0.7583567511142368</v>
       </c>
       <c r="K46" t="n">
-        <v>72.61801579586991</v>
+        <v>0.7813953210405822</v>
+      </c>
+      <c r="L46" t="n">
+        <v>3.361601887354691</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.7259954374648582</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.7108618658377296</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0.7583567511142368</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0.7813953210405822</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>934.8822894484507</v>
+      </c>
+      <c r="R46" t="n">
+        <v>934.4033376828602</v>
       </c>
     </row>
     <row r="47">
@@ -2085,19 +3065,40 @@
         <v>18.3318929624722</v>
       </c>
       <c r="G47" t="n">
-        <v>64.40983606557377</v>
+        <v>0.1759831586491087</v>
       </c>
       <c r="H47" t="n">
-        <v>60.40553446731834</v>
+        <v>0.6559263368479006</v>
       </c>
       <c r="I47" t="n">
-        <v>60.90479573427271</v>
+        <v>0.6614793940183357</v>
       </c>
       <c r="J47" t="n">
-        <v>72.24457238342983</v>
+        <v>0.7770272160622772</v>
       </c>
       <c r="K47" t="n">
-        <v>66.98497843256381</v>
+        <v>0.7196102782751702</v>
+      </c>
+      <c r="L47" t="n">
+        <v>3.668071707123846</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.6559263368479006</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.6614793940183357</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0.7770272160622772</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.7196102782751702</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1036.795706447442</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1038.840761118203</v>
       </c>
     </row>
     <row r="48">
@@ -2120,19 +3121,40 @@
         <v>15.49056405393991</v>
       </c>
       <c r="G48" t="n">
-        <v>65.80769230769231</v>
+        <v>0.1807903634826712</v>
       </c>
       <c r="H48" t="n">
-        <v>62.81561704963686</v>
+        <v>0.6905748057205986</v>
       </c>
       <c r="I48" t="n">
-        <v>61.0758768762008</v>
+        <v>0.6638885979222339</v>
       </c>
       <c r="J48" t="n">
-        <v>71.09059969652121</v>
+        <v>0.77258507755296</v>
       </c>
       <c r="K48" t="n">
-        <v>71.02157585252786</v>
+        <v>0.7641445664317432</v>
+      </c>
+      <c r="L48" t="n">
+        <v>3.548880877131518</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.6905748057205986</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.6638885979222339</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0.77258507755296</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0.7641445664317432</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>1006.975811702239</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1008.635150426806</v>
       </c>
     </row>
     <row r="49">
@@ -2155,19 +3177,40 @@
         <v>16.70099520938395</v>
       </c>
       <c r="G49" t="n">
-        <v>64.47527472527473</v>
+        <v>0.1771298756188866</v>
       </c>
       <c r="H49" t="n">
-        <v>60.06461796721818</v>
+        <v>0.659714885778484</v>
       </c>
       <c r="I49" t="n">
-        <v>60.78105359204616</v>
+        <v>0.660628413065804</v>
       </c>
       <c r="J49" t="n">
-        <v>70.6422891271361</v>
+        <v>0.7595430747964973</v>
       </c>
       <c r="K49" t="n">
-        <v>69.22001731706075</v>
+        <v>0.7521753585999797</v>
+      </c>
+      <c r="L49" t="n">
+        <v>3.698155827984536</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.659714885778484</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.660628413065804</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0.7595430747964973</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0.7521753585999797</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>1026.066487699743</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1028.217248494899</v>
       </c>
     </row>
     <row r="50">
@@ -2190,19 +3233,40 @@
         <v>17.36630331695936</v>
       </c>
       <c r="G50" t="n">
-        <v>65.7707182320442</v>
+        <v>0.1816870669393486</v>
       </c>
       <c r="H50" t="n">
-        <v>60.02294019963576</v>
+        <v>0.6595876191217009</v>
       </c>
       <c r="I50" t="n">
-        <v>57.71187970980271</v>
+        <v>0.6269364362290866</v>
       </c>
       <c r="J50" t="n">
-        <v>72.76785096877322</v>
+        <v>0.7826984337281186</v>
       </c>
       <c r="K50" t="n">
-        <v>75.51932603727035</v>
+        <v>0.8398879150812524</v>
+      </c>
+      <c r="L50" t="n">
+        <v>3.629840892402733</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.6595876191217009</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.6269364362290866</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0.7826984337281186</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0.8398879150812524</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1017.06907310616</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1019.21536703336</v>
       </c>
     </row>
     <row r="51">
@@ -2225,19 +3289,38 @@
         <v>17.60973374513436</v>
       </c>
       <c r="G51" t="n">
-        <v>71.5939226519337</v>
+        <v>0.197773266994292</v>
       </c>
       <c r="H51" t="n">
-        <v>66.78047187032567</v>
+        <v>0.7266827179832293</v>
       </c>
       <c r="I51" t="n">
-        <v>67.44738329351432</v>
+        <v>0.734286551918395</v>
       </c>
       <c r="J51" t="n">
-        <v>78.14030605460191</v>
+        <v>0.8499918727730622</v>
       </c>
       <c r="K51" t="n">
-        <v>77.050778944239</v>
+        <v>0.8563110576840147</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="n">
+        <v>0.7266827179832293</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.734286551918395</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0.8499918727730622</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0.8563110576840147</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1020.837801639988</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1018.254549400783</v>
       </c>
     </row>
   </sheetData>

--- a/my_work/data1/YearMeanER56985_蒙自.xlsx
+++ b/my_work/data1/YearMeanER56985_蒙自.xlsx
@@ -563,22 +563,22 @@
         <v>3.654694580962424</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7570370370370371</v>
+        <v>4.923240789495421</v>
       </c>
       <c r="N2" t="n">
-        <v>0.7194783238739283</v>
+        <v>4.157239204819592</v>
       </c>
       <c r="O2" t="n">
-        <v>0.8542060491493383</v>
+        <v>2.93765027301952</v>
       </c>
       <c r="P2" t="n">
-        <v>0.8231332703213611</v>
+        <v>2.569257641439182</v>
       </c>
       <c r="Q2" t="n">
-        <v>1027.48241574349</v>
+        <v>2.815020317105452</v>
       </c>
       <c r="R2" t="n">
-        <v>1025.37992282246</v>
+        <v>2.809260062527287</v>
       </c>
     </row>
     <row r="3">
@@ -619,22 +619,22 @@
         <v>3.548990492330122</v>
       </c>
       <c r="M3" t="n">
-        <v>0.8080006654824992</v>
+        <v>4.77926187742375</v>
       </c>
       <c r="N3" t="n">
-        <v>0.7790990796188714</v>
+        <v>3.710947314117226</v>
       </c>
       <c r="O3" t="n">
-        <v>0.8753372171608164</v>
+        <v>3.094432840043445</v>
       </c>
       <c r="P3" t="n">
-        <v>0.7928666272767393</v>
+        <v>2.810399555782948</v>
       </c>
       <c r="Q3" t="n">
-        <v>1004.255765179181</v>
+        <v>2.774187196627571</v>
       </c>
       <c r="R3" t="n">
-        <v>1000.317423853321</v>
+        <v>2.763307800699782</v>
       </c>
     </row>
     <row r="4">
@@ -675,22 +675,22 @@
         <v>4.127377252933094</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6339269136624053</v>
+        <v>5.908937464896196</v>
       </c>
       <c r="N4" t="n">
-        <v>0.685760065098372</v>
+        <v>3.897399826831821</v>
       </c>
       <c r="O4" t="n">
-        <v>0.8618709046806664</v>
+        <v>3.286837814798378</v>
       </c>
       <c r="P4" t="n">
-        <v>0.7830568131648484</v>
+        <v>3.551138521359072</v>
       </c>
       <c r="Q4" t="n">
-        <v>1114.223495189454</v>
+        <v>3.052667110108093</v>
       </c>
       <c r="R4" t="n">
-        <v>1115.324103709487</v>
+        <v>3.055682475916401</v>
       </c>
     </row>
     <row r="5">
@@ -731,22 +731,22 @@
         <v>3.597478249036677</v>
       </c>
       <c r="M5" t="n">
-        <v>0.7008190033226743</v>
+        <v>5.010083481679114</v>
       </c>
       <c r="N5" t="n">
-        <v>0.796121936971996</v>
+        <v>3.377268953206463</v>
       </c>
       <c r="O5" t="n">
-        <v>0.873684058471725</v>
+        <v>3.065659956873575</v>
       </c>
       <c r="P5" t="n">
-        <v>0.8134195483002322</v>
+        <v>3.101248827125614</v>
       </c>
       <c r="Q5" t="n">
-        <v>1000.34661550578</v>
+        <v>2.740675658919944</v>
       </c>
       <c r="R5" t="n">
-        <v>997.2747817232952</v>
+        <v>2.732259675954233</v>
       </c>
     </row>
     <row r="6">
@@ -787,22 +787,22 @@
         <v>3.604763316907973</v>
       </c>
       <c r="M6" t="n">
-        <v>0.7461359035806571</v>
+        <v>4.94384211852161</v>
       </c>
       <c r="N6" t="n">
-        <v>0.7838019903625891</v>
+        <v>3.422545394478576</v>
       </c>
       <c r="O6" t="n">
-        <v>0.8786476469823336</v>
+        <v>3.317578563879178</v>
       </c>
       <c r="P6" t="n">
-        <v>0.783531831232077</v>
+        <v>2.87225948287603</v>
       </c>
       <c r="Q6" t="n">
-        <v>991.1136210434356</v>
+        <v>2.722839618251197</v>
       </c>
       <c r="R6" t="n">
-        <v>988.0656974928227</v>
+        <v>2.714466201903359</v>
       </c>
     </row>
     <row r="7">
@@ -843,22 +843,22 @@
         <v>3.862197039182041</v>
       </c>
       <c r="M7" t="n">
-        <v>0.7387690056639996</v>
+        <v>5.310890832774678</v>
       </c>
       <c r="N7" t="n">
-        <v>0.7328563943956482</v>
+        <v>4.24045930635055</v>
       </c>
       <c r="O7" t="n">
-        <v>0.8945981388996908</v>
+        <v>3.040279211690035</v>
       </c>
       <c r="P7" t="n">
-        <v>0.842720171530155</v>
+        <v>2.997040888319442</v>
       </c>
       <c r="Q7" t="n">
-        <v>1021.243012087782</v>
+        <v>2.790281453791754</v>
       </c>
       <c r="R7" t="n">
-        <v>1018.02183067478</v>
+        <v>2.781480411679728</v>
       </c>
     </row>
     <row r="8">
@@ -899,22 +899,22 @@
         <v>3.756031259971361</v>
       </c>
       <c r="M8" t="n">
-        <v>0.7320665146920572</v>
+        <v>5.253163479163216</v>
       </c>
       <c r="N8" t="n">
-        <v>0.7567603980671895</v>
+        <v>3.892745122756592</v>
       </c>
       <c r="O8" t="n">
-        <v>0.8836123107441989</v>
+        <v>2.727974865892616</v>
       </c>
       <c r="P8" t="n">
-        <v>0.8094095841412489</v>
+        <v>3.298564177287021</v>
       </c>
       <c r="Q8" t="n">
-        <v>1029.435241943278</v>
+        <v>2.820370525871995</v>
       </c>
       <c r="R8" t="n">
-        <v>1026.312011713595</v>
+        <v>2.811813730722179</v>
       </c>
     </row>
     <row r="9">
@@ -955,22 +955,22 @@
         <v>3.748373302594482</v>
       </c>
       <c r="M9" t="n">
-        <v>0.7047817366067523</v>
+        <v>5.054724815579469</v>
       </c>
       <c r="N9" t="n">
-        <v>0.7711335298150063</v>
+        <v>3.542014824284868</v>
       </c>
       <c r="O9" t="n">
-        <v>0.8871554362370917</v>
+        <v>3.128204738520381</v>
       </c>
       <c r="P9" t="n">
-        <v>0.805743077691888</v>
+        <v>3.419578055768996</v>
       </c>
       <c r="Q9" t="n">
-        <v>1001.142946015995</v>
+        <v>2.742857386345193</v>
       </c>
       <c r="R9" t="n">
-        <v>997.7467790166232</v>
+        <v>2.733552819223625</v>
       </c>
     </row>
     <row r="10">
@@ -1011,22 +1011,22 @@
         <v>3.808517346374455</v>
       </c>
       <c r="M10" t="n">
-        <v>0.7265067631773588</v>
+        <v>5.267349724062259</v>
       </c>
       <c r="N10" t="n">
-        <v>0.7719805740284766</v>
+        <v>3.84171023815579</v>
       </c>
       <c r="O10" t="n">
-        <v>0.8647078397254534</v>
+        <v>3.251625763475296</v>
       </c>
       <c r="P10" t="n">
-        <v>0.7908560660536025</v>
+        <v>3.014687698450187</v>
       </c>
       <c r="Q10" t="n">
-        <v>1037.263881601827</v>
+        <v>2.841818853703636</v>
       </c>
       <c r="R10" t="n">
-        <v>1034.396238334376</v>
+        <v>2.83396229680651</v>
       </c>
     </row>
     <row r="11">
@@ -1067,22 +1067,22 @@
         <v>3.559699764529989</v>
       </c>
       <c r="M11" t="n">
-        <v>0.7304343082675012</v>
+        <v>4.835449222329537</v>
       </c>
       <c r="N11" t="n">
-        <v>0.7856508617992628</v>
+        <v>3.905969289927583</v>
       </c>
       <c r="O11" t="n">
-        <v>1.275459081123758</v>
+        <v>2.658459800635675</v>
       </c>
       <c r="P11" t="n">
-        <v>0.8464514276742044</v>
+        <v>2.935117717811484</v>
       </c>
       <c r="Q11" t="n">
-        <v>896.0407765891166</v>
+        <v>2.715275080573081</v>
       </c>
       <c r="R11" t="n">
-        <v>893.8928241836178</v>
+        <v>2.708766133889751</v>
       </c>
     </row>
     <row r="12">
@@ -1123,22 +1123,22 @@
         <v>3.469276112570418</v>
       </c>
       <c r="M12" t="n">
-        <v>0.8783488673146005</v>
+        <v>4.808486863693846</v>
       </c>
       <c r="N12" t="n">
-        <v>0.7224713984859072</v>
+        <v>4.01680210115205</v>
       </c>
       <c r="O12" t="n">
-        <v>0.866998518322439</v>
+        <v>2.642191496269236</v>
       </c>
       <c r="P12" t="n">
-        <v>0.8259506677017575</v>
+        <v>2.378625671807378</v>
       </c>
       <c r="Q12" t="n">
-        <v>993.2435542353322</v>
+        <v>2.821714642714012</v>
       </c>
       <c r="R12" t="n">
-        <v>990.7467731828557</v>
+        <v>2.814621514724022</v>
       </c>
     </row>
     <row r="13">
@@ -1179,22 +1179,22 @@
         <v>3.522525527715015</v>
       </c>
       <c r="M13" t="n">
-        <v>0.7138121418354709</v>
+        <v>4.770783511713963</v>
       </c>
       <c r="N13" t="n">
-        <v>0.7897261769591217</v>
+        <v>3.832474327444918</v>
       </c>
       <c r="O13" t="n">
-        <v>0.8663595225092536</v>
+        <v>2.902000521354286</v>
       </c>
       <c r="P13" t="n">
-        <v>0.7854236709200972</v>
+        <v>2.710957278922722</v>
       </c>
       <c r="Q13" t="n">
-        <v>1048.209401293832</v>
+        <v>2.871806578887211</v>
       </c>
       <c r="R13" t="n">
-        <v>1045.584998883396</v>
+        <v>2.864616435296976</v>
       </c>
     </row>
     <row r="14">
@@ -1235,22 +1235,22 @@
         <v>3.887584891908133</v>
       </c>
       <c r="M14" t="n">
-        <v>0.6493473842150415</v>
+        <v>5.703396904840345</v>
       </c>
       <c r="N14" t="n">
-        <v>0.7513331392557613</v>
+        <v>3.671178601560269</v>
       </c>
       <c r="O14" t="n">
-        <v>0.8729757041023759</v>
+        <v>2.761375689070902</v>
       </c>
       <c r="P14" t="n">
-        <v>0.7512742702824811</v>
+        <v>3.549317409906644</v>
       </c>
       <c r="Q14" t="n">
-        <v>1080.541362248624</v>
+        <v>2.960387293831846</v>
       </c>
       <c r="R14" t="n">
-        <v>1080.130696723059</v>
+        <v>2.959262182802902</v>
       </c>
     </row>
     <row r="15">
@@ -1291,22 +1291,22 @@
         <v>4.014663706649062</v>
       </c>
       <c r="M15" t="n">
-        <v>0.6685967090187435</v>
+        <v>5.709100779479885</v>
       </c>
       <c r="N15" t="n">
-        <v>0.6838245783286144</v>
+        <v>4.09493525681301</v>
       </c>
       <c r="O15" t="n">
-        <v>0.850354688358531</v>
+        <v>2.999921378155018</v>
       </c>
       <c r="P15" t="n">
-        <v>0.7917948102871316</v>
+        <v>3.409324918551746</v>
       </c>
       <c r="Q15" t="n">
-        <v>1107.505329880418</v>
+        <v>3.042597060111038</v>
       </c>
       <c r="R15" t="n">
-        <v>1108.658163647647</v>
+        <v>3.045764185845183</v>
       </c>
     </row>
     <row r="16">
@@ -1347,22 +1347,22 @@
         <v>3.608324825758146</v>
       </c>
       <c r="M16" t="n">
-        <v>0.7087245181122246</v>
+        <v>4.896179220213741</v>
       </c>
       <c r="N16" t="n">
-        <v>0.7783560277257197</v>
+        <v>3.845967405900804</v>
       </c>
       <c r="O16" t="n">
-        <v>0.8595399534703971</v>
+        <v>2.926189677051416</v>
       </c>
       <c r="P16" t="n">
-        <v>0.8483922252847694</v>
+        <v>2.935739894390049</v>
       </c>
       <c r="Q16" t="n">
-        <v>1039.972770510666</v>
+        <v>2.864938761737372</v>
       </c>
       <c r="R16" t="n">
-        <v>1037.126039076534</v>
+        <v>2.857096526381638</v>
       </c>
     </row>
     <row r="17">
@@ -1403,22 +1403,22 @@
         <v>3.780050598081172</v>
       </c>
       <c r="M17" t="n">
-        <v>0.7186060153726064</v>
+        <v>5.391887863528425</v>
       </c>
       <c r="N17" t="n">
-        <v>0.7444485395517119</v>
+        <v>4.132361223105947</v>
       </c>
       <c r="O17" t="n">
-        <v>0.8783793672205616</v>
+        <v>2.907703337413873</v>
       </c>
       <c r="P17" t="n">
-        <v>0.8424915397241594</v>
+        <v>2.820477060524265</v>
       </c>
       <c r="Q17" t="n">
-        <v>1029.008648915895</v>
+        <v>2.826946837681032</v>
       </c>
       <c r="R17" t="n">
-        <v>1026.491494897484</v>
+        <v>2.820031579388692</v>
       </c>
     </row>
     <row r="18">
@@ -1459,22 +1459,22 @@
         <v>3.797049270387936</v>
       </c>
       <c r="M18" t="n">
-        <v>0.7691010624710336</v>
+        <v>5.338512414886617</v>
       </c>
       <c r="N18" t="n">
-        <v>0.6570153904769415</v>
+        <v>4.573094749579551</v>
       </c>
       <c r="O18" t="n">
-        <v>0.8306803378269401</v>
+        <v>2.827368069645886</v>
       </c>
       <c r="P18" t="n">
-        <v>0.8414275155410827</v>
+        <v>2.577967330083415</v>
       </c>
       <c r="Q18" t="n">
-        <v>1042.743781937959</v>
+        <v>2.85683227928208</v>
       </c>
       <c r="R18" t="n">
-        <v>1042.484750524811</v>
+        <v>2.856122604177564</v>
       </c>
     </row>
     <row r="19">
@@ -1515,22 +1515,22 @@
         <v>3.843917139882114</v>
       </c>
       <c r="M19" t="n">
-        <v>0.6922798093300896</v>
+        <v>5.330792072476499</v>
       </c>
       <c r="N19" t="n">
-        <v>0.7446754033800842</v>
+        <v>3.782595366975506</v>
       </c>
       <c r="O19" t="n">
-        <v>0.858203057695868</v>
+        <v>3.13628374047188</v>
       </c>
       <c r="P19" t="n">
-        <v>0.7843621724380365</v>
+        <v>3.278650010423337</v>
       </c>
       <c r="Q19" t="n">
-        <v>1056.422504003991</v>
+        <v>2.88640028416391</v>
       </c>
       <c r="R19" t="n">
-        <v>1055.14411941422</v>
+        <v>2.882907430093498</v>
       </c>
     </row>
     <row r="20">
@@ -1571,22 +1571,22 @@
         <v>3.5710708509371</v>
       </c>
       <c r="M20" t="n">
-        <v>0.746505219729547</v>
+        <v>4.59389321117883</v>
       </c>
       <c r="N20" t="n">
-        <v>0.7850192821402463</v>
+        <v>3.65873480624086</v>
       </c>
       <c r="O20" t="n">
-        <v>0.880418029661826</v>
+        <v>2.941584344520041</v>
       </c>
       <c r="P20" t="n">
-        <v>0.8180274529976888</v>
+        <v>3.24492476476059</v>
       </c>
       <c r="Q20" t="n">
-        <v>1014.454844748297</v>
+        <v>2.779328341776157</v>
       </c>
       <c r="R20" t="n">
-        <v>1010.312229004871</v>
+        <v>2.767978709602385</v>
       </c>
     </row>
     <row r="21">
@@ -1627,22 +1627,22 @@
         <v>3.500429938412323</v>
       </c>
       <c r="M21" t="n">
-        <v>0.667623025335769</v>
+        <v>4.763776916130902</v>
       </c>
       <c r="N21" t="n">
-        <v>0.807002175979005</v>
+        <v>3.607476922519607</v>
       </c>
       <c r="O21" t="n">
-        <v>0.8845558149846009</v>
+        <v>2.704180605444946</v>
       </c>
       <c r="P21" t="n">
-        <v>0.8548264735482427</v>
+        <v>3.056266967365497</v>
       </c>
       <c r="Q21" t="n">
-        <v>1007.344732699929</v>
+        <v>2.767430584340465</v>
       </c>
       <c r="R21" t="n">
-        <v>1003.754916013865</v>
+        <v>2.757568450587541</v>
       </c>
     </row>
     <row r="22">
@@ -1683,22 +1683,22 @@
         <v>3.608963895489522</v>
       </c>
       <c r="M22" t="n">
-        <v>0.7079836571636218</v>
+        <v>5.467755961346323</v>
       </c>
       <c r="N22" t="n">
-        <v>0.7015827801202729</v>
+        <v>3.648767631368857</v>
       </c>
       <c r="O22" t="n">
-        <v>0.8606905193543224</v>
+        <v>2.784835908163746</v>
       </c>
       <c r="P22" t="n">
-        <v>0.8416652677780657</v>
+        <v>2.658480945471544</v>
       </c>
       <c r="Q22" t="n">
-        <v>1076.926661408982</v>
+        <v>2.950484003860224</v>
       </c>
       <c r="R22" t="n">
-        <v>1075.879477996992</v>
+        <v>2.947615008210936</v>
       </c>
     </row>
     <row r="23">
@@ -1739,22 +1739,22 @@
         <v>3.574969134672207</v>
       </c>
       <c r="M23" t="n">
-        <v>0.701812339531115</v>
+        <v>4.849736554207642</v>
       </c>
       <c r="N23" t="n">
-        <v>0.7328464657384519</v>
+        <v>3.854530078474603</v>
       </c>
       <c r="O23" t="n">
-        <v>0.8619873216587138</v>
+        <v>2.602251833111005</v>
       </c>
       <c r="P23" t="n">
-        <v>0.8160257165959095</v>
+        <v>3.136275788093516</v>
       </c>
       <c r="Q23" t="n">
-        <v>1034.338573341858</v>
+        <v>2.826061675797427</v>
       </c>
       <c r="R23" t="n">
-        <v>1032.817315269519</v>
+        <v>2.821905232976826</v>
       </c>
     </row>
     <row r="24">
@@ -1795,22 +1795,22 @@
         <v>3.480837931293005</v>
       </c>
       <c r="M24" t="n">
-        <v>0.7855187422641396</v>
+        <v>4.52497242403084</v>
       </c>
       <c r="N24" t="n">
-        <v>0.7586925306684867</v>
+        <v>3.904203864593523</v>
       </c>
       <c r="O24" t="n">
-        <v>0.8518128230070835</v>
+        <v>2.812579598139046</v>
       </c>
       <c r="P24" t="n">
-        <v>0.7834139916961952</v>
+        <v>2.809460209539833</v>
       </c>
       <c r="Q24" t="n">
-        <v>987.8237048951941</v>
+        <v>2.713801387074709</v>
       </c>
       <c r="R24" t="n">
-        <v>984.7253850375336</v>
+        <v>2.705289519333884</v>
       </c>
     </row>
     <row r="25">
@@ -1851,22 +1851,22 @@
         <v>3.575319603770162</v>
       </c>
       <c r="M25" t="n">
-        <v>0.7478747554002796</v>
+        <v>4.478295730602967</v>
       </c>
       <c r="N25" t="n">
-        <v>0.8298627948139334</v>
+        <v>3.899792511872603</v>
       </c>
       <c r="O25" t="n">
-        <v>0.839774552554703</v>
+        <v>2.995538243099963</v>
       </c>
       <c r="P25" t="n">
-        <v>0.8381244052508138</v>
+        <v>3.103814285795001</v>
       </c>
       <c r="Q25" t="n">
-        <v>994.971522622199</v>
+        <v>2.794863827590447</v>
       </c>
       <c r="R25" t="n">
-        <v>991.9614607095764</v>
+        <v>2.78640859749881</v>
       </c>
     </row>
     <row r="26">
@@ -1907,22 +1907,22 @@
         <v>3.687412237153536</v>
       </c>
       <c r="M26" t="n">
-        <v>0.7179426491161416</v>
+        <v>5.415251618885504</v>
       </c>
       <c r="N26" t="n">
-        <v>0.7747544328739823</v>
+        <v>3.661737118613233</v>
       </c>
       <c r="O26" t="n">
-        <v>0.9200656198147398</v>
+        <v>2.703304642738699</v>
       </c>
       <c r="P26" t="n">
-        <v>0.8602269289389198</v>
+        <v>3.095186389342465</v>
       </c>
       <c r="Q26" t="n">
-        <v>994.3917310283607</v>
+        <v>2.793235199517867</v>
       </c>
       <c r="R26" t="n">
-        <v>991.3834513198676</v>
+        <v>2.784784975617606</v>
       </c>
     </row>
     <row r="27">
@@ -1963,22 +1963,22 @@
         <v>3.835215274407409</v>
       </c>
       <c r="M27" t="n">
-        <v>0.7629172735960774</v>
+        <v>5.550217522116809</v>
       </c>
       <c r="N27" t="n">
-        <v>0.7482118380790798</v>
+        <v>4.316244531199546</v>
       </c>
       <c r="O27" t="n">
-        <v>1.193828141020463</v>
+        <v>3.113213120359357</v>
       </c>
       <c r="P27" t="n">
-        <v>0.9219033903564988</v>
+        <v>2.429780537868731</v>
       </c>
       <c r="Q27" t="n">
-        <v>918.3082890149374</v>
+        <v>2.878709369952782</v>
       </c>
       <c r="R27" t="n">
-        <v>918.4928573739336</v>
+        <v>2.879287954150262</v>
       </c>
     </row>
     <row r="28">
@@ -2019,22 +2019,22 @@
         <v>3.829185459299989</v>
       </c>
       <c r="M28" t="n">
-        <v>0.8519088154580349</v>
+        <v>5.198196830421683</v>
       </c>
       <c r="N28" t="n">
-        <v>0.8225496436272031</v>
+        <v>4.324003116843759</v>
       </c>
       <c r="O28" t="n">
-        <v>0.9209458373215731</v>
+        <v>3.15708021715758</v>
       </c>
       <c r="P28" t="n">
-        <v>0.8299358544868523</v>
+        <v>2.795366100111504</v>
       </c>
       <c r="Q28" t="n">
-        <v>924.617876402936</v>
+        <v>2.776630259468276</v>
       </c>
       <c r="R28" t="n">
-        <v>922.6659390842547</v>
+        <v>2.770768585838602</v>
       </c>
     </row>
     <row r="29">
@@ -2075,22 +2075,22 @@
         <v>3.705657336868283</v>
       </c>
       <c r="M29" t="n">
-        <v>0.8639247459487688</v>
+        <v>5.006524442026945</v>
       </c>
       <c r="N29" t="n">
-        <v>0.7902250061288428</v>
+        <v>3.673177501202781</v>
       </c>
       <c r="O29" t="n">
-        <v>0.9774547825733166</v>
+        <v>3.193940897578126</v>
       </c>
       <c r="P29" t="n">
-        <v>0.8649057251878211</v>
+        <v>3.214056259048309</v>
       </c>
       <c r="Q29" t="n">
-        <v>923.2110809529785</v>
+        <v>2.747652026645769</v>
       </c>
       <c r="R29" t="n">
-        <v>919.6872299156089</v>
+        <v>2.737164374748836</v>
       </c>
     </row>
     <row r="30">
@@ -2131,22 +2131,22 @@
         <v>3.518231450251413</v>
       </c>
       <c r="M30" t="n">
-        <v>0.7973132414778634</v>
+        <v>5.089749140304787</v>
       </c>
       <c r="N30" t="n">
-        <v>0.7949959741760585</v>
+        <v>3.58191495459414</v>
       </c>
       <c r="O30" t="n">
-        <v>0.9350970057845555</v>
+        <v>2.949985901180778</v>
       </c>
       <c r="P30" t="n">
-        <v>0.9076241680138589</v>
+        <v>2.551494566393031</v>
       </c>
       <c r="Q30" t="n">
-        <v>941.838897486633</v>
+        <v>2.761990901720331</v>
       </c>
       <c r="R30" t="n">
-        <v>938.9044924848332</v>
+        <v>2.753385608459921</v>
       </c>
     </row>
     <row r="31">
@@ -2187,22 +2187,22 @@
         <v>3.359071962278881</v>
       </c>
       <c r="M31" t="n">
-        <v>0.7299243378572438</v>
+        <v>4.712389005984423</v>
       </c>
       <c r="N31" t="n">
-        <v>0.8341584769514431</v>
+        <v>3.325700732914525</v>
       </c>
       <c r="O31" t="n">
-        <v>0.8811030983957757</v>
+        <v>2.888562273790342</v>
       </c>
       <c r="P31" t="n">
-        <v>0.8652831238692102</v>
+        <v>2.713612409421459</v>
       </c>
       <c r="Q31" t="n">
-        <v>946.8859352411947</v>
+        <v>2.697680727182891</v>
       </c>
       <c r="R31" t="n">
-        <v>943.7201131157912</v>
+        <v>2.68866129092818</v>
       </c>
     </row>
     <row r="32">
@@ -2243,22 +2243,22 @@
         <v>3.317042159190091</v>
       </c>
       <c r="M32" t="n">
-        <v>0.8228407144859191</v>
+        <v>4.613923644357341</v>
       </c>
       <c r="N32" t="n">
-        <v>0.7955921263575194</v>
+        <v>3.494776261322099</v>
       </c>
       <c r="O32" t="n">
-        <v>0.9018090934788546</v>
+        <v>2.907854791859553</v>
       </c>
       <c r="P32" t="n">
-        <v>0.8032685825997009</v>
+        <v>2.514075461140595</v>
       </c>
       <c r="Q32" t="n">
-        <v>943.5154232385436</v>
+        <v>2.680441543291317</v>
       </c>
       <c r="R32" t="n">
-        <v>939.8911631535648</v>
+        <v>2.670145349868082</v>
       </c>
     </row>
     <row r="33">
@@ -2299,22 +2299,22 @@
         <v>3.581814844280192</v>
       </c>
       <c r="M33" t="n">
-        <v>0.6599781284832699</v>
+        <v>4.660770634794865</v>
       </c>
       <c r="N33" t="n">
-        <v>0.750488539080589</v>
+        <v>3.673064948479049</v>
       </c>
       <c r="O33" t="n">
-        <v>0.8250120284845792</v>
+        <v>3.206980540631164</v>
       </c>
       <c r="P33" t="n">
-        <v>0.7710070024317817</v>
+        <v>2.914943838470136</v>
       </c>
       <c r="Q33" t="n">
-        <v>1031.586859860266</v>
+        <v>2.826265369480181</v>
       </c>
       <c r="R33" t="n">
-        <v>1030.864520885269</v>
+        <v>2.824286358589779</v>
       </c>
     </row>
     <row r="34">
@@ -2355,22 +2355,22 @@
         <v>3.480801830619317</v>
       </c>
       <c r="M34" t="n">
-        <v>0.722719350855761</v>
+        <v>4.46446390415332</v>
       </c>
       <c r="N34" t="n">
-        <v>0.7771706905614154</v>
+        <v>3.796258269058437</v>
       </c>
       <c r="O34" t="n">
-        <v>0.8734434087935355</v>
+        <v>3.091971219205835</v>
       </c>
       <c r="P34" t="n">
-        <v>0.8271322230867199</v>
+        <v>2.708873423399118</v>
       </c>
       <c r="Q34" t="n">
-        <v>955.7811598785268</v>
+        <v>2.64027944717825</v>
       </c>
       <c r="R34" t="n">
-        <v>952.3288497852698</v>
+        <v>2.630742678964834</v>
       </c>
     </row>
     <row r="35">
@@ -2411,22 +2411,22 @@
         <v>3.27724475135219</v>
       </c>
       <c r="M35" t="n">
-        <v>0.7219807655296288</v>
+        <v>4.126780702353867</v>
       </c>
       <c r="N35" t="n">
-        <v>0.7913026410687793</v>
+        <v>3.642503402180018</v>
       </c>
       <c r="O35" t="n">
-        <v>0.8634411658529375</v>
+        <v>2.847983589704406</v>
       </c>
       <c r="P35" t="n">
-        <v>0.8050362868883608</v>
+        <v>2.632181307908573</v>
       </c>
       <c r="Q35" t="n">
-        <v>947.7711716837679</v>
+        <v>2.603766955175186</v>
       </c>
       <c r="R35" t="n">
-        <v>944.2042050929118</v>
+        <v>2.593967596409098</v>
       </c>
     </row>
     <row r="36">
@@ -2467,22 +2467,22 @@
         <v>3.368235318180503</v>
       </c>
       <c r="M36" t="n">
-        <v>0.7486076519463617</v>
+        <v>4.221692731687895</v>
       </c>
       <c r="N36" t="n">
-        <v>0.7636506826036794</v>
+        <v>3.813853034364376</v>
       </c>
       <c r="O36" t="n">
-        <v>0.8288689096927729</v>
+        <v>2.866419715626989</v>
       </c>
       <c r="P36" t="n">
-        <v>0.8110591961586588</v>
+        <v>2.699850591726082</v>
       </c>
       <c r="Q36" t="n">
-        <v>965.5471705207368</v>
+        <v>2.652602116815211</v>
       </c>
       <c r="R36" t="n">
-        <v>962.6077360672043</v>
+        <v>2.644526747437375</v>
       </c>
     </row>
     <row r="37">
@@ -2523,22 +2523,22 @@
         <v>3.362819458551086</v>
       </c>
       <c r="M37" t="n">
-        <v>0.7315739021792526</v>
+        <v>4.331261469125918</v>
       </c>
       <c r="N37" t="n">
-        <v>0.7369597452822851</v>
+        <v>3.658191222327855</v>
       </c>
       <c r="O37" t="n">
-        <v>0.8491054901830922</v>
+        <v>2.967798854355984</v>
       </c>
       <c r="P37" t="n">
-        <v>0.7801969640376958</v>
+        <v>2.613132085683809</v>
       </c>
       <c r="Q37" t="n">
-        <v>992.0869270163427</v>
+        <v>2.725513535759183</v>
       </c>
       <c r="R37" t="n">
-        <v>989.9983099037579</v>
+        <v>2.719775576658676</v>
       </c>
     </row>
     <row r="38">
@@ -2579,22 +2579,22 @@
         <v>3.686371053907839</v>
       </c>
       <c r="M38" t="n">
-        <v>0.7361105383035198</v>
+        <v>4.558951241957772</v>
       </c>
       <c r="N38" t="n">
-        <v>0.7182389759383265</v>
+        <v>4.085201841711071</v>
       </c>
       <c r="O38" t="n">
-        <v>0.8200436088717136</v>
+        <v>3.434476162560983</v>
       </c>
       <c r="P38" t="n">
-        <v>0.7881356565411197</v>
+        <v>2.782135199588359</v>
       </c>
       <c r="Q38" t="n">
-        <v>962.8096282710786</v>
+        <v>2.645081396349117</v>
       </c>
       <c r="R38" t="n">
-        <v>961.0675469724915</v>
+        <v>2.640295458715636</v>
       </c>
     </row>
     <row r="39">
@@ -2635,22 +2635,22 @@
         <v>3.545944282961679</v>
       </c>
       <c r="M39" t="n">
-        <v>0.7419184585959226</v>
+        <v>4.25987588489108</v>
       </c>
       <c r="N39" t="n">
-        <v>0.7462526553527278</v>
+        <v>4.032167240472294</v>
       </c>
       <c r="O39" t="n">
-        <v>0.7906214607288365</v>
+        <v>3.292872350593679</v>
       </c>
       <c r="P39" t="n">
-        <v>0.7378057816229372</v>
+        <v>2.731068898948469</v>
       </c>
       <c r="Q39" t="n">
-        <v>973.39589723571</v>
+        <v>2.674164552845357</v>
       </c>
       <c r="R39" t="n">
-        <v>972.2612564157899</v>
+        <v>2.671047407735687</v>
       </c>
     </row>
     <row r="40">
@@ -2691,22 +2691,22 @@
         <v>3.923008357658576</v>
       </c>
       <c r="M40" t="n">
-        <v>0.669103940550444</v>
+        <v>5.027711017243981</v>
       </c>
       <c r="N40" t="n">
-        <v>0.6465118830438707</v>
+        <v>4.404357927986795</v>
       </c>
       <c r="O40" t="n">
-        <v>0.7470215762595379</v>
+        <v>3.373808811040363</v>
       </c>
       <c r="P40" t="n">
-        <v>0.77547854193716</v>
+        <v>3.022251036303877</v>
       </c>
       <c r="Q40" t="n">
-        <v>1008.831947621507</v>
+        <v>2.779151370858145</v>
       </c>
       <c r="R40" t="n">
-        <v>1011.752420621771</v>
+        <v>2.787196751024162</v>
       </c>
     </row>
     <row r="41">
@@ -2747,22 +2747,22 @@
         <v>3.976880274417868</v>
       </c>
       <c r="M41" t="n">
-        <v>0.722181370856858</v>
+        <v>5.253669663972044</v>
       </c>
       <c r="N41" t="n">
-        <v>0.6998727825000657</v>
+        <v>4.64967594090741</v>
       </c>
       <c r="O41" t="n">
-        <v>0.7881317369537169</v>
+        <v>3.124979451474088</v>
       </c>
       <c r="P41" t="n">
-        <v>0.7746662899978659</v>
+        <v>3.021205591356043</v>
       </c>
       <c r="Q41" t="n">
-        <v>1015.65015018161</v>
+        <v>2.782603151182494</v>
       </c>
       <c r="R41" t="n">
-        <v>1015.334960656824</v>
+        <v>2.781739618237874</v>
       </c>
     </row>
     <row r="42">
@@ -2803,22 +2803,22 @@
         <v>3.154546908184024</v>
       </c>
       <c r="M42" t="n">
-        <v>0.7197187878235626</v>
+        <v>3.969398558312259</v>
       </c>
       <c r="N42" t="n">
-        <v>0.7434729951434006</v>
+        <v>3.719032335730716</v>
       </c>
       <c r="O42" t="n">
-        <v>0.846501433333761</v>
+        <v>2.635030542179803</v>
       </c>
       <c r="P42" t="n">
-        <v>0.790852394410444</v>
+        <v>2.448174783828466</v>
       </c>
       <c r="Q42" t="n">
-        <v>964.08214471977</v>
+        <v>2.641320944437726</v>
       </c>
       <c r="R42" t="n">
-        <v>962.1070167726755</v>
+        <v>2.635909634993631</v>
       </c>
     </row>
     <row r="43">
@@ -2859,22 +2859,22 @@
         <v>3.13120604796392</v>
       </c>
       <c r="M43" t="n">
-        <v>0.7617099044545133</v>
+        <v>3.978366443300981</v>
       </c>
       <c r="N43" t="n">
-        <v>0.7411838513458693</v>
+        <v>3.39302918176305</v>
       </c>
       <c r="O43" t="n">
-        <v>0.8037389533829554</v>
+        <v>3.031596856441498</v>
       </c>
       <c r="P43" t="n">
-        <v>0.757536726417109</v>
+        <v>2.249992728931634</v>
       </c>
       <c r="Q43" t="n">
-        <v>946.5598291855348</v>
+        <v>2.586229041490532</v>
       </c>
       <c r="R43" t="n">
-        <v>944.4074470114924</v>
+        <v>2.580348215878395</v>
       </c>
     </row>
     <row r="44">
@@ -2915,22 +2915,22 @@
         <v>3.634692646842723</v>
       </c>
       <c r="M44" t="n">
-        <v>0.6520693469017845</v>
+        <v>4.36210602889013</v>
       </c>
       <c r="N44" t="n">
-        <v>0.7262095379605538</v>
+        <v>4.059810199011286</v>
       </c>
       <c r="O44" t="n">
-        <v>0.7666711434553053</v>
+        <v>3.425267933338946</v>
       </c>
       <c r="P44" t="n">
-        <v>0.6970412968722137</v>
+        <v>2.806563352152798</v>
       </c>
       <c r="Q44" t="n">
-        <v>1026.733397553435</v>
+        <v>2.82069614712482</v>
       </c>
       <c r="R44" t="n">
-        <v>1028.203480048992</v>
+        <v>2.824734835299429</v>
       </c>
     </row>
     <row r="45">
@@ -2971,22 +2971,22 @@
         <v>3.679928395420688</v>
       </c>
       <c r="M45" t="n">
-        <v>0.5630434653514693</v>
+        <v>4.713424126572121</v>
       </c>
       <c r="N45" t="n">
-        <v>0.6471110022386137</v>
+        <v>4.122623447937346</v>
       </c>
       <c r="O45" t="n">
-        <v>0.7315414309006919</v>
+        <v>3.071604457379841</v>
       </c>
       <c r="P45" t="n">
-        <v>0.7299972874878158</v>
+        <v>2.948835881838972</v>
       </c>
       <c r="Q45" t="n">
-        <v>1067.151327254302</v>
+        <v>2.923702266450142</v>
       </c>
       <c r="R45" t="n">
-        <v>1072.117199042211</v>
+        <v>2.937307394636194</v>
       </c>
     </row>
     <row r="46">
@@ -3027,22 +3027,22 @@
         <v>3.361601887354691</v>
       </c>
       <c r="M46" t="n">
-        <v>0.7259954374648582</v>
+        <v>3.880028803863905</v>
       </c>
       <c r="N46" t="n">
-        <v>0.7108618658377296</v>
+        <v>4.328898549411514</v>
       </c>
       <c r="O46" t="n">
-        <v>0.7583567511142368</v>
+        <v>2.894194348715453</v>
       </c>
       <c r="P46" t="n">
-        <v>0.7813953210405822</v>
+        <v>2.480535272930508</v>
       </c>
       <c r="Q46" t="n">
-        <v>934.8822894484507</v>
+        <v>2.56132134095466</v>
       </c>
       <c r="R46" t="n">
-        <v>934.4033376828602</v>
+        <v>2.560009144336603</v>
       </c>
     </row>
     <row r="47">
@@ -3083,22 +3083,22 @@
         <v>3.668071707123846</v>
       </c>
       <c r="M47" t="n">
-        <v>0.6559263368479006</v>
+        <v>4.670317773158532</v>
       </c>
       <c r="N47" t="n">
-        <v>0.6614793940183357</v>
+        <v>3.875709753859931</v>
       </c>
       <c r="O47" t="n">
-        <v>0.7770272160622772</v>
+        <v>3.280707820865076</v>
       </c>
       <c r="P47" t="n">
-        <v>0.7196102782751702</v>
+        <v>2.981527006569526</v>
       </c>
       <c r="Q47" t="n">
-        <v>1036.795706447442</v>
+        <v>2.832775154227985</v>
       </c>
       <c r="R47" t="n">
-        <v>1038.840761118203</v>
+        <v>2.838362735295637</v>
       </c>
     </row>
     <row r="48">
@@ -3139,22 +3139,22 @@
         <v>3.548880877131518</v>
       </c>
       <c r="M48" t="n">
-        <v>0.6905748057205986</v>
+        <v>4.549382658686747</v>
       </c>
       <c r="N48" t="n">
-        <v>0.6638885979222339</v>
+        <v>4.111375215437715</v>
       </c>
       <c r="O48" t="n">
-        <v>0.77258507755296</v>
+        <v>2.980235184092081</v>
       </c>
       <c r="P48" t="n">
-        <v>0.7641445664317432</v>
+        <v>2.696901674154816</v>
       </c>
       <c r="Q48" t="n">
-        <v>1006.975811702239</v>
+        <v>2.766417065116042</v>
       </c>
       <c r="R48" t="n">
-        <v>1008.635150426806</v>
+        <v>2.77097568798573</v>
       </c>
     </row>
     <row r="49">
@@ -3195,22 +3195,22 @@
         <v>3.698155827984536</v>
       </c>
       <c r="M49" t="n">
-        <v>0.659714885778484</v>
+        <v>4.939246658065306</v>
       </c>
       <c r="N49" t="n">
-        <v>0.660628413065804</v>
+        <v>4.000632217039914</v>
       </c>
       <c r="O49" t="n">
-        <v>0.7595430747964973</v>
+        <v>3.259404569996437</v>
       </c>
       <c r="P49" t="n">
-        <v>0.7521753585999797</v>
+        <v>2.718348314548703</v>
       </c>
       <c r="Q49" t="n">
-        <v>1026.066487699743</v>
+        <v>2.818863977197096</v>
       </c>
       <c r="R49" t="n">
-        <v>1028.217248494899</v>
+        <v>2.824772660700272</v>
       </c>
     </row>
     <row r="50">
@@ -3251,22 +3251,22 @@
         <v>3.629840892402733</v>
       </c>
       <c r="M50" t="n">
-        <v>0.6595876191217009</v>
+        <v>4.935285062544865</v>
       </c>
       <c r="N50" t="n">
-        <v>0.6269364362290866</v>
+        <v>4.136379777278418</v>
       </c>
       <c r="O50" t="n">
-        <v>0.7826984337281186</v>
+        <v>3.053047428696992</v>
       </c>
       <c r="P50" t="n">
-        <v>0.8398879150812524</v>
+        <v>2.507318842448462</v>
       </c>
       <c r="Q50" t="n">
-        <v>1017.06907310616</v>
+        <v>2.809583074878895</v>
       </c>
       <c r="R50" t="n">
-        <v>1019.21536703336</v>
+        <v>2.815512063628067</v>
       </c>
     </row>
     <row r="51">
@@ -3305,22 +3305,20 @@
       </c>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
-        <v>0.7266827179832293</v>
+        <v>5.199120378202133</v>
       </c>
       <c r="N51" t="n">
-        <v>0.734286551918395</v>
+        <v>4.24664081618807</v>
       </c>
       <c r="O51" t="n">
-        <v>0.8499918727730622</v>
-      </c>
-      <c r="P51" t="n">
-        <v>0.8563110576840147</v>
-      </c>
+        <v>3.17918356280883</v>
+      </c>
+      <c r="P51" t="inlineStr"/>
       <c r="Q51" t="n">
-        <v>1020.837801639988</v>
+        <v>2.819993927182288</v>
       </c>
       <c r="R51" t="n">
-        <v>1018.254549400783</v>
+        <v>2.812857871272881</v>
       </c>
     </row>
   </sheetData>

--- a/my_work/data1/YearMeanER56985_蒙自.xlsx
+++ b/my_work/data1/YearMeanER56985_蒙自.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R51"/>
+  <dimension ref="A1:V51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,6 +524,26 @@
           <t>ET0_ET0_PMT_CF</t>
         </is>
       </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>s11_ET0</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>s22_ET0</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>s33_ET0</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>s44_ET0</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -580,6 +600,18 @@
       <c r="R2" t="n">
         <v>2.809260062527287</v>
       </c>
+      <c r="S2" t="n">
+        <v>4.923240789495421</v>
+      </c>
+      <c r="T2" t="n">
+        <v>4.157239204819592</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2.93765027301952</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2.569257641439182</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -636,6 +668,18 @@
       <c r="R3" t="n">
         <v>2.763307800699782</v>
       </c>
+      <c r="S3" t="n">
+        <v>4.77926187742375</v>
+      </c>
+      <c r="T3" t="n">
+        <v>3.710947314117226</v>
+      </c>
+      <c r="U3" t="n">
+        <v>3.094432840043445</v>
+      </c>
+      <c r="V3" t="n">
+        <v>2.810399555782948</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -692,6 +736,18 @@
       <c r="R4" t="n">
         <v>3.055682475916401</v>
       </c>
+      <c r="S4" t="n">
+        <v>5.908937464896196</v>
+      </c>
+      <c r="T4" t="n">
+        <v>3.897399826831821</v>
+      </c>
+      <c r="U4" t="n">
+        <v>3.286837814798378</v>
+      </c>
+      <c r="V4" t="n">
+        <v>3.551138521359072</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -748,6 +804,18 @@
       <c r="R5" t="n">
         <v>2.732259675954233</v>
       </c>
+      <c r="S5" t="n">
+        <v>5.010083481679114</v>
+      </c>
+      <c r="T5" t="n">
+        <v>3.377268953206463</v>
+      </c>
+      <c r="U5" t="n">
+        <v>3.065659956873575</v>
+      </c>
+      <c r="V5" t="n">
+        <v>3.101248827125614</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -804,6 +872,18 @@
       <c r="R6" t="n">
         <v>2.714466201903359</v>
       </c>
+      <c r="S6" t="n">
+        <v>4.94384211852161</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3.422545394478576</v>
+      </c>
+      <c r="U6" t="n">
+        <v>3.317578563879178</v>
+      </c>
+      <c r="V6" t="n">
+        <v>2.87225948287603</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -860,6 +940,18 @@
       <c r="R7" t="n">
         <v>2.781480411679728</v>
       </c>
+      <c r="S7" t="n">
+        <v>5.310890832774678</v>
+      </c>
+      <c r="T7" t="n">
+        <v>4.24045930635055</v>
+      </c>
+      <c r="U7" t="n">
+        <v>3.040279211690035</v>
+      </c>
+      <c r="V7" t="n">
+        <v>2.997040888319442</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -916,6 +1008,18 @@
       <c r="R8" t="n">
         <v>2.811813730722179</v>
       </c>
+      <c r="S8" t="n">
+        <v>5.253163479163216</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3.892745122756592</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2.727974865892616</v>
+      </c>
+      <c r="V8" t="n">
+        <v>3.298564177287021</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -972,6 +1076,18 @@
       <c r="R9" t="n">
         <v>2.733552819223625</v>
       </c>
+      <c r="S9" t="n">
+        <v>5.054724815579469</v>
+      </c>
+      <c r="T9" t="n">
+        <v>3.542014824284868</v>
+      </c>
+      <c r="U9" t="n">
+        <v>3.128204738520381</v>
+      </c>
+      <c r="V9" t="n">
+        <v>3.419578055768996</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1028,6 +1144,18 @@
       <c r="R10" t="n">
         <v>2.83396229680651</v>
       </c>
+      <c r="S10" t="n">
+        <v>5.267349724062259</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3.84171023815579</v>
+      </c>
+      <c r="U10" t="n">
+        <v>3.251625763475296</v>
+      </c>
+      <c r="V10" t="n">
+        <v>3.014687698450187</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1084,6 +1212,18 @@
       <c r="R11" t="n">
         <v>2.708766133889751</v>
       </c>
+      <c r="S11" t="n">
+        <v>4.835449222329537</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3.905969289927583</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.658459800635675</v>
+      </c>
+      <c r="V11" t="n">
+        <v>2.935117717811484</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1140,6 +1280,18 @@
       <c r="R12" t="n">
         <v>2.814621514724022</v>
       </c>
+      <c r="S12" t="n">
+        <v>4.808486863693846</v>
+      </c>
+      <c r="T12" t="n">
+        <v>4.01680210115205</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.642191496269236</v>
+      </c>
+      <c r="V12" t="n">
+        <v>2.378625671807378</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1196,6 +1348,18 @@
       <c r="R13" t="n">
         <v>2.864616435296976</v>
       </c>
+      <c r="S13" t="n">
+        <v>4.770783511713963</v>
+      </c>
+      <c r="T13" t="n">
+        <v>3.832474327444918</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.902000521354286</v>
+      </c>
+      <c r="V13" t="n">
+        <v>2.710957278922722</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1252,6 +1416,18 @@
       <c r="R14" t="n">
         <v>2.959262182802902</v>
       </c>
+      <c r="S14" t="n">
+        <v>5.703396904840345</v>
+      </c>
+      <c r="T14" t="n">
+        <v>3.671178601560269</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.761375689070902</v>
+      </c>
+      <c r="V14" t="n">
+        <v>3.549317409906644</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1308,6 +1484,18 @@
       <c r="R15" t="n">
         <v>3.045764185845183</v>
       </c>
+      <c r="S15" t="n">
+        <v>5.709100779479885</v>
+      </c>
+      <c r="T15" t="n">
+        <v>4.09493525681301</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.999921378155018</v>
+      </c>
+      <c r="V15" t="n">
+        <v>3.409324918551746</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1364,6 +1552,18 @@
       <c r="R16" t="n">
         <v>2.857096526381638</v>
       </c>
+      <c r="S16" t="n">
+        <v>4.896179220213741</v>
+      </c>
+      <c r="T16" t="n">
+        <v>3.845967405900804</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.926189677051416</v>
+      </c>
+      <c r="V16" t="n">
+        <v>2.935739894390049</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1420,6 +1620,18 @@
       <c r="R17" t="n">
         <v>2.820031579388692</v>
       </c>
+      <c r="S17" t="n">
+        <v>5.391887863528425</v>
+      </c>
+      <c r="T17" t="n">
+        <v>4.132361223105947</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2.907703337413873</v>
+      </c>
+      <c r="V17" t="n">
+        <v>2.820477060524265</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1476,6 +1688,18 @@
       <c r="R18" t="n">
         <v>2.856122604177564</v>
       </c>
+      <c r="S18" t="n">
+        <v>5.338512414886617</v>
+      </c>
+      <c r="T18" t="n">
+        <v>4.573094749579551</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.827368069645886</v>
+      </c>
+      <c r="V18" t="n">
+        <v>2.577967330083415</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1532,6 +1756,18 @@
       <c r="R19" t="n">
         <v>2.882907430093498</v>
       </c>
+      <c r="S19" t="n">
+        <v>5.330792072476499</v>
+      </c>
+      <c r="T19" t="n">
+        <v>3.782595366975506</v>
+      </c>
+      <c r="U19" t="n">
+        <v>3.13628374047188</v>
+      </c>
+      <c r="V19" t="n">
+        <v>3.278650010423337</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1588,6 +1824,18 @@
       <c r="R20" t="n">
         <v>2.767978709602385</v>
       </c>
+      <c r="S20" t="n">
+        <v>4.59389321117883</v>
+      </c>
+      <c r="T20" t="n">
+        <v>3.65873480624086</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2.941584344520041</v>
+      </c>
+      <c r="V20" t="n">
+        <v>3.24492476476059</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1644,6 +1892,18 @@
       <c r="R21" t="n">
         <v>2.757568450587541</v>
       </c>
+      <c r="S21" t="n">
+        <v>4.763776916130902</v>
+      </c>
+      <c r="T21" t="n">
+        <v>3.607476922519607</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2.704180605444946</v>
+      </c>
+      <c r="V21" t="n">
+        <v>3.056266967365497</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1700,6 +1960,18 @@
       <c r="R22" t="n">
         <v>2.947615008210936</v>
       </c>
+      <c r="S22" t="n">
+        <v>5.467755961346323</v>
+      </c>
+      <c r="T22" t="n">
+        <v>3.648767631368857</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2.784835908163746</v>
+      </c>
+      <c r="V22" t="n">
+        <v>2.658480945471544</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1756,6 +2028,18 @@
       <c r="R23" t="n">
         <v>2.821905232976826</v>
       </c>
+      <c r="S23" t="n">
+        <v>4.849736554207642</v>
+      </c>
+      <c r="T23" t="n">
+        <v>3.854530078474603</v>
+      </c>
+      <c r="U23" t="n">
+        <v>2.602251833111005</v>
+      </c>
+      <c r="V23" t="n">
+        <v>3.136275788093516</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1812,6 +2096,18 @@
       <c r="R24" t="n">
         <v>2.705289519333884</v>
       </c>
+      <c r="S24" t="n">
+        <v>4.52497242403084</v>
+      </c>
+      <c r="T24" t="n">
+        <v>3.904203864593523</v>
+      </c>
+      <c r="U24" t="n">
+        <v>2.812579598139046</v>
+      </c>
+      <c r="V24" t="n">
+        <v>2.809460209539833</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1868,6 +2164,18 @@
       <c r="R25" t="n">
         <v>2.78640859749881</v>
       </c>
+      <c r="S25" t="n">
+        <v>4.478295730602967</v>
+      </c>
+      <c r="T25" t="n">
+        <v>3.899792511872603</v>
+      </c>
+      <c r="U25" t="n">
+        <v>2.995538243099963</v>
+      </c>
+      <c r="V25" t="n">
+        <v>3.103814285795001</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1924,6 +2232,18 @@
       <c r="R26" t="n">
         <v>2.784784975617606</v>
       </c>
+      <c r="S26" t="n">
+        <v>5.415251618885504</v>
+      </c>
+      <c r="T26" t="n">
+        <v>3.661737118613233</v>
+      </c>
+      <c r="U26" t="n">
+        <v>2.703304642738699</v>
+      </c>
+      <c r="V26" t="n">
+        <v>3.095186389342465</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1980,6 +2300,18 @@
       <c r="R27" t="n">
         <v>2.879287954150262</v>
       </c>
+      <c r="S27" t="n">
+        <v>5.550217522116809</v>
+      </c>
+      <c r="T27" t="n">
+        <v>4.316244531199546</v>
+      </c>
+      <c r="U27" t="n">
+        <v>3.113213120359357</v>
+      </c>
+      <c r="V27" t="n">
+        <v>2.429780537868731</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2036,6 +2368,18 @@
       <c r="R28" t="n">
         <v>2.770768585838602</v>
       </c>
+      <c r="S28" t="n">
+        <v>5.198196830421683</v>
+      </c>
+      <c r="T28" t="n">
+        <v>4.324003116843759</v>
+      </c>
+      <c r="U28" t="n">
+        <v>3.15708021715758</v>
+      </c>
+      <c r="V28" t="n">
+        <v>2.795366100111504</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2092,6 +2436,18 @@
       <c r="R29" t="n">
         <v>2.737164374748836</v>
       </c>
+      <c r="S29" t="n">
+        <v>5.006524442026945</v>
+      </c>
+      <c r="T29" t="n">
+        <v>3.673177501202781</v>
+      </c>
+      <c r="U29" t="n">
+        <v>3.193940897578126</v>
+      </c>
+      <c r="V29" t="n">
+        <v>3.214056259048309</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2148,6 +2504,18 @@
       <c r="R30" t="n">
         <v>2.753385608459921</v>
       </c>
+      <c r="S30" t="n">
+        <v>5.089749140304787</v>
+      </c>
+      <c r="T30" t="n">
+        <v>3.58191495459414</v>
+      </c>
+      <c r="U30" t="n">
+        <v>2.949985901180778</v>
+      </c>
+      <c r="V30" t="n">
+        <v>2.551494566393031</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2204,6 +2572,18 @@
       <c r="R31" t="n">
         <v>2.68866129092818</v>
       </c>
+      <c r="S31" t="n">
+        <v>4.712389005984423</v>
+      </c>
+      <c r="T31" t="n">
+        <v>3.325700732914525</v>
+      </c>
+      <c r="U31" t="n">
+        <v>2.888562273790342</v>
+      </c>
+      <c r="V31" t="n">
+        <v>2.713612409421459</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2260,6 +2640,18 @@
       <c r="R32" t="n">
         <v>2.670145349868082</v>
       </c>
+      <c r="S32" t="n">
+        <v>4.613923644357341</v>
+      </c>
+      <c r="T32" t="n">
+        <v>3.494776261322099</v>
+      </c>
+      <c r="U32" t="n">
+        <v>2.907854791859553</v>
+      </c>
+      <c r="V32" t="n">
+        <v>2.514075461140595</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2316,6 +2708,18 @@
       <c r="R33" t="n">
         <v>2.824286358589779</v>
       </c>
+      <c r="S33" t="n">
+        <v>4.660770634794865</v>
+      </c>
+      <c r="T33" t="n">
+        <v>3.673064948479049</v>
+      </c>
+      <c r="U33" t="n">
+        <v>3.206980540631164</v>
+      </c>
+      <c r="V33" t="n">
+        <v>2.914943838470136</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2372,6 +2776,18 @@
       <c r="R34" t="n">
         <v>2.630742678964834</v>
       </c>
+      <c r="S34" t="n">
+        <v>4.46446390415332</v>
+      </c>
+      <c r="T34" t="n">
+        <v>3.796258269058437</v>
+      </c>
+      <c r="U34" t="n">
+        <v>3.091971219205835</v>
+      </c>
+      <c r="V34" t="n">
+        <v>2.708873423399118</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2428,6 +2844,18 @@
       <c r="R35" t="n">
         <v>2.593967596409098</v>
       </c>
+      <c r="S35" t="n">
+        <v>4.126780702353867</v>
+      </c>
+      <c r="T35" t="n">
+        <v>3.642503402180018</v>
+      </c>
+      <c r="U35" t="n">
+        <v>2.847983589704406</v>
+      </c>
+      <c r="V35" t="n">
+        <v>2.632181307908573</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2484,6 +2912,18 @@
       <c r="R36" t="n">
         <v>2.644526747437375</v>
       </c>
+      <c r="S36" t="n">
+        <v>4.221692731687895</v>
+      </c>
+      <c r="T36" t="n">
+        <v>3.813853034364376</v>
+      </c>
+      <c r="U36" t="n">
+        <v>2.866419715626989</v>
+      </c>
+      <c r="V36" t="n">
+        <v>2.699850591726082</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2540,6 +2980,18 @@
       <c r="R37" t="n">
         <v>2.719775576658676</v>
       </c>
+      <c r="S37" t="n">
+        <v>4.331261469125918</v>
+      </c>
+      <c r="T37" t="n">
+        <v>3.658191222327855</v>
+      </c>
+      <c r="U37" t="n">
+        <v>2.967798854355984</v>
+      </c>
+      <c r="V37" t="n">
+        <v>2.613132085683809</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2596,6 +3048,18 @@
       <c r="R38" t="n">
         <v>2.640295458715636</v>
       </c>
+      <c r="S38" t="n">
+        <v>4.558951241957772</v>
+      </c>
+      <c r="T38" t="n">
+        <v>4.085201841711071</v>
+      </c>
+      <c r="U38" t="n">
+        <v>3.434476162560983</v>
+      </c>
+      <c r="V38" t="n">
+        <v>2.782135199588359</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2652,6 +3116,18 @@
       <c r="R39" t="n">
         <v>2.671047407735687</v>
       </c>
+      <c r="S39" t="n">
+        <v>4.25987588489108</v>
+      </c>
+      <c r="T39" t="n">
+        <v>4.032167240472294</v>
+      </c>
+      <c r="U39" t="n">
+        <v>3.292872350593679</v>
+      </c>
+      <c r="V39" t="n">
+        <v>2.731068898948469</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2708,6 +3184,18 @@
       <c r="R40" t="n">
         <v>2.787196751024162</v>
       </c>
+      <c r="S40" t="n">
+        <v>5.027711017243981</v>
+      </c>
+      <c r="T40" t="n">
+        <v>4.404357927986795</v>
+      </c>
+      <c r="U40" t="n">
+        <v>3.373808811040363</v>
+      </c>
+      <c r="V40" t="n">
+        <v>3.022251036303877</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2764,6 +3252,18 @@
       <c r="R41" t="n">
         <v>2.781739618237874</v>
       </c>
+      <c r="S41" t="n">
+        <v>5.253669663972044</v>
+      </c>
+      <c r="T41" t="n">
+        <v>4.64967594090741</v>
+      </c>
+      <c r="U41" t="n">
+        <v>3.124979451474088</v>
+      </c>
+      <c r="V41" t="n">
+        <v>3.021205591356043</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2820,6 +3320,18 @@
       <c r="R42" t="n">
         <v>2.635909634993631</v>
       </c>
+      <c r="S42" t="n">
+        <v>3.969398558312259</v>
+      </c>
+      <c r="T42" t="n">
+        <v>3.719032335730716</v>
+      </c>
+      <c r="U42" t="n">
+        <v>2.635030542179803</v>
+      </c>
+      <c r="V42" t="n">
+        <v>2.448174783828466</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2876,6 +3388,18 @@
       <c r="R43" t="n">
         <v>2.580348215878395</v>
       </c>
+      <c r="S43" t="n">
+        <v>3.978366443300981</v>
+      </c>
+      <c r="T43" t="n">
+        <v>3.39302918176305</v>
+      </c>
+      <c r="U43" t="n">
+        <v>3.031596856441498</v>
+      </c>
+      <c r="V43" t="n">
+        <v>2.249992728931634</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2932,6 +3456,18 @@
       <c r="R44" t="n">
         <v>2.824734835299429</v>
       </c>
+      <c r="S44" t="n">
+        <v>4.36210602889013</v>
+      </c>
+      <c r="T44" t="n">
+        <v>4.059810199011286</v>
+      </c>
+      <c r="U44" t="n">
+        <v>3.425267933338946</v>
+      </c>
+      <c r="V44" t="n">
+        <v>2.806563352152798</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2988,6 +3524,18 @@
       <c r="R45" t="n">
         <v>2.937307394636194</v>
       </c>
+      <c r="S45" t="n">
+        <v>4.713424126572121</v>
+      </c>
+      <c r="T45" t="n">
+        <v>4.122623447937346</v>
+      </c>
+      <c r="U45" t="n">
+        <v>3.071604457379841</v>
+      </c>
+      <c r="V45" t="n">
+        <v>2.948835881838972</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3044,6 +3592,18 @@
       <c r="R46" t="n">
         <v>2.560009144336603</v>
       </c>
+      <c r="S46" t="n">
+        <v>3.880028803863905</v>
+      </c>
+      <c r="T46" t="n">
+        <v>4.328898549411514</v>
+      </c>
+      <c r="U46" t="n">
+        <v>2.894194348715453</v>
+      </c>
+      <c r="V46" t="n">
+        <v>2.480535272930508</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3100,6 +3660,18 @@
       <c r="R47" t="n">
         <v>2.838362735295637</v>
       </c>
+      <c r="S47" t="n">
+        <v>4.670317773158532</v>
+      </c>
+      <c r="T47" t="n">
+        <v>3.875709753859931</v>
+      </c>
+      <c r="U47" t="n">
+        <v>3.280707820865076</v>
+      </c>
+      <c r="V47" t="n">
+        <v>2.981527006569526</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3156,6 +3728,18 @@
       <c r="R48" t="n">
         <v>2.77097568798573</v>
       </c>
+      <c r="S48" t="n">
+        <v>4.549382658686747</v>
+      </c>
+      <c r="T48" t="n">
+        <v>4.111375215437715</v>
+      </c>
+      <c r="U48" t="n">
+        <v>2.980235184092081</v>
+      </c>
+      <c r="V48" t="n">
+        <v>2.696901674154816</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3212,6 +3796,18 @@
       <c r="R49" t="n">
         <v>2.824772660700272</v>
       </c>
+      <c r="S49" t="n">
+        <v>4.939246658065306</v>
+      </c>
+      <c r="T49" t="n">
+        <v>4.000632217039914</v>
+      </c>
+      <c r="U49" t="n">
+        <v>3.259404569996437</v>
+      </c>
+      <c r="V49" t="n">
+        <v>2.718348314548703</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3268,6 +3864,18 @@
       <c r="R50" t="n">
         <v>2.815512063628067</v>
       </c>
+      <c r="S50" t="n">
+        <v>4.935285062544865</v>
+      </c>
+      <c r="T50" t="n">
+        <v>4.136379777278418</v>
+      </c>
+      <c r="U50" t="n">
+        <v>3.053047428696992</v>
+      </c>
+      <c r="V50" t="n">
+        <v>2.507318842448462</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3320,6 +3928,16 @@
       <c r="R51" t="n">
         <v>2.812857871272881</v>
       </c>
+      <c r="S51" t="n">
+        <v>5.199120378202133</v>
+      </c>
+      <c r="T51" t="n">
+        <v>4.24664081618807</v>
+      </c>
+      <c r="U51" t="n">
+        <v>3.17918356280883</v>
+      </c>
+      <c r="V51" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/my_work/data1/YearMeanER56985_蒙自.xlsx
+++ b/my_work/data1/YearMeanER56985_蒙自.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V51"/>
+  <dimension ref="A1:U51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,60 +486,55 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>s4_RH</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
           <t>ETOmean</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>s1_ET0</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>s2_ET0</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>s3_ET0</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>s4_ET0</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>ET0_PMT_G</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>ET0_ET0_PMT_CF</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>s11_ET0</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>s22_ET0</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>s33_ET0</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>s44_ET0</t>
         </is>
@@ -577,39 +572,36 @@
         <v>0.8542060491493383</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8231332703213611</v>
+        <v>3.654694580962424</v>
       </c>
       <c r="L2" t="n">
-        <v>3.654694580962424</v>
+        <v>4.923240789495421</v>
       </c>
       <c r="M2" t="n">
+        <v>4.157239204819592</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2.93765027301952</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2.569257641439182</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.815020317105452</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.809260062527287</v>
+      </c>
+      <c r="R2" t="n">
         <v>4.923240789495421</v>
       </c>
-      <c r="N2" t="n">
+      <c r="S2" t="n">
         <v>4.157239204819592</v>
       </c>
-      <c r="O2" t="n">
+      <c r="T2" t="n">
         <v>2.93765027301952</v>
       </c>
-      <c r="P2" t="n">
-        <v>2.569257641439182</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.815020317105452</v>
-      </c>
-      <c r="R2" t="n">
-        <v>2.809260062527287</v>
-      </c>
-      <c r="S2" t="n">
-        <v>4.923240789495421</v>
-      </c>
-      <c r="T2" t="n">
-        <v>4.157239204819592</v>
-      </c>
       <c r="U2" t="n">
-        <v>2.93765027301952</v>
-      </c>
-      <c r="V2" t="n">
         <v>2.569257641439182</v>
       </c>
     </row>
@@ -645,39 +637,36 @@
         <v>0.8753372171608164</v>
       </c>
       <c r="K3" t="n">
-        <v>0.7928666272767393</v>
+        <v>3.548990492330122</v>
       </c>
       <c r="L3" t="n">
-        <v>3.548990492330122</v>
+        <v>4.77926187742375</v>
       </c>
       <c r="M3" t="n">
+        <v>3.710947314117226</v>
+      </c>
+      <c r="N3" t="n">
+        <v>3.094432840043445</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2.810399555782948</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.774187196627571</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.763307800699782</v>
+      </c>
+      <c r="R3" t="n">
         <v>4.77926187742375</v>
       </c>
-      <c r="N3" t="n">
+      <c r="S3" t="n">
         <v>3.710947314117226</v>
       </c>
-      <c r="O3" t="n">
+      <c r="T3" t="n">
         <v>3.094432840043445</v>
       </c>
-      <c r="P3" t="n">
-        <v>2.810399555782948</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.774187196627571</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2.763307800699782</v>
-      </c>
-      <c r="S3" t="n">
-        <v>4.77926187742375</v>
-      </c>
-      <c r="T3" t="n">
-        <v>3.710947314117226</v>
-      </c>
       <c r="U3" t="n">
-        <v>3.094432840043445</v>
-      </c>
-      <c r="V3" t="n">
         <v>2.810399555782948</v>
       </c>
     </row>
@@ -713,39 +702,36 @@
         <v>0.8618709046806664</v>
       </c>
       <c r="K4" t="n">
-        <v>0.7830568131648484</v>
+        <v>4.127377252933094</v>
       </c>
       <c r="L4" t="n">
-        <v>4.127377252933094</v>
+        <v>5.908937464896196</v>
       </c>
       <c r="M4" t="n">
+        <v>3.897399826831821</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3.286837814798378</v>
+      </c>
+      <c r="O4" t="n">
+        <v>3.551138521359072</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3.052667110108093</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3.055682475916401</v>
+      </c>
+      <c r="R4" t="n">
         <v>5.908937464896196</v>
       </c>
-      <c r="N4" t="n">
+      <c r="S4" t="n">
         <v>3.897399826831821</v>
       </c>
-      <c r="O4" t="n">
+      <c r="T4" t="n">
         <v>3.286837814798378</v>
       </c>
-      <c r="P4" t="n">
-        <v>3.551138521359072</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>3.052667110108093</v>
-      </c>
-      <c r="R4" t="n">
-        <v>3.055682475916401</v>
-      </c>
-      <c r="S4" t="n">
-        <v>5.908937464896196</v>
-      </c>
-      <c r="T4" t="n">
-        <v>3.897399826831821</v>
-      </c>
       <c r="U4" t="n">
-        <v>3.286837814798378</v>
-      </c>
-      <c r="V4" t="n">
         <v>3.551138521359072</v>
       </c>
     </row>
@@ -781,39 +767,36 @@
         <v>0.873684058471725</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8134195483002322</v>
+        <v>3.597478249036677</v>
       </c>
       <c r="L5" t="n">
-        <v>3.597478249036677</v>
+        <v>5.010083481679114</v>
       </c>
       <c r="M5" t="n">
+        <v>3.377268953206463</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3.065659956873575</v>
+      </c>
+      <c r="O5" t="n">
+        <v>3.101248827125614</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.740675658919944</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.732259675954233</v>
+      </c>
+      <c r="R5" t="n">
         <v>5.010083481679114</v>
       </c>
-      <c r="N5" t="n">
+      <c r="S5" t="n">
         <v>3.377268953206463</v>
       </c>
-      <c r="O5" t="n">
+      <c r="T5" t="n">
         <v>3.065659956873575</v>
       </c>
-      <c r="P5" t="n">
-        <v>3.101248827125614</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.740675658919944</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2.732259675954233</v>
-      </c>
-      <c r="S5" t="n">
-        <v>5.010083481679114</v>
-      </c>
-      <c r="T5" t="n">
-        <v>3.377268953206463</v>
-      </c>
       <c r="U5" t="n">
-        <v>3.065659956873575</v>
-      </c>
-      <c r="V5" t="n">
         <v>3.101248827125614</v>
       </c>
     </row>
@@ -849,39 +832,36 @@
         <v>0.8786476469823336</v>
       </c>
       <c r="K6" t="n">
-        <v>0.783531831232077</v>
+        <v>3.604763316907973</v>
       </c>
       <c r="L6" t="n">
-        <v>3.604763316907973</v>
+        <v>4.94384211852161</v>
       </c>
       <c r="M6" t="n">
+        <v>3.422545394478576</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3.317578563879178</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2.87225948287603</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.722839618251197</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.714466201903359</v>
+      </c>
+      <c r="R6" t="n">
         <v>4.94384211852161</v>
       </c>
-      <c r="N6" t="n">
+      <c r="S6" t="n">
         <v>3.422545394478576</v>
       </c>
-      <c r="O6" t="n">
+      <c r="T6" t="n">
         <v>3.317578563879178</v>
       </c>
-      <c r="P6" t="n">
-        <v>2.87225948287603</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.722839618251197</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2.714466201903359</v>
-      </c>
-      <c r="S6" t="n">
-        <v>4.94384211852161</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3.422545394478576</v>
-      </c>
       <c r="U6" t="n">
-        <v>3.317578563879178</v>
-      </c>
-      <c r="V6" t="n">
         <v>2.87225948287603</v>
       </c>
     </row>
@@ -917,39 +897,36 @@
         <v>0.8945981388996908</v>
       </c>
       <c r="K7" t="n">
-        <v>0.842720171530155</v>
+        <v>3.862197039182041</v>
       </c>
       <c r="L7" t="n">
-        <v>3.862197039182041</v>
+        <v>5.310890832774678</v>
       </c>
       <c r="M7" t="n">
+        <v>4.24045930635055</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3.040279211690035</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2.997040888319442</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.790281453791754</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.781480411679728</v>
+      </c>
+      <c r="R7" t="n">
         <v>5.310890832774678</v>
       </c>
-      <c r="N7" t="n">
+      <c r="S7" t="n">
         <v>4.24045930635055</v>
       </c>
-      <c r="O7" t="n">
+      <c r="T7" t="n">
         <v>3.040279211690035</v>
       </c>
-      <c r="P7" t="n">
-        <v>2.997040888319442</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.790281453791754</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2.781480411679728</v>
-      </c>
-      <c r="S7" t="n">
-        <v>5.310890832774678</v>
-      </c>
-      <c r="T7" t="n">
-        <v>4.24045930635055</v>
-      </c>
       <c r="U7" t="n">
-        <v>3.040279211690035</v>
-      </c>
-      <c r="V7" t="n">
         <v>2.997040888319442</v>
       </c>
     </row>
@@ -985,39 +962,36 @@
         <v>0.8836123107441989</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8094095841412489</v>
+        <v>3.756031259971361</v>
       </c>
       <c r="L8" t="n">
-        <v>3.756031259971361</v>
+        <v>5.253163479163216</v>
       </c>
       <c r="M8" t="n">
+        <v>3.892745122756592</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2.727974865892616</v>
+      </c>
+      <c r="O8" t="n">
+        <v>3.298564177287021</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.820370525871995</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.811813730722179</v>
+      </c>
+      <c r="R8" t="n">
         <v>5.253163479163216</v>
       </c>
-      <c r="N8" t="n">
+      <c r="S8" t="n">
         <v>3.892745122756592</v>
       </c>
-      <c r="O8" t="n">
+      <c r="T8" t="n">
         <v>2.727974865892616</v>
       </c>
-      <c r="P8" t="n">
-        <v>3.298564177287021</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.820370525871995</v>
-      </c>
-      <c r="R8" t="n">
-        <v>2.811813730722179</v>
-      </c>
-      <c r="S8" t="n">
-        <v>5.253163479163216</v>
-      </c>
-      <c r="T8" t="n">
-        <v>3.892745122756592</v>
-      </c>
       <c r="U8" t="n">
-        <v>2.727974865892616</v>
-      </c>
-      <c r="V8" t="n">
         <v>3.298564177287021</v>
       </c>
     </row>
@@ -1053,39 +1027,36 @@
         <v>0.8871554362370917</v>
       </c>
       <c r="K9" t="n">
-        <v>0.805743077691888</v>
+        <v>3.748373302594482</v>
       </c>
       <c r="L9" t="n">
-        <v>3.748373302594482</v>
+        <v>5.054724815579469</v>
       </c>
       <c r="M9" t="n">
+        <v>3.542014824284868</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3.128204738520381</v>
+      </c>
+      <c r="O9" t="n">
+        <v>3.419578055768996</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.742857386345193</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.733552819223625</v>
+      </c>
+      <c r="R9" t="n">
         <v>5.054724815579469</v>
       </c>
-      <c r="N9" t="n">
+      <c r="S9" t="n">
         <v>3.542014824284868</v>
       </c>
-      <c r="O9" t="n">
+      <c r="T9" t="n">
         <v>3.128204738520381</v>
       </c>
-      <c r="P9" t="n">
-        <v>3.419578055768996</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.742857386345193</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2.733552819223625</v>
-      </c>
-      <c r="S9" t="n">
-        <v>5.054724815579469</v>
-      </c>
-      <c r="T9" t="n">
-        <v>3.542014824284868</v>
-      </c>
       <c r="U9" t="n">
-        <v>3.128204738520381</v>
-      </c>
-      <c r="V9" t="n">
         <v>3.419578055768996</v>
       </c>
     </row>
@@ -1121,39 +1092,36 @@
         <v>0.8647078397254534</v>
       </c>
       <c r="K10" t="n">
-        <v>0.7908560660536025</v>
+        <v>3.808517346374455</v>
       </c>
       <c r="L10" t="n">
-        <v>3.808517346374455</v>
+        <v>5.267349724062259</v>
       </c>
       <c r="M10" t="n">
+        <v>3.84171023815579</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3.251625763475296</v>
+      </c>
+      <c r="O10" t="n">
+        <v>3.014687698450187</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.841818853703636</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.83396229680651</v>
+      </c>
+      <c r="R10" t="n">
         <v>5.267349724062259</v>
       </c>
-      <c r="N10" t="n">
+      <c r="S10" t="n">
         <v>3.84171023815579</v>
       </c>
-      <c r="O10" t="n">
+      <c r="T10" t="n">
         <v>3.251625763475296</v>
       </c>
-      <c r="P10" t="n">
-        <v>3.014687698450187</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.841818853703636</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2.83396229680651</v>
-      </c>
-      <c r="S10" t="n">
-        <v>5.267349724062259</v>
-      </c>
-      <c r="T10" t="n">
-        <v>3.84171023815579</v>
-      </c>
       <c r="U10" t="n">
-        <v>3.251625763475296</v>
-      </c>
-      <c r="V10" t="n">
         <v>3.014687698450187</v>
       </c>
     </row>
@@ -1189,39 +1157,36 @@
         <v>1.275459081123758</v>
       </c>
       <c r="K11" t="n">
-        <v>0.8464514276742044</v>
+        <v>3.559699764529989</v>
       </c>
       <c r="L11" t="n">
-        <v>3.559699764529989</v>
+        <v>4.835449222329537</v>
       </c>
       <c r="M11" t="n">
+        <v>3.905969289927583</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2.658459800635675</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2.935117717811484</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.715275080573081</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.708766133889751</v>
+      </c>
+      <c r="R11" t="n">
         <v>4.835449222329537</v>
       </c>
-      <c r="N11" t="n">
+      <c r="S11" t="n">
         <v>3.905969289927583</v>
       </c>
-      <c r="O11" t="n">
+      <c r="T11" t="n">
         <v>2.658459800635675</v>
       </c>
-      <c r="P11" t="n">
-        <v>2.935117717811484</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.715275080573081</v>
-      </c>
-      <c r="R11" t="n">
-        <v>2.708766133889751</v>
-      </c>
-      <c r="S11" t="n">
-        <v>4.835449222329537</v>
-      </c>
-      <c r="T11" t="n">
-        <v>3.905969289927583</v>
-      </c>
       <c r="U11" t="n">
-        <v>2.658459800635675</v>
-      </c>
-      <c r="V11" t="n">
         <v>2.935117717811484</v>
       </c>
     </row>
@@ -1257,39 +1222,36 @@
         <v>0.866998518322439</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8259506677017575</v>
+        <v>3.469276112570418</v>
       </c>
       <c r="L12" t="n">
-        <v>3.469276112570418</v>
+        <v>4.808486863693846</v>
       </c>
       <c r="M12" t="n">
+        <v>4.01680210115205</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2.642191496269236</v>
+      </c>
+      <c r="O12" t="n">
+        <v>2.378625671807378</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.821714642714012</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.814621514724022</v>
+      </c>
+      <c r="R12" t="n">
         <v>4.808486863693846</v>
       </c>
-      <c r="N12" t="n">
+      <c r="S12" t="n">
         <v>4.01680210115205</v>
       </c>
-      <c r="O12" t="n">
+      <c r="T12" t="n">
         <v>2.642191496269236</v>
       </c>
-      <c r="P12" t="n">
-        <v>2.378625671807378</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.821714642714012</v>
-      </c>
-      <c r="R12" t="n">
-        <v>2.814621514724022</v>
-      </c>
-      <c r="S12" t="n">
-        <v>4.808486863693846</v>
-      </c>
-      <c r="T12" t="n">
-        <v>4.01680210115205</v>
-      </c>
       <c r="U12" t="n">
-        <v>2.642191496269236</v>
-      </c>
-      <c r="V12" t="n">
         <v>2.378625671807378</v>
       </c>
     </row>
@@ -1325,39 +1287,36 @@
         <v>0.8663595225092536</v>
       </c>
       <c r="K13" t="n">
-        <v>0.7854236709200972</v>
+        <v>3.522525527715015</v>
       </c>
       <c r="L13" t="n">
-        <v>3.522525527715015</v>
+        <v>4.770783511713963</v>
       </c>
       <c r="M13" t="n">
+        <v>3.832474327444918</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2.902000521354286</v>
+      </c>
+      <c r="O13" t="n">
+        <v>2.710957278922722</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.871806578887211</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.864616435296976</v>
+      </c>
+      <c r="R13" t="n">
         <v>4.770783511713963</v>
       </c>
-      <c r="N13" t="n">
+      <c r="S13" t="n">
         <v>3.832474327444918</v>
       </c>
-      <c r="O13" t="n">
+      <c r="T13" t="n">
         <v>2.902000521354286</v>
       </c>
-      <c r="P13" t="n">
-        <v>2.710957278922722</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.871806578887211</v>
-      </c>
-      <c r="R13" t="n">
-        <v>2.864616435296976</v>
-      </c>
-      <c r="S13" t="n">
-        <v>4.770783511713963</v>
-      </c>
-      <c r="T13" t="n">
-        <v>3.832474327444918</v>
-      </c>
       <c r="U13" t="n">
-        <v>2.902000521354286</v>
-      </c>
-      <c r="V13" t="n">
         <v>2.710957278922722</v>
       </c>
     </row>
@@ -1393,39 +1352,36 @@
         <v>0.8729757041023759</v>
       </c>
       <c r="K14" t="n">
-        <v>0.7512742702824811</v>
+        <v>3.887584891908133</v>
       </c>
       <c r="L14" t="n">
-        <v>3.887584891908133</v>
+        <v>5.703396904840345</v>
       </c>
       <c r="M14" t="n">
+        <v>3.671178601560269</v>
+      </c>
+      <c r="N14" t="n">
+        <v>2.761375689070902</v>
+      </c>
+      <c r="O14" t="n">
+        <v>3.549317409906644</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.960387293831846</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.959262182802902</v>
+      </c>
+      <c r="R14" t="n">
         <v>5.703396904840345</v>
       </c>
-      <c r="N14" t="n">
+      <c r="S14" t="n">
         <v>3.671178601560269</v>
       </c>
-      <c r="O14" t="n">
+      <c r="T14" t="n">
         <v>2.761375689070902</v>
       </c>
-      <c r="P14" t="n">
-        <v>3.549317409906644</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.960387293831846</v>
-      </c>
-      <c r="R14" t="n">
-        <v>2.959262182802902</v>
-      </c>
-      <c r="S14" t="n">
-        <v>5.703396904840345</v>
-      </c>
-      <c r="T14" t="n">
-        <v>3.671178601560269</v>
-      </c>
       <c r="U14" t="n">
-        <v>2.761375689070902</v>
-      </c>
-      <c r="V14" t="n">
         <v>3.549317409906644</v>
       </c>
     </row>
@@ -1461,39 +1417,36 @@
         <v>0.850354688358531</v>
       </c>
       <c r="K15" t="n">
-        <v>0.7917948102871316</v>
+        <v>4.014663706649062</v>
       </c>
       <c r="L15" t="n">
-        <v>4.014663706649062</v>
+        <v>5.709100779479885</v>
       </c>
       <c r="M15" t="n">
+        <v>4.09493525681301</v>
+      </c>
+      <c r="N15" t="n">
+        <v>2.999921378155018</v>
+      </c>
+      <c r="O15" t="n">
+        <v>3.409324918551746</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3.042597060111038</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3.045764185845183</v>
+      </c>
+      <c r="R15" t="n">
         <v>5.709100779479885</v>
       </c>
-      <c r="N15" t="n">
+      <c r="S15" t="n">
         <v>4.09493525681301</v>
       </c>
-      <c r="O15" t="n">
+      <c r="T15" t="n">
         <v>2.999921378155018</v>
       </c>
-      <c r="P15" t="n">
-        <v>3.409324918551746</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>3.042597060111038</v>
-      </c>
-      <c r="R15" t="n">
-        <v>3.045764185845183</v>
-      </c>
-      <c r="S15" t="n">
-        <v>5.709100779479885</v>
-      </c>
-      <c r="T15" t="n">
-        <v>4.09493525681301</v>
-      </c>
       <c r="U15" t="n">
-        <v>2.999921378155018</v>
-      </c>
-      <c r="V15" t="n">
         <v>3.409324918551746</v>
       </c>
     </row>
@@ -1529,39 +1482,36 @@
         <v>0.8595399534703971</v>
       </c>
       <c r="K16" t="n">
-        <v>0.8483922252847694</v>
+        <v>3.608324825758146</v>
       </c>
       <c r="L16" t="n">
-        <v>3.608324825758146</v>
+        <v>4.896179220213741</v>
       </c>
       <c r="M16" t="n">
+        <v>3.845967405900804</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2.926189677051416</v>
+      </c>
+      <c r="O16" t="n">
+        <v>2.935739894390049</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.864938761737372</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.857096526381638</v>
+      </c>
+      <c r="R16" t="n">
         <v>4.896179220213741</v>
       </c>
-      <c r="N16" t="n">
+      <c r="S16" t="n">
         <v>3.845967405900804</v>
       </c>
-      <c r="O16" t="n">
+      <c r="T16" t="n">
         <v>2.926189677051416</v>
       </c>
-      <c r="P16" t="n">
-        <v>2.935739894390049</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.864938761737372</v>
-      </c>
-      <c r="R16" t="n">
-        <v>2.857096526381638</v>
-      </c>
-      <c r="S16" t="n">
-        <v>4.896179220213741</v>
-      </c>
-      <c r="T16" t="n">
-        <v>3.845967405900804</v>
-      </c>
       <c r="U16" t="n">
-        <v>2.926189677051416</v>
-      </c>
-      <c r="V16" t="n">
         <v>2.935739894390049</v>
       </c>
     </row>
@@ -1597,39 +1547,36 @@
         <v>0.8783793672205616</v>
       </c>
       <c r="K17" t="n">
-        <v>0.8424915397241594</v>
+        <v>3.780050598081172</v>
       </c>
       <c r="L17" t="n">
-        <v>3.780050598081172</v>
+        <v>5.391887863528425</v>
       </c>
       <c r="M17" t="n">
+        <v>4.132361223105947</v>
+      </c>
+      <c r="N17" t="n">
+        <v>2.907703337413873</v>
+      </c>
+      <c r="O17" t="n">
+        <v>2.820477060524265</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.826946837681032</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.820031579388692</v>
+      </c>
+      <c r="R17" t="n">
         <v>5.391887863528425</v>
       </c>
-      <c r="N17" t="n">
+      <c r="S17" t="n">
         <v>4.132361223105947</v>
       </c>
-      <c r="O17" t="n">
+      <c r="T17" t="n">
         <v>2.907703337413873</v>
       </c>
-      <c r="P17" t="n">
-        <v>2.820477060524265</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.826946837681032</v>
-      </c>
-      <c r="R17" t="n">
-        <v>2.820031579388692</v>
-      </c>
-      <c r="S17" t="n">
-        <v>5.391887863528425</v>
-      </c>
-      <c r="T17" t="n">
-        <v>4.132361223105947</v>
-      </c>
       <c r="U17" t="n">
-        <v>2.907703337413873</v>
-      </c>
-      <c r="V17" t="n">
         <v>2.820477060524265</v>
       </c>
     </row>
@@ -1665,39 +1612,36 @@
         <v>0.8306803378269401</v>
       </c>
       <c r="K18" t="n">
-        <v>0.8414275155410827</v>
+        <v>3.797049270387936</v>
       </c>
       <c r="L18" t="n">
-        <v>3.797049270387936</v>
+        <v>5.338512414886617</v>
       </c>
       <c r="M18" t="n">
+        <v>4.573094749579551</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2.827368069645886</v>
+      </c>
+      <c r="O18" t="n">
+        <v>2.577967330083415</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.85683227928208</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.856122604177564</v>
+      </c>
+      <c r="R18" t="n">
         <v>5.338512414886617</v>
       </c>
-      <c r="N18" t="n">
+      <c r="S18" t="n">
         <v>4.573094749579551</v>
       </c>
-      <c r="O18" t="n">
+      <c r="T18" t="n">
         <v>2.827368069645886</v>
       </c>
-      <c r="P18" t="n">
-        <v>2.577967330083415</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.85683227928208</v>
-      </c>
-      <c r="R18" t="n">
-        <v>2.856122604177564</v>
-      </c>
-      <c r="S18" t="n">
-        <v>5.338512414886617</v>
-      </c>
-      <c r="T18" t="n">
-        <v>4.573094749579551</v>
-      </c>
       <c r="U18" t="n">
-        <v>2.827368069645886</v>
-      </c>
-      <c r="V18" t="n">
         <v>2.577967330083415</v>
       </c>
     </row>
@@ -1733,39 +1677,36 @@
         <v>0.858203057695868</v>
       </c>
       <c r="K19" t="n">
-        <v>0.7843621724380365</v>
+        <v>3.843917139882114</v>
       </c>
       <c r="L19" t="n">
-        <v>3.843917139882114</v>
+        <v>5.330792072476499</v>
       </c>
       <c r="M19" t="n">
+        <v>3.782595366975506</v>
+      </c>
+      <c r="N19" t="n">
+        <v>3.13628374047188</v>
+      </c>
+      <c r="O19" t="n">
+        <v>3.278650010423337</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.88640028416391</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.882907430093498</v>
+      </c>
+      <c r="R19" t="n">
         <v>5.330792072476499</v>
       </c>
-      <c r="N19" t="n">
+      <c r="S19" t="n">
         <v>3.782595366975506</v>
       </c>
-      <c r="O19" t="n">
+      <c r="T19" t="n">
         <v>3.13628374047188</v>
       </c>
-      <c r="P19" t="n">
-        <v>3.278650010423337</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2.88640028416391</v>
-      </c>
-      <c r="R19" t="n">
-        <v>2.882907430093498</v>
-      </c>
-      <c r="S19" t="n">
-        <v>5.330792072476499</v>
-      </c>
-      <c r="T19" t="n">
-        <v>3.782595366975506</v>
-      </c>
       <c r="U19" t="n">
-        <v>3.13628374047188</v>
-      </c>
-      <c r="V19" t="n">
         <v>3.278650010423337</v>
       </c>
     </row>
@@ -1801,39 +1742,36 @@
         <v>0.880418029661826</v>
       </c>
       <c r="K20" t="n">
-        <v>0.8180274529976888</v>
+        <v>3.5710708509371</v>
       </c>
       <c r="L20" t="n">
-        <v>3.5710708509371</v>
+        <v>4.59389321117883</v>
       </c>
       <c r="M20" t="n">
+        <v>3.65873480624086</v>
+      </c>
+      <c r="N20" t="n">
+        <v>2.941584344520041</v>
+      </c>
+      <c r="O20" t="n">
+        <v>3.24492476476059</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.779328341776157</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.767978709602385</v>
+      </c>
+      <c r="R20" t="n">
         <v>4.59389321117883</v>
       </c>
-      <c r="N20" t="n">
+      <c r="S20" t="n">
         <v>3.65873480624086</v>
       </c>
-      <c r="O20" t="n">
+      <c r="T20" t="n">
         <v>2.941584344520041</v>
       </c>
-      <c r="P20" t="n">
-        <v>3.24492476476059</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2.779328341776157</v>
-      </c>
-      <c r="R20" t="n">
-        <v>2.767978709602385</v>
-      </c>
-      <c r="S20" t="n">
-        <v>4.59389321117883</v>
-      </c>
-      <c r="T20" t="n">
-        <v>3.65873480624086</v>
-      </c>
       <c r="U20" t="n">
-        <v>2.941584344520041</v>
-      </c>
-      <c r="V20" t="n">
         <v>3.24492476476059</v>
       </c>
     </row>
@@ -1869,39 +1807,36 @@
         <v>0.8845558149846009</v>
       </c>
       <c r="K21" t="n">
-        <v>0.8548264735482427</v>
+        <v>3.500429938412323</v>
       </c>
       <c r="L21" t="n">
-        <v>3.500429938412323</v>
+        <v>4.763776916130902</v>
       </c>
       <c r="M21" t="n">
+        <v>3.607476922519607</v>
+      </c>
+      <c r="N21" t="n">
+        <v>2.704180605444946</v>
+      </c>
+      <c r="O21" t="n">
+        <v>3.056266967365497</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2.767430584340465</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.757568450587541</v>
+      </c>
+      <c r="R21" t="n">
         <v>4.763776916130902</v>
       </c>
-      <c r="N21" t="n">
+      <c r="S21" t="n">
         <v>3.607476922519607</v>
       </c>
-      <c r="O21" t="n">
+      <c r="T21" t="n">
         <v>2.704180605444946</v>
       </c>
-      <c r="P21" t="n">
-        <v>3.056266967365497</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2.767430584340465</v>
-      </c>
-      <c r="R21" t="n">
-        <v>2.757568450587541</v>
-      </c>
-      <c r="S21" t="n">
-        <v>4.763776916130902</v>
-      </c>
-      <c r="T21" t="n">
-        <v>3.607476922519607</v>
-      </c>
       <c r="U21" t="n">
-        <v>2.704180605444946</v>
-      </c>
-      <c r="V21" t="n">
         <v>3.056266967365497</v>
       </c>
     </row>
@@ -1937,39 +1872,36 @@
         <v>0.8606905193543224</v>
       </c>
       <c r="K22" t="n">
-        <v>0.8416652677780657</v>
+        <v>3.608963895489522</v>
       </c>
       <c r="L22" t="n">
-        <v>3.608963895489522</v>
+        <v>5.467755961346323</v>
       </c>
       <c r="M22" t="n">
+        <v>3.648767631368857</v>
+      </c>
+      <c r="N22" t="n">
+        <v>2.784835908163746</v>
+      </c>
+      <c r="O22" t="n">
+        <v>2.658480945471544</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2.950484003860224</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.947615008210936</v>
+      </c>
+      <c r="R22" t="n">
         <v>5.467755961346323</v>
       </c>
-      <c r="N22" t="n">
+      <c r="S22" t="n">
         <v>3.648767631368857</v>
       </c>
-      <c r="O22" t="n">
+      <c r="T22" t="n">
         <v>2.784835908163746</v>
       </c>
-      <c r="P22" t="n">
-        <v>2.658480945471544</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2.950484003860224</v>
-      </c>
-      <c r="R22" t="n">
-        <v>2.947615008210936</v>
-      </c>
-      <c r="S22" t="n">
-        <v>5.467755961346323</v>
-      </c>
-      <c r="T22" t="n">
-        <v>3.648767631368857</v>
-      </c>
       <c r="U22" t="n">
-        <v>2.784835908163746</v>
-      </c>
-      <c r="V22" t="n">
         <v>2.658480945471544</v>
       </c>
     </row>
@@ -2005,39 +1937,36 @@
         <v>0.8619873216587138</v>
       </c>
       <c r="K23" t="n">
-        <v>0.8160257165959095</v>
+        <v>3.574969134672207</v>
       </c>
       <c r="L23" t="n">
-        <v>3.574969134672207</v>
+        <v>4.849736554207642</v>
       </c>
       <c r="M23" t="n">
+        <v>3.854530078474603</v>
+      </c>
+      <c r="N23" t="n">
+        <v>2.602251833111005</v>
+      </c>
+      <c r="O23" t="n">
+        <v>3.136275788093516</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2.826061675797427</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.821905232976826</v>
+      </c>
+      <c r="R23" t="n">
         <v>4.849736554207642</v>
       </c>
-      <c r="N23" t="n">
+      <c r="S23" t="n">
         <v>3.854530078474603</v>
       </c>
-      <c r="O23" t="n">
+      <c r="T23" t="n">
         <v>2.602251833111005</v>
       </c>
-      <c r="P23" t="n">
-        <v>3.136275788093516</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2.826061675797427</v>
-      </c>
-      <c r="R23" t="n">
-        <v>2.821905232976826</v>
-      </c>
-      <c r="S23" t="n">
-        <v>4.849736554207642</v>
-      </c>
-      <c r="T23" t="n">
-        <v>3.854530078474603</v>
-      </c>
       <c r="U23" t="n">
-        <v>2.602251833111005</v>
-      </c>
-      <c r="V23" t="n">
         <v>3.136275788093516</v>
       </c>
     </row>
@@ -2073,39 +2002,36 @@
         <v>0.8518128230070835</v>
       </c>
       <c r="K24" t="n">
-        <v>0.7834139916961952</v>
+        <v>3.480837931293005</v>
       </c>
       <c r="L24" t="n">
-        <v>3.480837931293005</v>
+        <v>4.52497242403084</v>
       </c>
       <c r="M24" t="n">
+        <v>3.904203864593523</v>
+      </c>
+      <c r="N24" t="n">
+        <v>2.812579598139046</v>
+      </c>
+      <c r="O24" t="n">
+        <v>2.809460209539833</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2.713801387074709</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.705289519333884</v>
+      </c>
+      <c r="R24" t="n">
         <v>4.52497242403084</v>
       </c>
-      <c r="N24" t="n">
+      <c r="S24" t="n">
         <v>3.904203864593523</v>
       </c>
-      <c r="O24" t="n">
+      <c r="T24" t="n">
         <v>2.812579598139046</v>
       </c>
-      <c r="P24" t="n">
-        <v>2.809460209539833</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2.713801387074709</v>
-      </c>
-      <c r="R24" t="n">
-        <v>2.705289519333884</v>
-      </c>
-      <c r="S24" t="n">
-        <v>4.52497242403084</v>
-      </c>
-      <c r="T24" t="n">
-        <v>3.904203864593523</v>
-      </c>
       <c r="U24" t="n">
-        <v>2.812579598139046</v>
-      </c>
-      <c r="V24" t="n">
         <v>2.809460209539833</v>
       </c>
     </row>
@@ -2141,39 +2067,36 @@
         <v>0.839774552554703</v>
       </c>
       <c r="K25" t="n">
-        <v>0.8381244052508138</v>
+        <v>3.575319603770162</v>
       </c>
       <c r="L25" t="n">
-        <v>3.575319603770162</v>
+        <v>4.478295730602967</v>
       </c>
       <c r="M25" t="n">
+        <v>3.899792511872603</v>
+      </c>
+      <c r="N25" t="n">
+        <v>2.995538243099963</v>
+      </c>
+      <c r="O25" t="n">
+        <v>3.103814285795001</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2.794863827590447</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.78640859749881</v>
+      </c>
+      <c r="R25" t="n">
         <v>4.478295730602967</v>
       </c>
-      <c r="N25" t="n">
+      <c r="S25" t="n">
         <v>3.899792511872603</v>
       </c>
-      <c r="O25" t="n">
+      <c r="T25" t="n">
         <v>2.995538243099963</v>
       </c>
-      <c r="P25" t="n">
-        <v>3.103814285795001</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2.794863827590447</v>
-      </c>
-      <c r="R25" t="n">
-        <v>2.78640859749881</v>
-      </c>
-      <c r="S25" t="n">
-        <v>4.478295730602967</v>
-      </c>
-      <c r="T25" t="n">
-        <v>3.899792511872603</v>
-      </c>
       <c r="U25" t="n">
-        <v>2.995538243099963</v>
-      </c>
-      <c r="V25" t="n">
         <v>3.103814285795001</v>
       </c>
     </row>
@@ -2209,39 +2132,36 @@
         <v>0.9200656198147398</v>
       </c>
       <c r="K26" t="n">
-        <v>0.8602269289389198</v>
+        <v>3.687412237153536</v>
       </c>
       <c r="L26" t="n">
-        <v>3.687412237153536</v>
+        <v>5.415251618885504</v>
       </c>
       <c r="M26" t="n">
+        <v>3.661737118613233</v>
+      </c>
+      <c r="N26" t="n">
+        <v>2.703304642738699</v>
+      </c>
+      <c r="O26" t="n">
+        <v>3.095186389342465</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2.793235199517867</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.784784975617606</v>
+      </c>
+      <c r="R26" t="n">
         <v>5.415251618885504</v>
       </c>
-      <c r="N26" t="n">
+      <c r="S26" t="n">
         <v>3.661737118613233</v>
       </c>
-      <c r="O26" t="n">
+      <c r="T26" t="n">
         <v>2.703304642738699</v>
       </c>
-      <c r="P26" t="n">
-        <v>3.095186389342465</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2.793235199517867</v>
-      </c>
-      <c r="R26" t="n">
-        <v>2.784784975617606</v>
-      </c>
-      <c r="S26" t="n">
-        <v>5.415251618885504</v>
-      </c>
-      <c r="T26" t="n">
-        <v>3.661737118613233</v>
-      </c>
       <c r="U26" t="n">
-        <v>2.703304642738699</v>
-      </c>
-      <c r="V26" t="n">
         <v>3.095186389342465</v>
       </c>
     </row>
@@ -2277,39 +2197,36 @@
         <v>1.193828141020463</v>
       </c>
       <c r="K27" t="n">
-        <v>0.9219033903564988</v>
+        <v>3.835215274407409</v>
       </c>
       <c r="L27" t="n">
-        <v>3.835215274407409</v>
+        <v>5.550217522116809</v>
       </c>
       <c r="M27" t="n">
+        <v>4.316244531199546</v>
+      </c>
+      <c r="N27" t="n">
+        <v>3.113213120359357</v>
+      </c>
+      <c r="O27" t="n">
+        <v>2.429780537868731</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2.878709369952782</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2.879287954150262</v>
+      </c>
+      <c r="R27" t="n">
         <v>5.550217522116809</v>
       </c>
-      <c r="N27" t="n">
+      <c r="S27" t="n">
         <v>4.316244531199546</v>
       </c>
-      <c r="O27" t="n">
+      <c r="T27" t="n">
         <v>3.113213120359357</v>
       </c>
-      <c r="P27" t="n">
-        <v>2.429780537868731</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2.878709369952782</v>
-      </c>
-      <c r="R27" t="n">
-        <v>2.879287954150262</v>
-      </c>
-      <c r="S27" t="n">
-        <v>5.550217522116809</v>
-      </c>
-      <c r="T27" t="n">
-        <v>4.316244531199546</v>
-      </c>
       <c r="U27" t="n">
-        <v>3.113213120359357</v>
-      </c>
-      <c r="V27" t="n">
         <v>2.429780537868731</v>
       </c>
     </row>
@@ -2345,39 +2262,36 @@
         <v>0.9209458373215731</v>
       </c>
       <c r="K28" t="n">
-        <v>0.8299358544868523</v>
+        <v>3.829185459299989</v>
       </c>
       <c r="L28" t="n">
-        <v>3.829185459299989</v>
+        <v>5.198196830421683</v>
       </c>
       <c r="M28" t="n">
+        <v>4.324003116843759</v>
+      </c>
+      <c r="N28" t="n">
+        <v>3.15708021715758</v>
+      </c>
+      <c r="O28" t="n">
+        <v>2.795366100111504</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2.776630259468276</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.770768585838602</v>
+      </c>
+      <c r="R28" t="n">
         <v>5.198196830421683</v>
       </c>
-      <c r="N28" t="n">
+      <c r="S28" t="n">
         <v>4.324003116843759</v>
       </c>
-      <c r="O28" t="n">
+      <c r="T28" t="n">
         <v>3.15708021715758</v>
       </c>
-      <c r="P28" t="n">
-        <v>2.795366100111504</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>2.776630259468276</v>
-      </c>
-      <c r="R28" t="n">
-        <v>2.770768585838602</v>
-      </c>
-      <c r="S28" t="n">
-        <v>5.198196830421683</v>
-      </c>
-      <c r="T28" t="n">
-        <v>4.324003116843759</v>
-      </c>
       <c r="U28" t="n">
-        <v>3.15708021715758</v>
-      </c>
-      <c r="V28" t="n">
         <v>2.795366100111504</v>
       </c>
     </row>
@@ -2413,39 +2327,36 @@
         <v>0.9774547825733166</v>
       </c>
       <c r="K29" t="n">
-        <v>0.8649057251878211</v>
+        <v>3.705657336868283</v>
       </c>
       <c r="L29" t="n">
-        <v>3.705657336868283</v>
+        <v>5.006524442026945</v>
       </c>
       <c r="M29" t="n">
+        <v>3.673177501202781</v>
+      </c>
+      <c r="N29" t="n">
+        <v>3.193940897578126</v>
+      </c>
+      <c r="O29" t="n">
+        <v>3.214056259048309</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2.747652026645769</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2.737164374748836</v>
+      </c>
+      <c r="R29" t="n">
         <v>5.006524442026945</v>
       </c>
-      <c r="N29" t="n">
+      <c r="S29" t="n">
         <v>3.673177501202781</v>
       </c>
-      <c r="O29" t="n">
+      <c r="T29" t="n">
         <v>3.193940897578126</v>
       </c>
-      <c r="P29" t="n">
-        <v>3.214056259048309</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>2.747652026645769</v>
-      </c>
-      <c r="R29" t="n">
-        <v>2.737164374748836</v>
-      </c>
-      <c r="S29" t="n">
-        <v>5.006524442026945</v>
-      </c>
-      <c r="T29" t="n">
-        <v>3.673177501202781</v>
-      </c>
       <c r="U29" t="n">
-        <v>3.193940897578126</v>
-      </c>
-      <c r="V29" t="n">
         <v>3.214056259048309</v>
       </c>
     </row>
@@ -2481,39 +2392,36 @@
         <v>0.9350970057845555</v>
       </c>
       <c r="K30" t="n">
-        <v>0.9076241680138589</v>
+        <v>3.518231450251413</v>
       </c>
       <c r="L30" t="n">
-        <v>3.518231450251413</v>
+        <v>5.089749140304787</v>
       </c>
       <c r="M30" t="n">
+        <v>3.58191495459414</v>
+      </c>
+      <c r="N30" t="n">
+        <v>2.949985901180778</v>
+      </c>
+      <c r="O30" t="n">
+        <v>2.551494566393031</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2.761990901720331</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2.753385608459921</v>
+      </c>
+      <c r="R30" t="n">
         <v>5.089749140304787</v>
       </c>
-      <c r="N30" t="n">
+      <c r="S30" t="n">
         <v>3.58191495459414</v>
       </c>
-      <c r="O30" t="n">
+      <c r="T30" t="n">
         <v>2.949985901180778</v>
       </c>
-      <c r="P30" t="n">
-        <v>2.551494566393031</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>2.761990901720331</v>
-      </c>
-      <c r="R30" t="n">
-        <v>2.753385608459921</v>
-      </c>
-      <c r="S30" t="n">
-        <v>5.089749140304787</v>
-      </c>
-      <c r="T30" t="n">
-        <v>3.58191495459414</v>
-      </c>
       <c r="U30" t="n">
-        <v>2.949985901180778</v>
-      </c>
-      <c r="V30" t="n">
         <v>2.551494566393031</v>
       </c>
     </row>
@@ -2549,39 +2457,36 @@
         <v>0.8811030983957757</v>
       </c>
       <c r="K31" t="n">
-        <v>0.8652831238692102</v>
+        <v>3.359071962278881</v>
       </c>
       <c r="L31" t="n">
-        <v>3.359071962278881</v>
+        <v>4.712389005984423</v>
       </c>
       <c r="M31" t="n">
+        <v>3.325700732914525</v>
+      </c>
+      <c r="N31" t="n">
+        <v>2.888562273790342</v>
+      </c>
+      <c r="O31" t="n">
+        <v>2.713612409421459</v>
+      </c>
+      <c r="P31" t="n">
+        <v>2.697680727182891</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2.68866129092818</v>
+      </c>
+      <c r="R31" t="n">
         <v>4.712389005984423</v>
       </c>
-      <c r="N31" t="n">
+      <c r="S31" t="n">
         <v>3.325700732914525</v>
       </c>
-      <c r="O31" t="n">
+      <c r="T31" t="n">
         <v>2.888562273790342</v>
       </c>
-      <c r="P31" t="n">
-        <v>2.713612409421459</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>2.697680727182891</v>
-      </c>
-      <c r="R31" t="n">
-        <v>2.68866129092818</v>
-      </c>
-      <c r="S31" t="n">
-        <v>4.712389005984423</v>
-      </c>
-      <c r="T31" t="n">
-        <v>3.325700732914525</v>
-      </c>
       <c r="U31" t="n">
-        <v>2.888562273790342</v>
-      </c>
-      <c r="V31" t="n">
         <v>2.713612409421459</v>
       </c>
     </row>
@@ -2617,39 +2522,36 @@
         <v>0.9018090934788546</v>
       </c>
       <c r="K32" t="n">
-        <v>0.8032685825997009</v>
+        <v>3.317042159190091</v>
       </c>
       <c r="L32" t="n">
-        <v>3.317042159190091</v>
+        <v>4.613923644357341</v>
       </c>
       <c r="M32" t="n">
+        <v>3.494776261322099</v>
+      </c>
+      <c r="N32" t="n">
+        <v>2.907854791859553</v>
+      </c>
+      <c r="O32" t="n">
+        <v>2.514075461140595</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2.680441543291317</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2.670145349868082</v>
+      </c>
+      <c r="R32" t="n">
         <v>4.613923644357341</v>
       </c>
-      <c r="N32" t="n">
+      <c r="S32" t="n">
         <v>3.494776261322099</v>
       </c>
-      <c r="O32" t="n">
+      <c r="T32" t="n">
         <v>2.907854791859553</v>
       </c>
-      <c r="P32" t="n">
-        <v>2.514075461140595</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>2.680441543291317</v>
-      </c>
-      <c r="R32" t="n">
-        <v>2.670145349868082</v>
-      </c>
-      <c r="S32" t="n">
-        <v>4.613923644357341</v>
-      </c>
-      <c r="T32" t="n">
-        <v>3.494776261322099</v>
-      </c>
       <c r="U32" t="n">
-        <v>2.907854791859553</v>
-      </c>
-      <c r="V32" t="n">
         <v>2.514075461140595</v>
       </c>
     </row>
@@ -2685,39 +2587,36 @@
         <v>0.8250120284845792</v>
       </c>
       <c r="K33" t="n">
-        <v>0.7710070024317817</v>
+        <v>3.581814844280192</v>
       </c>
       <c r="L33" t="n">
-        <v>3.581814844280192</v>
+        <v>4.660770634794865</v>
       </c>
       <c r="M33" t="n">
+        <v>3.673064948479049</v>
+      </c>
+      <c r="N33" t="n">
+        <v>3.206980540631164</v>
+      </c>
+      <c r="O33" t="n">
+        <v>2.914943838470136</v>
+      </c>
+      <c r="P33" t="n">
+        <v>2.826265369480181</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2.824286358589779</v>
+      </c>
+      <c r="R33" t="n">
         <v>4.660770634794865</v>
       </c>
-      <c r="N33" t="n">
+      <c r="S33" t="n">
         <v>3.673064948479049</v>
       </c>
-      <c r="O33" t="n">
+      <c r="T33" t="n">
         <v>3.206980540631164</v>
       </c>
-      <c r="P33" t="n">
-        <v>2.914943838470136</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>2.826265369480181</v>
-      </c>
-      <c r="R33" t="n">
-        <v>2.824286358589779</v>
-      </c>
-      <c r="S33" t="n">
-        <v>4.660770634794865</v>
-      </c>
-      <c r="T33" t="n">
-        <v>3.673064948479049</v>
-      </c>
       <c r="U33" t="n">
-        <v>3.206980540631164</v>
-      </c>
-      <c r="V33" t="n">
         <v>2.914943838470136</v>
       </c>
     </row>
@@ -2753,39 +2652,36 @@
         <v>0.8734434087935355</v>
       </c>
       <c r="K34" t="n">
-        <v>0.8271322230867199</v>
+        <v>3.480801830619317</v>
       </c>
       <c r="L34" t="n">
-        <v>3.480801830619317</v>
+        <v>4.46446390415332</v>
       </c>
       <c r="M34" t="n">
+        <v>3.796258269058437</v>
+      </c>
+      <c r="N34" t="n">
+        <v>3.091971219205835</v>
+      </c>
+      <c r="O34" t="n">
+        <v>2.708873423399118</v>
+      </c>
+      <c r="P34" t="n">
+        <v>2.64027944717825</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2.630742678964834</v>
+      </c>
+      <c r="R34" t="n">
         <v>4.46446390415332</v>
       </c>
-      <c r="N34" t="n">
+      <c r="S34" t="n">
         <v>3.796258269058437</v>
       </c>
-      <c r="O34" t="n">
+      <c r="T34" t="n">
         <v>3.091971219205835</v>
       </c>
-      <c r="P34" t="n">
-        <v>2.708873423399118</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>2.64027944717825</v>
-      </c>
-      <c r="R34" t="n">
-        <v>2.630742678964834</v>
-      </c>
-      <c r="S34" t="n">
-        <v>4.46446390415332</v>
-      </c>
-      <c r="T34" t="n">
-        <v>3.796258269058437</v>
-      </c>
       <c r="U34" t="n">
-        <v>3.091971219205835</v>
-      </c>
-      <c r="V34" t="n">
         <v>2.708873423399118</v>
       </c>
     </row>
@@ -2821,39 +2717,36 @@
         <v>0.8634411658529375</v>
       </c>
       <c r="K35" t="n">
-        <v>0.8050362868883608</v>
+        <v>3.27724475135219</v>
       </c>
       <c r="L35" t="n">
-        <v>3.27724475135219</v>
+        <v>4.126780702353867</v>
       </c>
       <c r="M35" t="n">
+        <v>3.642503402180018</v>
+      </c>
+      <c r="N35" t="n">
+        <v>2.847983589704406</v>
+      </c>
+      <c r="O35" t="n">
+        <v>2.632181307908573</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2.603766955175186</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2.593967596409098</v>
+      </c>
+      <c r="R35" t="n">
         <v>4.126780702353867</v>
       </c>
-      <c r="N35" t="n">
+      <c r="S35" t="n">
         <v>3.642503402180018</v>
       </c>
-      <c r="O35" t="n">
+      <c r="T35" t="n">
         <v>2.847983589704406</v>
       </c>
-      <c r="P35" t="n">
-        <v>2.632181307908573</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>2.603766955175186</v>
-      </c>
-      <c r="R35" t="n">
-        <v>2.593967596409098</v>
-      </c>
-      <c r="S35" t="n">
-        <v>4.126780702353867</v>
-      </c>
-      <c r="T35" t="n">
-        <v>3.642503402180018</v>
-      </c>
       <c r="U35" t="n">
-        <v>2.847983589704406</v>
-      </c>
-      <c r="V35" t="n">
         <v>2.632181307908573</v>
       </c>
     </row>
@@ -2889,39 +2782,36 @@
         <v>0.8288689096927729</v>
       </c>
       <c r="K36" t="n">
-        <v>0.8110591961586588</v>
+        <v>3.368235318180503</v>
       </c>
       <c r="L36" t="n">
-        <v>3.368235318180503</v>
+        <v>4.221692731687895</v>
       </c>
       <c r="M36" t="n">
+        <v>3.813853034364376</v>
+      </c>
+      <c r="N36" t="n">
+        <v>2.866419715626989</v>
+      </c>
+      <c r="O36" t="n">
+        <v>2.699850591726082</v>
+      </c>
+      <c r="P36" t="n">
+        <v>2.652602116815211</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2.644526747437375</v>
+      </c>
+      <c r="R36" t="n">
         <v>4.221692731687895</v>
       </c>
-      <c r="N36" t="n">
+      <c r="S36" t="n">
         <v>3.813853034364376</v>
       </c>
-      <c r="O36" t="n">
+      <c r="T36" t="n">
         <v>2.866419715626989</v>
       </c>
-      <c r="P36" t="n">
-        <v>2.699850591726082</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>2.652602116815211</v>
-      </c>
-      <c r="R36" t="n">
-        <v>2.644526747437375</v>
-      </c>
-      <c r="S36" t="n">
-        <v>4.221692731687895</v>
-      </c>
-      <c r="T36" t="n">
-        <v>3.813853034364376</v>
-      </c>
       <c r="U36" t="n">
-        <v>2.866419715626989</v>
-      </c>
-      <c r="V36" t="n">
         <v>2.699850591726082</v>
       </c>
     </row>
@@ -2957,39 +2847,36 @@
         <v>0.8491054901830922</v>
       </c>
       <c r="K37" t="n">
-        <v>0.7801969640376958</v>
+        <v>3.362819458551086</v>
       </c>
       <c r="L37" t="n">
-        <v>3.362819458551086</v>
+        <v>4.331261469125918</v>
       </c>
       <c r="M37" t="n">
+        <v>3.658191222327855</v>
+      </c>
+      <c r="N37" t="n">
+        <v>2.967798854355984</v>
+      </c>
+      <c r="O37" t="n">
+        <v>2.613132085683809</v>
+      </c>
+      <c r="P37" t="n">
+        <v>2.725513535759183</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2.719775576658676</v>
+      </c>
+      <c r="R37" t="n">
         <v>4.331261469125918</v>
       </c>
-      <c r="N37" t="n">
+      <c r="S37" t="n">
         <v>3.658191222327855</v>
       </c>
-      <c r="O37" t="n">
+      <c r="T37" t="n">
         <v>2.967798854355984</v>
       </c>
-      <c r="P37" t="n">
-        <v>2.613132085683809</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>2.725513535759183</v>
-      </c>
-      <c r="R37" t="n">
-        <v>2.719775576658676</v>
-      </c>
-      <c r="S37" t="n">
-        <v>4.331261469125918</v>
-      </c>
-      <c r="T37" t="n">
-        <v>3.658191222327855</v>
-      </c>
       <c r="U37" t="n">
-        <v>2.967798854355984</v>
-      </c>
-      <c r="V37" t="n">
         <v>2.613132085683809</v>
       </c>
     </row>
@@ -3025,39 +2912,36 @@
         <v>0.8200436088717136</v>
       </c>
       <c r="K38" t="n">
-        <v>0.7881356565411197</v>
+        <v>3.686371053907839</v>
       </c>
       <c r="L38" t="n">
-        <v>3.686371053907839</v>
+        <v>4.558951241957772</v>
       </c>
       <c r="M38" t="n">
+        <v>4.085201841711071</v>
+      </c>
+      <c r="N38" t="n">
+        <v>3.434476162560983</v>
+      </c>
+      <c r="O38" t="n">
+        <v>2.782135199588359</v>
+      </c>
+      <c r="P38" t="n">
+        <v>2.645081396349117</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>2.640295458715636</v>
+      </c>
+      <c r="R38" t="n">
         <v>4.558951241957772</v>
       </c>
-      <c r="N38" t="n">
+      <c r="S38" t="n">
         <v>4.085201841711071</v>
       </c>
-      <c r="O38" t="n">
+      <c r="T38" t="n">
         <v>3.434476162560983</v>
       </c>
-      <c r="P38" t="n">
-        <v>2.782135199588359</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>2.645081396349117</v>
-      </c>
-      <c r="R38" t="n">
-        <v>2.640295458715636</v>
-      </c>
-      <c r="S38" t="n">
-        <v>4.558951241957772</v>
-      </c>
-      <c r="T38" t="n">
-        <v>4.085201841711071</v>
-      </c>
       <c r="U38" t="n">
-        <v>3.434476162560983</v>
-      </c>
-      <c r="V38" t="n">
         <v>2.782135199588359</v>
       </c>
     </row>
@@ -3093,39 +2977,36 @@
         <v>0.7906214607288365</v>
       </c>
       <c r="K39" t="n">
-        <v>0.7378057816229372</v>
+        <v>3.545944282961679</v>
       </c>
       <c r="L39" t="n">
-        <v>3.545944282961679</v>
+        <v>4.25987588489108</v>
       </c>
       <c r="M39" t="n">
+        <v>4.032167240472294</v>
+      </c>
+      <c r="N39" t="n">
+        <v>3.292872350593679</v>
+      </c>
+      <c r="O39" t="n">
+        <v>2.731068898948469</v>
+      </c>
+      <c r="P39" t="n">
+        <v>2.674164552845357</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>2.671047407735687</v>
+      </c>
+      <c r="R39" t="n">
         <v>4.25987588489108</v>
       </c>
-      <c r="N39" t="n">
+      <c r="S39" t="n">
         <v>4.032167240472294</v>
       </c>
-      <c r="O39" t="n">
+      <c r="T39" t="n">
         <v>3.292872350593679</v>
       </c>
-      <c r="P39" t="n">
-        <v>2.731068898948469</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>2.674164552845357</v>
-      </c>
-      <c r="R39" t="n">
-        <v>2.671047407735687</v>
-      </c>
-      <c r="S39" t="n">
-        <v>4.25987588489108</v>
-      </c>
-      <c r="T39" t="n">
-        <v>4.032167240472294</v>
-      </c>
       <c r="U39" t="n">
-        <v>3.292872350593679</v>
-      </c>
-      <c r="V39" t="n">
         <v>2.731068898948469</v>
       </c>
     </row>
@@ -3161,39 +3042,36 @@
         <v>0.7470215762595379</v>
       </c>
       <c r="K40" t="n">
-        <v>0.77547854193716</v>
+        <v>3.923008357658576</v>
       </c>
       <c r="L40" t="n">
-        <v>3.923008357658576</v>
+        <v>5.027711017243981</v>
       </c>
       <c r="M40" t="n">
+        <v>4.404357927986795</v>
+      </c>
+      <c r="N40" t="n">
+        <v>3.373808811040363</v>
+      </c>
+      <c r="O40" t="n">
+        <v>3.022251036303877</v>
+      </c>
+      <c r="P40" t="n">
+        <v>2.779151370858145</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>2.787196751024162</v>
+      </c>
+      <c r="R40" t="n">
         <v>5.027711017243981</v>
       </c>
-      <c r="N40" t="n">
+      <c r="S40" t="n">
         <v>4.404357927986795</v>
       </c>
-      <c r="O40" t="n">
+      <c r="T40" t="n">
         <v>3.373808811040363</v>
       </c>
-      <c r="P40" t="n">
-        <v>3.022251036303877</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>2.779151370858145</v>
-      </c>
-      <c r="R40" t="n">
-        <v>2.787196751024162</v>
-      </c>
-      <c r="S40" t="n">
-        <v>5.027711017243981</v>
-      </c>
-      <c r="T40" t="n">
-        <v>4.404357927986795</v>
-      </c>
       <c r="U40" t="n">
-        <v>3.373808811040363</v>
-      </c>
-      <c r="V40" t="n">
         <v>3.022251036303877</v>
       </c>
     </row>
@@ -3229,39 +3107,36 @@
         <v>0.7881317369537169</v>
       </c>
       <c r="K41" t="n">
-        <v>0.7746662899978659</v>
+        <v>3.976880274417868</v>
       </c>
       <c r="L41" t="n">
-        <v>3.976880274417868</v>
+        <v>5.253669663972044</v>
       </c>
       <c r="M41" t="n">
+        <v>4.64967594090741</v>
+      </c>
+      <c r="N41" t="n">
+        <v>3.124979451474088</v>
+      </c>
+      <c r="O41" t="n">
+        <v>3.021205591356043</v>
+      </c>
+      <c r="P41" t="n">
+        <v>2.782603151182494</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>2.781739618237874</v>
+      </c>
+      <c r="R41" t="n">
         <v>5.253669663972044</v>
       </c>
-      <c r="N41" t="n">
+      <c r="S41" t="n">
         <v>4.64967594090741</v>
       </c>
-      <c r="O41" t="n">
+      <c r="T41" t="n">
         <v>3.124979451474088</v>
       </c>
-      <c r="P41" t="n">
-        <v>3.021205591356043</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>2.782603151182494</v>
-      </c>
-      <c r="R41" t="n">
-        <v>2.781739618237874</v>
-      </c>
-      <c r="S41" t="n">
-        <v>5.253669663972044</v>
-      </c>
-      <c r="T41" t="n">
-        <v>4.64967594090741</v>
-      </c>
       <c r="U41" t="n">
-        <v>3.124979451474088</v>
-      </c>
-      <c r="V41" t="n">
         <v>3.021205591356043</v>
       </c>
     </row>
@@ -3297,39 +3172,36 @@
         <v>0.846501433333761</v>
       </c>
       <c r="K42" t="n">
-        <v>0.790852394410444</v>
+        <v>3.154546908184024</v>
       </c>
       <c r="L42" t="n">
-        <v>3.154546908184024</v>
+        <v>3.969398558312259</v>
       </c>
       <c r="M42" t="n">
+        <v>3.719032335730716</v>
+      </c>
+      <c r="N42" t="n">
+        <v>2.635030542179803</v>
+      </c>
+      <c r="O42" t="n">
+        <v>2.448174783828466</v>
+      </c>
+      <c r="P42" t="n">
+        <v>2.641320944437726</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>2.635909634993631</v>
+      </c>
+      <c r="R42" t="n">
         <v>3.969398558312259</v>
       </c>
-      <c r="N42" t="n">
+      <c r="S42" t="n">
         <v>3.719032335730716</v>
       </c>
-      <c r="O42" t="n">
+      <c r="T42" t="n">
         <v>2.635030542179803</v>
       </c>
-      <c r="P42" t="n">
-        <v>2.448174783828466</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>2.641320944437726</v>
-      </c>
-      <c r="R42" t="n">
-        <v>2.635909634993631</v>
-      </c>
-      <c r="S42" t="n">
-        <v>3.969398558312259</v>
-      </c>
-      <c r="T42" t="n">
-        <v>3.719032335730716</v>
-      </c>
       <c r="U42" t="n">
-        <v>2.635030542179803</v>
-      </c>
-      <c r="V42" t="n">
         <v>2.448174783828466</v>
       </c>
     </row>
@@ -3365,39 +3237,36 @@
         <v>0.8037389533829554</v>
       </c>
       <c r="K43" t="n">
-        <v>0.757536726417109</v>
+        <v>3.13120604796392</v>
       </c>
       <c r="L43" t="n">
-        <v>3.13120604796392</v>
+        <v>3.978366443300981</v>
       </c>
       <c r="M43" t="n">
+        <v>3.39302918176305</v>
+      </c>
+      <c r="N43" t="n">
+        <v>3.031596856441498</v>
+      </c>
+      <c r="O43" t="n">
+        <v>2.249992728931634</v>
+      </c>
+      <c r="P43" t="n">
+        <v>2.586229041490532</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>2.580348215878395</v>
+      </c>
+      <c r="R43" t="n">
         <v>3.978366443300981</v>
       </c>
-      <c r="N43" t="n">
+      <c r="S43" t="n">
         <v>3.39302918176305</v>
       </c>
-      <c r="O43" t="n">
+      <c r="T43" t="n">
         <v>3.031596856441498</v>
       </c>
-      <c r="P43" t="n">
-        <v>2.249992728931634</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>2.586229041490532</v>
-      </c>
-      <c r="R43" t="n">
-        <v>2.580348215878395</v>
-      </c>
-      <c r="S43" t="n">
-        <v>3.978366443300981</v>
-      </c>
-      <c r="T43" t="n">
-        <v>3.39302918176305</v>
-      </c>
       <c r="U43" t="n">
-        <v>3.031596856441498</v>
-      </c>
-      <c r="V43" t="n">
         <v>2.249992728931634</v>
       </c>
     </row>
@@ -3433,39 +3302,36 @@
         <v>0.7666711434553053</v>
       </c>
       <c r="K44" t="n">
-        <v>0.6970412968722137</v>
+        <v>3.634692646842723</v>
       </c>
       <c r="L44" t="n">
-        <v>3.634692646842723</v>
+        <v>4.36210602889013</v>
       </c>
       <c r="M44" t="n">
+        <v>4.059810199011286</v>
+      </c>
+      <c r="N44" t="n">
+        <v>3.425267933338946</v>
+      </c>
+      <c r="O44" t="n">
+        <v>2.806563352152798</v>
+      </c>
+      <c r="P44" t="n">
+        <v>2.82069614712482</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>2.824734835299429</v>
+      </c>
+      <c r="R44" t="n">
         <v>4.36210602889013</v>
       </c>
-      <c r="N44" t="n">
+      <c r="S44" t="n">
         <v>4.059810199011286</v>
       </c>
-      <c r="O44" t="n">
+      <c r="T44" t="n">
         <v>3.425267933338946</v>
       </c>
-      <c r="P44" t="n">
-        <v>2.806563352152798</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>2.82069614712482</v>
-      </c>
-      <c r="R44" t="n">
-        <v>2.824734835299429</v>
-      </c>
-      <c r="S44" t="n">
-        <v>4.36210602889013</v>
-      </c>
-      <c r="T44" t="n">
-        <v>4.059810199011286</v>
-      </c>
       <c r="U44" t="n">
-        <v>3.425267933338946</v>
-      </c>
-      <c r="V44" t="n">
         <v>2.806563352152798</v>
       </c>
     </row>
@@ -3501,39 +3367,36 @@
         <v>0.7315414309006919</v>
       </c>
       <c r="K45" t="n">
-        <v>0.7299972874878158</v>
+        <v>3.679928395420688</v>
       </c>
       <c r="L45" t="n">
-        <v>3.679928395420688</v>
+        <v>4.713424126572121</v>
       </c>
       <c r="M45" t="n">
+        <v>4.122623447937346</v>
+      </c>
+      <c r="N45" t="n">
+        <v>3.071604457379841</v>
+      </c>
+      <c r="O45" t="n">
+        <v>2.948835881838972</v>
+      </c>
+      <c r="P45" t="n">
+        <v>2.923702266450142</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>2.937307394636194</v>
+      </c>
+      <c r="R45" t="n">
         <v>4.713424126572121</v>
       </c>
-      <c r="N45" t="n">
+      <c r="S45" t="n">
         <v>4.122623447937346</v>
       </c>
-      <c r="O45" t="n">
+      <c r="T45" t="n">
         <v>3.071604457379841</v>
       </c>
-      <c r="P45" t="n">
-        <v>2.948835881838972</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>2.923702266450142</v>
-      </c>
-      <c r="R45" t="n">
-        <v>2.937307394636194</v>
-      </c>
-      <c r="S45" t="n">
-        <v>4.713424126572121</v>
-      </c>
-      <c r="T45" t="n">
-        <v>4.122623447937346</v>
-      </c>
       <c r="U45" t="n">
-        <v>3.071604457379841</v>
-      </c>
-      <c r="V45" t="n">
         <v>2.948835881838972</v>
       </c>
     </row>
@@ -3569,39 +3432,36 @@
         <v>0.7583567511142368</v>
       </c>
       <c r="K46" t="n">
-        <v>0.7813953210405822</v>
+        <v>3.361601887354691</v>
       </c>
       <c r="L46" t="n">
-        <v>3.361601887354691</v>
+        <v>3.880028803863905</v>
       </c>
       <c r="M46" t="n">
+        <v>4.328898549411514</v>
+      </c>
+      <c r="N46" t="n">
+        <v>2.894194348715453</v>
+      </c>
+      <c r="O46" t="n">
+        <v>2.480535272930508</v>
+      </c>
+      <c r="P46" t="n">
+        <v>2.56132134095466</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>2.560009144336603</v>
+      </c>
+      <c r="R46" t="n">
         <v>3.880028803863905</v>
       </c>
-      <c r="N46" t="n">
+      <c r="S46" t="n">
         <v>4.328898549411514</v>
       </c>
-      <c r="O46" t="n">
+      <c r="T46" t="n">
         <v>2.894194348715453</v>
       </c>
-      <c r="P46" t="n">
-        <v>2.480535272930508</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>2.56132134095466</v>
-      </c>
-      <c r="R46" t="n">
-        <v>2.560009144336603</v>
-      </c>
-      <c r="S46" t="n">
-        <v>3.880028803863905</v>
-      </c>
-      <c r="T46" t="n">
-        <v>4.328898549411514</v>
-      </c>
       <c r="U46" t="n">
-        <v>2.894194348715453</v>
-      </c>
-      <c r="V46" t="n">
         <v>2.480535272930508</v>
       </c>
     </row>
@@ -3637,39 +3497,36 @@
         <v>0.7770272160622772</v>
       </c>
       <c r="K47" t="n">
-        <v>0.7196102782751702</v>
+        <v>3.668071707123846</v>
       </c>
       <c r="L47" t="n">
-        <v>3.668071707123846</v>
+        <v>4.670317773158532</v>
       </c>
       <c r="M47" t="n">
+        <v>3.875709753859931</v>
+      </c>
+      <c r="N47" t="n">
+        <v>3.280707820865076</v>
+      </c>
+      <c r="O47" t="n">
+        <v>2.981527006569526</v>
+      </c>
+      <c r="P47" t="n">
+        <v>2.832775154227985</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>2.838362735295637</v>
+      </c>
+      <c r="R47" t="n">
         <v>4.670317773158532</v>
       </c>
-      <c r="N47" t="n">
+      <c r="S47" t="n">
         <v>3.875709753859931</v>
       </c>
-      <c r="O47" t="n">
+      <c r="T47" t="n">
         <v>3.280707820865076</v>
       </c>
-      <c r="P47" t="n">
-        <v>2.981527006569526</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>2.832775154227985</v>
-      </c>
-      <c r="R47" t="n">
-        <v>2.838362735295637</v>
-      </c>
-      <c r="S47" t="n">
-        <v>4.670317773158532</v>
-      </c>
-      <c r="T47" t="n">
-        <v>3.875709753859931</v>
-      </c>
       <c r="U47" t="n">
-        <v>3.280707820865076</v>
-      </c>
-      <c r="V47" t="n">
         <v>2.981527006569526</v>
       </c>
     </row>
@@ -3705,39 +3562,36 @@
         <v>0.77258507755296</v>
       </c>
       <c r="K48" t="n">
-        <v>0.7641445664317432</v>
+        <v>3.548880877131518</v>
       </c>
       <c r="L48" t="n">
-        <v>3.548880877131518</v>
+        <v>4.549382658686747</v>
       </c>
       <c r="M48" t="n">
+        <v>4.111375215437715</v>
+      </c>
+      <c r="N48" t="n">
+        <v>2.980235184092081</v>
+      </c>
+      <c r="O48" t="n">
+        <v>2.696901674154816</v>
+      </c>
+      <c r="P48" t="n">
+        <v>2.766417065116042</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>2.77097568798573</v>
+      </c>
+      <c r="R48" t="n">
         <v>4.549382658686747</v>
       </c>
-      <c r="N48" t="n">
+      <c r="S48" t="n">
         <v>4.111375215437715</v>
       </c>
-      <c r="O48" t="n">
+      <c r="T48" t="n">
         <v>2.980235184092081</v>
       </c>
-      <c r="P48" t="n">
-        <v>2.696901674154816</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>2.766417065116042</v>
-      </c>
-      <c r="R48" t="n">
-        <v>2.77097568798573</v>
-      </c>
-      <c r="S48" t="n">
-        <v>4.549382658686747</v>
-      </c>
-      <c r="T48" t="n">
-        <v>4.111375215437715</v>
-      </c>
       <c r="U48" t="n">
-        <v>2.980235184092081</v>
-      </c>
-      <c r="V48" t="n">
         <v>2.696901674154816</v>
       </c>
     </row>
@@ -3773,39 +3627,36 @@
         <v>0.7595430747964973</v>
       </c>
       <c r="K49" t="n">
-        <v>0.7521753585999797</v>
+        <v>3.698155827984536</v>
       </c>
       <c r="L49" t="n">
-        <v>3.698155827984536</v>
+        <v>4.939246658065306</v>
       </c>
       <c r="M49" t="n">
+        <v>4.000632217039914</v>
+      </c>
+      <c r="N49" t="n">
+        <v>3.259404569996437</v>
+      </c>
+      <c r="O49" t="n">
+        <v>2.718348314548703</v>
+      </c>
+      <c r="P49" t="n">
+        <v>2.818863977197096</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2.824772660700272</v>
+      </c>
+      <c r="R49" t="n">
         <v>4.939246658065306</v>
       </c>
-      <c r="N49" t="n">
+      <c r="S49" t="n">
         <v>4.000632217039914</v>
       </c>
-      <c r="O49" t="n">
+      <c r="T49" t="n">
         <v>3.259404569996437</v>
       </c>
-      <c r="P49" t="n">
-        <v>2.718348314548703</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>2.818863977197096</v>
-      </c>
-      <c r="R49" t="n">
-        <v>2.824772660700272</v>
-      </c>
-      <c r="S49" t="n">
-        <v>4.939246658065306</v>
-      </c>
-      <c r="T49" t="n">
-        <v>4.000632217039914</v>
-      </c>
       <c r="U49" t="n">
-        <v>3.259404569996437</v>
-      </c>
-      <c r="V49" t="n">
         <v>2.718348314548703</v>
       </c>
     </row>
@@ -3841,39 +3692,36 @@
         <v>0.7826984337281186</v>
       </c>
       <c r="K50" t="n">
-        <v>0.8398879150812524</v>
+        <v>3.629840892402733</v>
       </c>
       <c r="L50" t="n">
-        <v>3.629840892402733</v>
+        <v>4.935285062544865</v>
       </c>
       <c r="M50" t="n">
+        <v>4.136379777278418</v>
+      </c>
+      <c r="N50" t="n">
+        <v>3.053047428696992</v>
+      </c>
+      <c r="O50" t="n">
+        <v>2.507318842448462</v>
+      </c>
+      <c r="P50" t="n">
+        <v>2.809583074878895</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>2.815512063628067</v>
+      </c>
+      <c r="R50" t="n">
         <v>4.935285062544865</v>
       </c>
-      <c r="N50" t="n">
+      <c r="S50" t="n">
         <v>4.136379777278418</v>
       </c>
-      <c r="O50" t="n">
+      <c r="T50" t="n">
         <v>3.053047428696992</v>
       </c>
-      <c r="P50" t="n">
-        <v>2.507318842448462</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>2.809583074878895</v>
-      </c>
-      <c r="R50" t="n">
-        <v>2.815512063628067</v>
-      </c>
-      <c r="S50" t="n">
-        <v>4.935285062544865</v>
-      </c>
-      <c r="T50" t="n">
-        <v>4.136379777278418</v>
-      </c>
       <c r="U50" t="n">
-        <v>3.053047428696992</v>
-      </c>
-      <c r="V50" t="n">
         <v>2.507318842448462</v>
       </c>
     </row>
@@ -3908,36 +3756,33 @@
       <c r="J51" t="n">
         <v>0.8499918727730622</v>
       </c>
-      <c r="K51" t="n">
-        <v>0.8563110576840147</v>
-      </c>
-      <c r="L51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>5.199120378202133</v>
+      </c>
       <c r="M51" t="n">
+        <v>4.24664081618807</v>
+      </c>
+      <c r="N51" t="n">
+        <v>3.17918356280883</v>
+      </c>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="n">
+        <v>2.819993927182288</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>2.812857871272881</v>
+      </c>
+      <c r="R51" t="n">
         <v>5.199120378202133</v>
       </c>
-      <c r="N51" t="n">
+      <c r="S51" t="n">
         <v>4.24664081618807</v>
       </c>
-      <c r="O51" t="n">
+      <c r="T51" t="n">
         <v>3.17918356280883</v>
       </c>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="n">
-        <v>2.819993927182288</v>
-      </c>
-      <c r="R51" t="n">
-        <v>2.812857871272881</v>
-      </c>
-      <c r="S51" t="n">
-        <v>5.199120378202133</v>
-      </c>
-      <c r="T51" t="n">
-        <v>4.24664081618807</v>
-      </c>
-      <c r="U51" t="n">
-        <v>3.17918356280883</v>
-      </c>
-      <c r="V51" t="inlineStr"/>
+      <c r="U51" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
